--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
   <si>
     <t>Search</t>
   </si>
@@ -222,6 +222,9 @@
   </si>
   <si>
     <t>Response 02</t>
+  </si>
+  <si>
+    <t>News - Auto get content from the other web</t>
   </si>
 </sst>
 </file>
@@ -470,6 +473,45 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -491,12 +533,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -520,39 +556,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -826,7 +829,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -834,10 +837,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -920,6 +923,14 @@
         <v>62</v>
       </c>
       <c r="C7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" t="s">
         <v>63</v>
       </c>
     </row>
@@ -956,11 +967,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="39" t="s">
+      <c r="A2" s="22"/>
+      <c r="B2" s="23" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="46" t="s">
+      <c r="C2" s="30" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -974,9 +985,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="49"/>
-      <c r="B3" s="39"/>
-      <c r="C3" s="46"/>
+      <c r="A3" s="22"/>
+      <c r="B3" s="23"/>
+      <c r="C3" s="30"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -988,9 +999,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="49"/>
-      <c r="B4" s="39"/>
-      <c r="C4" s="46"/>
+      <c r="A4" s="22"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="30"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1000,9 +1011,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="39"/>
-      <c r="C5" s="46" t="s">
+      <c r="A5" s="22"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="30" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1016,9 +1027,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="49"/>
-      <c r="B6" s="39"/>
-      <c r="C6" s="46"/>
+      <c r="A6" s="22"/>
+      <c r="B6" s="23"/>
+      <c r="C6" s="30"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -1030,9 +1041,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="49"/>
-      <c r="B7" s="39"/>
-      <c r="C7" s="46"/>
+      <c r="A7" s="22"/>
+      <c r="B7" s="23"/>
+      <c r="C7" s="30"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1044,9 +1055,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="49"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="46"/>
+      <c r="A8" s="22"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="30"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1056,9 +1067,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="49"/>
-      <c r="B9" s="39"/>
-      <c r="C9" s="46" t="s">
+      <c r="A9" s="22"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="30" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1072,9 +1083,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="49"/>
-      <c r="B10" s="39"/>
-      <c r="C10" s="46"/>
+      <c r="A10" s="22"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="30"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -1086,9 +1097,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="49"/>
-      <c r="B11" s="39"/>
-      <c r="C11" s="46"/>
+      <c r="A11" s="22"/>
+      <c r="B11" s="23"/>
+      <c r="C11" s="30"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1100,9 +1111,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="49"/>
-      <c r="B12" s="39"/>
-      <c r="C12" s="46"/>
+      <c r="A12" s="22"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="30"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1112,9 +1123,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="49"/>
-      <c r="B13" s="39"/>
-      <c r="C13" s="46" t="s">
+      <c r="A13" s="22"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="30" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1128,9 +1139,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="49"/>
-      <c r="B14" s="39"/>
-      <c r="C14" s="46"/>
+      <c r="A14" s="22"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="30"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -1142,9 +1153,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="49"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="46"/>
+      <c r="A15" s="22"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="30"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1156,9 +1167,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="49"/>
-      <c r="B16" s="39"/>
-      <c r="C16" s="46"/>
+      <c r="A16" s="22"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="30"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1168,21 +1179,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="49"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="47" t="s">
+      <c r="A17" s="22"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="31" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="47"/>
+      <c r="D17" s="31"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="49">
+      <c r="A18" s="22">
         <v>2</v>
       </c>
-      <c r="B18" s="24" t="s">
+      <c r="B18" s="37" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1194,8 +1205,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="49"/>
-      <c r="B19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="38"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1208,8 +1219,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="49"/>
-      <c r="B20" s="25"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="38"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1219,8 +1230,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="49"/>
-      <c r="B21" s="25"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="38"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1233,8 +1244,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="49"/>
-      <c r="B22" s="25"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="38"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1244,8 +1255,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="49"/>
-      <c r="B23" s="25"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="38"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1255,8 +1266,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="49"/>
-      <c r="B24" s="25"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="38"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1269,24 +1280,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="49"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="37" t="s">
+      <c r="A25" s="22"/>
+      <c r="B25" s="39"/>
+      <c r="C25" s="48" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="38"/>
+      <c r="D25" s="49"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="49">
+      <c r="A26" s="22">
         <v>6</v>
       </c>
-      <c r="B26" s="29" t="s">
+      <c r="B26" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="32" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1300,9 +1311,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="49"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1314,9 +1325,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="49"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="48"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="34"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1326,8 +1337,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="49"/>
-      <c r="B29" s="30"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="33"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1337,12 +1348,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="49"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="35" t="s">
+      <c r="A30" s="22"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="46" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="36"/>
+      <c r="D30" s="47"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1351,13 +1362,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="49">
+      <c r="A31" s="22">
         <v>4</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="43" t="s">
+      <c r="C31" s="27" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1371,9 +1382,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="49"/>
-      <c r="B32" s="27"/>
-      <c r="C32" s="43"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="40"/>
+      <c r="C32" s="27"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1385,9 +1396,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="49"/>
-      <c r="B33" s="27"/>
-      <c r="C33" s="43"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="40"/>
+      <c r="C33" s="27"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1397,9 +1408,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="49"/>
-      <c r="B34" s="27"/>
-      <c r="C34" s="43" t="s">
+      <c r="A34" s="22"/>
+      <c r="B34" s="40"/>
+      <c r="C34" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1413,9 +1424,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="49"/>
-      <c r="B35" s="27"/>
-      <c r="C35" s="43"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="40"/>
+      <c r="C35" s="27"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1427,9 +1438,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="49"/>
-      <c r="B36" s="27"/>
-      <c r="C36" s="43"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="40"/>
+      <c r="C36" s="27"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1439,9 +1450,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="49"/>
-      <c r="B37" s="27"/>
-      <c r="C37" s="43" t="s">
+      <c r="A37" s="22"/>
+      <c r="B37" s="40"/>
+      <c r="C37" s="27" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1455,9 +1466,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="49"/>
-      <c r="B38" s="27"/>
-      <c r="C38" s="43"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="40"/>
+      <c r="C38" s="27"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1469,9 +1480,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="49"/>
-      <c r="B39" s="27"/>
-      <c r="C39" s="43"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="40"/>
+      <c r="C39" s="27"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -1483,9 +1494,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="49"/>
-      <c r="B40" s="27"/>
-      <c r="C40" s="43"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="40"/>
+      <c r="C40" s="27"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1495,9 +1506,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="49"/>
-      <c r="B41" s="27"/>
-      <c r="C41" s="43" t="s">
+      <c r="A41" s="22"/>
+      <c r="B41" s="40"/>
+      <c r="C41" s="27" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -1511,9 +1522,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="49"/>
-      <c r="B42" s="27"/>
-      <c r="C42" s="43"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="40"/>
+      <c r="C42" s="27"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -1525,9 +1536,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="49"/>
-      <c r="B43" s="27"/>
-      <c r="C43" s="43"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="40"/>
+      <c r="C43" s="27"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -1539,9 +1550,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="49"/>
-      <c r="B44" s="27"/>
-      <c r="C44" s="43"/>
+      <c r="A44" s="22"/>
+      <c r="B44" s="40"/>
+      <c r="C44" s="27"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1551,8 +1562,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="49"/>
-      <c r="B45" s="27"/>
+      <c r="A45" s="22"/>
+      <c r="B45" s="40"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -1562,8 +1573,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="49"/>
-      <c r="B46" s="28"/>
+      <c r="A46" s="22"/>
+      <c r="B46" s="41"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -1588,16 +1599,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="49">
+      <c r="A48" s="22">
         <v>3</v>
       </c>
-      <c r="B48" s="40" t="s">
+      <c r="B48" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="31" t="s">
+      <c r="C48" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="32"/>
+      <c r="D48" s="43"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -1606,12 +1617,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="49"/>
-      <c r="B49" s="40"/>
-      <c r="C49" s="31" t="s">
+      <c r="A49" s="22"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="32"/>
+      <c r="D49" s="43"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -1620,34 +1631,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="49"/>
-      <c r="B50" s="40"/>
-      <c r="C50" s="31" t="s">
+      <c r="A50" s="22"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="42" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="32"/>
+      <c r="D50" s="43"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="49"/>
-      <c r="B51" s="40"/>
-      <c r="C51" s="31" t="s">
+      <c r="A51" s="22"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="32"/>
+      <c r="D51" s="43"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="49"/>
-      <c r="B52" s="40"/>
-      <c r="C52" s="31" t="s">
+      <c r="A52" s="22"/>
+      <c r="B52" s="24"/>
+      <c r="C52" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="32"/>
+      <c r="D52" s="43"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -1668,13 +1679,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="49">
+      <c r="A54" s="22">
         <v>5</v>
       </c>
-      <c r="B54" s="41" t="s">
+      <c r="B54" s="25" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="44" t="s">
+      <c r="C54" s="28" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -1686,9 +1697,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="49"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="44"/>
+      <c r="A55" s="22"/>
+      <c r="B55" s="25"/>
+      <c r="C55" s="28"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -1700,9 +1711,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="49"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="44"/>
+      <c r="A56" s="22"/>
+      <c r="B56" s="25"/>
+      <c r="C56" s="28"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -1714,9 +1725,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="49"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="44"/>
+      <c r="A57" s="22"/>
+      <c r="B57" s="25"/>
+      <c r="C57" s="28"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -1726,12 +1737,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="49"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="33" t="s">
+      <c r="A58" s="22"/>
+      <c r="B58" s="25"/>
+      <c r="C58" s="44" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="34"/>
+      <c r="D58" s="45"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -1740,12 +1751,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="49"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="33" t="s">
+      <c r="A59" s="22"/>
+      <c r="B59" s="25"/>
+      <c r="C59" s="44" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="34"/>
+      <c r="D59" s="45"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -1754,13 +1765,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="49">
+      <c r="A60" s="22">
         <v>7</v>
       </c>
-      <c r="B60" s="42" t="s">
+      <c r="B60" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="45" t="s">
+      <c r="C60" s="29" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -1774,9 +1785,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="49"/>
-      <c r="B61" s="42"/>
-      <c r="C61" s="45"/>
+      <c r="A61" s="22"/>
+      <c r="B61" s="26"/>
+      <c r="C61" s="29"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -1788,9 +1799,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="49"/>
-      <c r="B62" s="42"/>
-      <c r="C62" s="45"/>
+      <c r="A62" s="22"/>
+      <c r="B62" s="26"/>
+      <c r="C62" s="29"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -1802,9 +1813,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="49"/>
-      <c r="B63" s="42"/>
-      <c r="C63" s="45"/>
+      <c r="A63" s="22"/>
+      <c r="B63" s="26"/>
+      <c r="C63" s="29"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -1814,23 +1825,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="49"/>
-      <c r="B64" s="42"/>
-      <c r="C64" s="22" t="s">
+      <c r="A64" s="22"/>
+      <c r="B64" s="26"/>
+      <c r="C64" s="35" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="23"/>
+      <c r="D64" s="36"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="49"/>
-      <c r="B65" s="42"/>
-      <c r="C65" s="22" t="s">
+      <c r="A65" s="22"/>
+      <c r="B65" s="26"/>
+      <c r="C65" s="35" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="23"/>
+      <c r="D65" s="36"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -1889,13 +1900,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -1912,20 +1930,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet name="Modules" sheetId="3" r:id="rId1"/>
     <sheet name="UC" sheetId="1" r:id="rId2"/>
+    <sheet name="SD" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UC!$F$1:$F$82</definedName>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="107">
   <si>
     <t>Search</t>
   </si>
@@ -185,24 +186,6 @@
     <t>Module</t>
   </si>
   <si>
-    <t>Algorithm - Assign Student into Rooms</t>
-  </si>
-  <si>
-    <t>Algorithm - Assign Students to Vehicle</t>
-  </si>
-  <si>
-    <t>Algorithm - Auto suggest Routes</t>
-  </si>
-  <si>
-    <t>Google Maps - Display Places</t>
-  </si>
-  <si>
-    <t>Google Maps - Display Routes</t>
-  </si>
-  <si>
-    <t>News - General Posting and Managing Posts</t>
-  </si>
-  <si>
     <t>Tri</t>
   </si>
   <si>
@@ -218,20 +201,158 @@
     <t>Tuan</t>
   </si>
   <si>
-    <t>Response 01</t>
-  </si>
-  <si>
-    <t>Response 02</t>
-  </si>
-  <si>
-    <t>News - Auto get content from the other web</t>
+    <t>FrontEnd</t>
+  </si>
+  <si>
+    <t>BackEnd</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Auto assign Student into Rooms</t>
+  </si>
+  <si>
+    <t>Auto assign Students to Vehicle</t>
+  </si>
+  <si>
+    <t>Auto auto suggest Routes</t>
+  </si>
+  <si>
+    <t>Display Venues, Lodges</t>
+  </si>
+  <si>
+    <t>Display Routes</t>
+  </si>
+  <si>
+    <t>[Algorithm]</t>
+  </si>
+  <si>
+    <t>[Google Maps]</t>
+  </si>
+  <si>
+    <t>Auto get content from the other web</t>
+  </si>
+  <si>
+    <t>General Register for Every One</t>
+  </si>
+  <si>
+    <t>Register Details for Candidates, Volunteers</t>
+  </si>
+  <si>
+    <t>Register Details for Sponsors, Charities</t>
+  </si>
+  <si>
+    <t>Login / Logout</t>
+  </si>
+  <si>
+    <t>Check authentication all pages</t>
+  </si>
+  <si>
+    <t>Check authorization all pages</t>
+  </si>
+  <si>
+    <t>Admin control panel page</t>
+  </si>
+  <si>
+    <t>Admin add new Examinations, Universities, Venues</t>
+  </si>
+  <si>
+    <t>Sponsor sponsored cars for a CE</t>
+  </si>
+  <si>
+    <t>Admin create a new UE</t>
+  </si>
+  <si>
+    <t>Charity create a new CE</t>
+  </si>
+  <si>
+    <t>Sponsor funding to a CE</t>
+  </si>
+  <si>
+    <t>Sponsor sponsored lodges for a CE</t>
+  </si>
+  <si>
+    <t>[System]</t>
+  </si>
+  <si>
+    <t>Candidate joins in a CE</t>
+  </si>
+  <si>
+    <t>Volunteer joins in a CE</t>
+  </si>
+  <si>
+    <t>Charity manages Lodges of his CE</t>
+  </si>
+  <si>
+    <t>Charity manages Cars of his CE</t>
+  </si>
+  <si>
+    <t>Charity manages Volunteers of his CE</t>
+  </si>
+  <si>
+    <t>Charity manages Candidates of his CE</t>
+  </si>
+  <si>
+    <t>Candidates view Schedule, Route of Vehicle which serves them</t>
+  </si>
+  <si>
+    <t>[Charity]</t>
+  </si>
+  <si>
+    <t>[Volunteer]</t>
+  </si>
+  <si>
+    <t>[Candidate]</t>
+  </si>
+  <si>
+    <t>[Sponsor]</t>
+  </si>
+  <si>
+    <t>[User]</t>
+  </si>
+  <si>
+    <t>User posts a post</t>
+  </si>
+  <si>
+    <t>User comments, replies a comment</t>
+  </si>
+  <si>
+    <t>User rates a post</t>
+  </si>
+  <si>
+    <t>[Admin]</t>
+  </si>
+  <si>
+    <t>Admin approves a post</t>
+  </si>
+  <si>
+    <t>Comment, Like, Share using Facebook API</t>
+  </si>
+  <si>
+    <t>Share using Google Plus API</t>
+  </si>
+  <si>
+    <t>Admin manages Categories</t>
+  </si>
+  <si>
+    <t>Difficulty</t>
+  </si>
+  <si>
+    <t>Manual assign Student into Rooms</t>
+  </si>
+  <si>
+    <t>Manual assign Students to Vehicle</t>
+  </si>
+  <si>
+    <t>Manual suggest Routes</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -253,8 +374,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="11">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -312,6 +441,30 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF66FF66"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,7 +579,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -473,6 +626,14 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -563,6 +724,11 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF66FF66"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -837,110 +1003,464 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:R37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="40.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
         <v>52</v>
       </c>
-      <c r="B1" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="B1" s="22" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="C1" s="22" t="s">
+        <v>103</v>
+      </c>
+      <c r="D1" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="P1" t="s">
+        <v>98</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" s="24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>76</v>
+      </c>
+      <c r="P2" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>54</v>
+      </c>
+      <c r="R2" s="23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="P3" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q3" t="s">
         <v>53</v>
       </c>
-      <c r="B2" t="s">
-        <v>60</v>
-      </c>
-      <c r="H2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="R3" s="26">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>75</v>
+      </c>
+      <c r="P4" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>57</v>
+      </c>
+      <c r="R4" s="25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>56</v>
+      </c>
+      <c r="R5" s="27">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>102</v>
+      </c>
+      <c r="P6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>61</v>
+      </c>
+      <c r="C7" s="2">
+        <v>3</v>
+      </c>
+      <c r="D7" t="s">
         <v>54</v>
       </c>
-      <c r="B3" t="s">
-        <v>60</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>55</v>
-      </c>
-      <c r="B4" t="s">
-        <v>60</v>
-      </c>
-      <c r="H4" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>56</v>
-      </c>
-      <c r="B5" t="s">
-        <v>59</v>
-      </c>
-      <c r="H5" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>57</v>
-      </c>
-      <c r="B6" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>58</v>
-      </c>
-      <c r="B7" t="s">
-        <v>62</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>54</v>
+      </c>
+      <c r="P7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
       <c r="B8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C8" s="2">
+        <v>4</v>
+      </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" t="s">
         <v>63</v>
       </c>
+      <c r="C9" s="2">
+        <v>5</v>
+      </c>
+      <c r="D9" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s">
+        <v>54</v>
+      </c>
+      <c r="P9" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="2">
+        <v>3</v>
+      </c>
+      <c r="D10" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" t="s">
+        <v>54</v>
+      </c>
+      <c r="P10" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+      <c r="D11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s">
+        <v>54</v>
+      </c>
+      <c r="P11" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="2">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" t="s">
+        <v>54</v>
+      </c>
+      <c r="P12" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>82</v>
+      </c>
+      <c r="B25" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B29" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>94</v>
+      </c>
+      <c r="B33" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>94</v>
+      </c>
+      <c r="B34" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>94</v>
+      </c>
+      <c r="B35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B37" t="s">
+        <v>84</v>
+      </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:C1048576">
-      <formula1>$H$1:$H$5</formula1>
+  <sortState ref="A2:B37">
+    <sortCondition ref="A2"/>
+  </sortState>
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$P$1:$P$11</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1 L2:L17">
+      <formula1>$Q$1:$Q$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576">
+      <formula1>$Q$1:$Q$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
+      <formula1>$R$1:$R$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -967,11 +1487,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
-      <c r="B2" s="23" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -985,9 +1505,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
-      <c r="B3" s="23"/>
-      <c r="C3" s="30"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -999,9 +1519,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
-      <c r="B4" s="23"/>
-      <c r="C4" s="30"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1011,9 +1531,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="22"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="30" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1027,9 +1547,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="30"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -1041,9 +1561,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="22"/>
-      <c r="B7" s="23"/>
-      <c r="C7" s="30"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1055,9 +1575,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="22"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="30"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1067,9 +1587,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="22"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="30" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1083,9 +1603,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="22"/>
-      <c r="B10" s="23"/>
-      <c r="C10" s="30"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -1097,9 +1617,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="22"/>
-      <c r="B11" s="23"/>
-      <c r="C11" s="30"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1111,9 +1631,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="22"/>
-      <c r="B12" s="23"/>
-      <c r="C12" s="30"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1123,9 +1643,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="22"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="30" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1139,9 +1659,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="30"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -1153,9 +1673,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="22"/>
-      <c r="B15" s="23"/>
-      <c r="C15" s="30"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1167,9 +1687,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="30"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1179,21 +1699,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="22"/>
-      <c r="B17" s="23"/>
-      <c r="C17" s="31" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="31"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="22">
+      <c r="A18" s="28">
         <v>2</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1205,8 +1725,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="22"/>
-      <c r="B19" s="38"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1219,8 +1739,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="22"/>
-      <c r="B20" s="38"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1230,8 +1750,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="22"/>
-      <c r="B21" s="38"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1244,8 +1764,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="38"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1255,8 +1775,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="22"/>
-      <c r="B23" s="38"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1266,8 +1786,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="22"/>
-      <c r="B24" s="38"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1280,24 +1800,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="22"/>
-      <c r="B25" s="39"/>
-      <c r="C25" s="48" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="49"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="22">
+      <c r="A26" s="28">
         <v>6</v>
       </c>
-      <c r="B26" s="32" t="s">
+      <c r="B26" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="32" t="s">
+      <c r="C26" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1311,9 +1831,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="22"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1325,9 +1845,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="22"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="34"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1337,8 +1857,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="22"/>
-      <c r="B29" s="33"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1348,12 +1868,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="22"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="46" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="47"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1362,13 +1882,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="22">
+      <c r="A31" s="28">
         <v>4</v>
       </c>
-      <c r="B31" s="40" t="s">
+      <c r="B31" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="27" t="s">
+      <c r="C31" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1382,9 +1902,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
-      <c r="B32" s="40"/>
-      <c r="C32" s="27"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1396,9 +1916,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="22"/>
-      <c r="B33" s="40"/>
-      <c r="C33" s="27"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1408,9 +1928,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="22"/>
-      <c r="B34" s="40"/>
-      <c r="C34" s="27" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1424,9 +1944,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="22"/>
-      <c r="B35" s="40"/>
-      <c r="C35" s="27"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1438,9 +1958,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="22"/>
-      <c r="B36" s="40"/>
-      <c r="C36" s="27"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1450,9 +1970,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="22"/>
-      <c r="B37" s="40"/>
-      <c r="C37" s="27" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1466,9 +1986,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="22"/>
-      <c r="B38" s="40"/>
-      <c r="C38" s="27"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -1480,9 +2000,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="22"/>
-      <c r="B39" s="40"/>
-      <c r="C39" s="27"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -1494,9 +2014,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="22"/>
-      <c r="B40" s="40"/>
-      <c r="C40" s="27"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -1506,9 +2026,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="22"/>
-      <c r="B41" s="40"/>
-      <c r="C41" s="27" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -1522,9 +2042,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="22"/>
-      <c r="B42" s="40"/>
-      <c r="C42" s="27"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -1536,9 +2056,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="22"/>
-      <c r="B43" s="40"/>
-      <c r="C43" s="27"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -1550,9 +2070,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="22"/>
-      <c r="B44" s="40"/>
-      <c r="C44" s="27"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -1562,8 +2082,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="22"/>
-      <c r="B45" s="40"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -1573,8 +2093,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="22"/>
-      <c r="B46" s="41"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -1599,16 +2119,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="22">
+      <c r="A48" s="28">
         <v>3</v>
       </c>
-      <c r="B48" s="24" t="s">
+      <c r="B48" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="42" t="s">
+      <c r="C48" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="43"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -1617,12 +2137,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="22"/>
-      <c r="B49" s="24"/>
-      <c r="C49" s="42" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="43"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -1631,34 +2151,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="22"/>
-      <c r="B50" s="24"/>
-      <c r="C50" s="42" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="43"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="22"/>
-      <c r="B51" s="24"/>
-      <c r="C51" s="42" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="43"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="22"/>
-      <c r="B52" s="24"/>
-      <c r="C52" s="42" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="43"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -1679,13 +2199,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="22">
+      <c r="A54" s="28">
         <v>5</v>
       </c>
-      <c r="B54" s="25" t="s">
+      <c r="B54" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="28" t="s">
+      <c r="C54" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -1697,9 +2217,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="22"/>
-      <c r="B55" s="25"/>
-      <c r="C55" s="28"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -1711,9 +2231,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="22"/>
-      <c r="B56" s="25"/>
-      <c r="C56" s="28"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -1725,9 +2245,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="22"/>
-      <c r="B57" s="25"/>
-      <c r="C57" s="28"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -1737,12 +2257,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="22"/>
-      <c r="B58" s="25"/>
-      <c r="C58" s="44" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="45"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -1751,12 +2271,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="22"/>
-      <c r="B59" s="25"/>
-      <c r="C59" s="44" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="45"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -1765,13 +2285,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="22">
+      <c r="A60" s="28">
         <v>7</v>
       </c>
-      <c r="B60" s="26" t="s">
+      <c r="B60" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="29" t="s">
+      <c r="C60" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -1785,9 +2305,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="22"/>
-      <c r="B61" s="26"/>
-      <c r="C61" s="29"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -1799,9 +2319,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="22"/>
-      <c r="B62" s="26"/>
-      <c r="C62" s="29"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -1813,9 +2333,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="22"/>
-      <c r="B63" s="26"/>
-      <c r="C63" s="29"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -1825,23 +2345,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="22"/>
-      <c r="B64" s="26"/>
-      <c r="C64" s="35" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="36"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="22"/>
-      <c r="B65" s="26"/>
-      <c r="C65" s="35" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="36"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -1941,4 +2461,18 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
   <si>
     <t>Search</t>
   </si>
@@ -346,6 +346,9 @@
   </si>
   <si>
     <t>Manual suggest Routes</t>
+  </si>
+  <si>
+    <t>General Layout (Master page)</t>
   </si>
 </sst>
 </file>
@@ -634,89 +637,89 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -995,7 +998,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1003,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R37"/>
+  <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1160,6 +1163,9 @@
       <c r="E8" t="s">
         <v>54</v>
       </c>
+      <c r="P8" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1178,7 +1184,7 @@
         <v>54</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:18" x14ac:dyDescent="0.25">
@@ -1197,9 +1203,6 @@
       <c r="E10" t="s">
         <v>54</v>
       </c>
-      <c r="P10" t="s">
-        <v>94</v>
-      </c>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
@@ -1217,9 +1220,6 @@
       <c r="E11" t="s">
         <v>54</v>
       </c>
-      <c r="P11" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1237,9 +1237,6 @@
       <c r="E12" t="s">
         <v>54</v>
       </c>
-      <c r="P12" t="s">
-        <v>91</v>
-      </c>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -1273,7 +1270,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>90</v>
       </c>
@@ -1281,7 +1278,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>90</v>
       </c>
@@ -1289,7 +1286,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>90</v>
       </c>
@@ -1297,7 +1294,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>67</v>
       </c>
@@ -1305,7 +1302,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>67</v>
       </c>
@@ -1313,7 +1310,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>93</v>
       </c>
@@ -1321,7 +1318,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>93</v>
       </c>
@@ -1329,7 +1326,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>93</v>
       </c>
@@ -1337,7 +1334,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>82</v>
       </c>
@@ -1345,7 +1342,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>82</v>
       </c>
@@ -1353,7 +1350,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>82</v>
       </c>
@@ -1361,44 +1358,62 @@
         <v>74</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="B28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+        <v>107</v>
+      </c>
+      <c r="C28" s="2">
+        <v>4</v>
+      </c>
+      <c r="D28" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>94</v>
       </c>
       <c r="B29" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>94</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>94</v>
       </c>
       <c r="B31" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="C31" s="2">
+        <v>4</v>
+      </c>
+      <c r="D31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>94</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1406,7 +1421,7 @@
         <v>94</v>
       </c>
       <c r="B33" t="s">
-        <v>101</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
@@ -1414,7 +1429,7 @@
         <v>94</v>
       </c>
       <c r="B34" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
@@ -1422,7 +1437,7 @@
         <v>94</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
@@ -1430,14 +1445,22 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
         <v>91</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B38" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1446,9 +1469,6 @@
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$P$1:$P$11</formula1>
-    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1 L2:L17">
       <formula1>$Q$1:$Q$4</formula1>
     </dataValidation>
@@ -1457,6 +1477,9 @@
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
       <formula1>$R$1:$R$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$P$1:$P$10</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1487,11 +1510,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1505,9 +1528,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1519,9 +1542,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1531,9 +1554,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1547,9 +1570,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -1561,9 +1584,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1575,9 +1598,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1587,9 +1610,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1603,9 +1626,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -1617,9 +1640,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1631,9 +1654,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1643,9 +1666,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1659,9 +1682,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -1673,9 +1696,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1687,9 +1710,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1699,21 +1722,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="55">
         <v>2</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1725,8 +1748,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1739,8 +1762,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1750,8 +1773,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1764,8 +1787,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1775,8 +1798,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1786,8 +1809,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1800,24 +1823,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="54" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="55">
         <v>6</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1831,9 +1854,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1845,9 +1868,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1857,8 +1880,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1868,12 +1891,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="53"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1882,13 +1905,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="55">
         <v>4</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1902,9 +1925,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1916,9 +1939,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1928,9 +1951,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="33" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1944,9 +1967,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1958,9 +1981,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1970,9 +1993,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="33" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -1986,9 +2009,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2000,9 +2023,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2014,9 +2037,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2026,9 +2049,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="33" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2042,9 +2065,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2056,9 +2079,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="33"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2070,9 +2093,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="33"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2082,8 +2105,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2093,8 +2116,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2119,16 +2142,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="55">
         <v>3</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2137,12 +2160,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="48" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2151,34 +2174,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="48" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="49"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="48" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="48" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2199,13 +2222,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54" s="55">
         <v>5</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2217,9 +2240,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="34"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2231,9 +2254,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="34"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2245,9 +2268,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="34"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2257,12 +2280,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="50" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2271,12 +2294,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="50" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2285,13 +2308,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
+      <c r="A60" s="55">
         <v>7</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2305,9 +2328,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2319,9 +2342,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2333,9 +2356,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2345,23 +2368,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="41" t="s">
+      <c r="A64" s="55"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="42"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="41" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -2420,20 +2443,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -2450,13 +2466,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Desktop\group-22-tsmt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
@@ -25,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="230" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
   <si>
     <t>Search</t>
   </si>
@@ -637,6 +642,45 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -658,12 +702,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -687,39 +725,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -998,7 +1003,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1008,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1055,6 +1060,15 @@
       <c r="B2" t="s">
         <v>76</v>
       </c>
+      <c r="C2" s="2">
+        <v>3</v>
+      </c>
+      <c r="D2" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" t="s">
+        <v>56</v>
+      </c>
       <c r="P2" t="s">
         <v>66</v>
       </c>
@@ -1072,6 +1086,15 @@
       <c r="B3" t="s">
         <v>99</v>
       </c>
+      <c r="C3" s="2">
+        <v>3</v>
+      </c>
+      <c r="D3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" t="s">
+        <v>56</v>
+      </c>
       <c r="P3" t="s">
         <v>92</v>
       </c>
@@ -1089,6 +1112,15 @@
       <c r="B4" t="s">
         <v>75</v>
       </c>
+      <c r="C4" s="2">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
       <c r="P4" t="s">
         <v>90</v>
       </c>
@@ -1106,6 +1138,15 @@
       <c r="B5" t="s">
         <v>78</v>
       </c>
+      <c r="C5" s="2">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" t="s">
+        <v>56</v>
+      </c>
       <c r="P5" t="s">
         <v>67</v>
       </c>
@@ -1122,6 +1163,15 @@
       </c>
       <c r="B6" t="s">
         <v>102</v>
+      </c>
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>56</v>
       </c>
       <c r="P6" t="s">
         <v>93</v>
@@ -1510,11 +1560,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="28"/>
+      <c r="B2" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="36" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1528,9 +1578,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="28"/>
+      <c r="B3" s="29"/>
+      <c r="C3" s="36"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1542,9 +1592,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="28"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="36"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1554,9 +1604,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="28"/>
+      <c r="B5" s="29"/>
+      <c r="C5" s="36" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1570,9 +1620,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="28"/>
+      <c r="B6" s="29"/>
+      <c r="C6" s="36"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -1584,9 +1634,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="28"/>
+      <c r="B7" s="29"/>
+      <c r="C7" s="36"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1598,9 +1648,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="28"/>
+      <c r="B8" s="29"/>
+      <c r="C8" s="36"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1610,9 +1660,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="28"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="36" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1626,9 +1676,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="28"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="36"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -1640,9 +1690,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="28"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="36"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1654,9 +1704,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="28"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="36"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1666,9 +1716,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="28"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="36" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1682,9 +1732,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="28"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="36"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -1696,9 +1746,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="28"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="36"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1710,9 +1760,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="36"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1722,21 +1772,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="28"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="37"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="28">
         <v>2</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="43" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1748,8 +1798,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="44"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1762,8 +1812,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="44"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1773,8 +1823,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="44"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1787,8 +1837,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="44"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1798,8 +1848,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="44"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1809,8 +1859,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="44"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1823,24 +1873,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="43" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="55"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="55">
+      <c r="A26" s="28">
         <v>6</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="38" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="38" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1854,9 +1904,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="39"/>
+      <c r="C27" s="39"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1868,9 +1918,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="39"/>
+      <c r="C28" s="40"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1880,8 +1930,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="39"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1891,12 +1941,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="28"/>
+      <c r="B30" s="39"/>
+      <c r="C30" s="52" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="53"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1905,13 +1955,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="28">
         <v>4</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="33" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1925,9 +1975,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="46"/>
+      <c r="C32" s="33"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1939,9 +1989,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="46"/>
+      <c r="C33" s="33"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -1951,9 +2001,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="28"/>
+      <c r="B34" s="46"/>
+      <c r="C34" s="33" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -1967,9 +2017,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="46"/>
+      <c r="C35" s="33"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -1981,9 +2031,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="46"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -1993,9 +2043,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="28"/>
+      <c r="B37" s="46"/>
+      <c r="C37" s="33" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2009,9 +2059,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="33"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2023,9 +2073,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="33"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2037,9 +2087,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="46"/>
+      <c r="C40" s="33"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2049,9 +2099,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="49" t="s">
+      <c r="A41" s="28"/>
+      <c r="B41" s="46"/>
+      <c r="C41" s="33" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2065,9 +2115,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="46"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2079,9 +2129,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="46"/>
+      <c r="C43" s="33"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2093,9 +2143,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="28"/>
+      <c r="B44" s="46"/>
+      <c r="C44" s="33"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2105,8 +2155,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="28"/>
+      <c r="B45" s="46"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2116,8 +2166,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="34"/>
+      <c r="A46" s="28"/>
+      <c r="B46" s="47"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2142,16 +2192,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="55">
+      <c r="A48" s="28">
         <v>3</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="48" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="49"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2160,12 +2210,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="37" t="s">
+      <c r="A49" s="28"/>
+      <c r="B49" s="30"/>
+      <c r="C49" s="48" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="49"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2174,34 +2224,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="37" t="s">
+      <c r="A50" s="28"/>
+      <c r="B50" s="30"/>
+      <c r="C50" s="48" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="38"/>
+      <c r="D50" s="49"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="37" t="s">
+      <c r="A51" s="28"/>
+      <c r="B51" s="30"/>
+      <c r="C51" s="48" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="38"/>
+      <c r="D51" s="49"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="37" t="s">
+      <c r="A52" s="28"/>
+      <c r="B52" s="30"/>
+      <c r="C52" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="49"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2222,13 +2272,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="55">
+      <c r="A54" s="28">
         <v>5</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="34" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2240,9 +2290,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="28"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="34"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2254,9 +2304,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="50"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="31"/>
+      <c r="C56" s="34"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2268,9 +2318,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="50"/>
+      <c r="A57" s="28"/>
+      <c r="B57" s="31"/>
+      <c r="C57" s="34"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2280,12 +2330,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="39" t="s">
+      <c r="A58" s="28"/>
+      <c r="B58" s="31"/>
+      <c r="C58" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="40"/>
+      <c r="D58" s="51"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2294,12 +2344,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="39" t="s">
+      <c r="A59" s="28"/>
+      <c r="B59" s="31"/>
+      <c r="C59" s="50" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="40"/>
+      <c r="D59" s="51"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2308,13 +2358,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="55">
+      <c r="A60" s="28">
         <v>7</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2328,9 +2378,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="51"/>
+      <c r="A61" s="28"/>
+      <c r="B61" s="32"/>
+      <c r="C61" s="35"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2342,9 +2392,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="28"/>
+      <c r="B62" s="32"/>
+      <c r="C62" s="35"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2356,9 +2406,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="28"/>
+      <c r="B63" s="32"/>
+      <c r="C63" s="35"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2368,23 +2418,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="28"/>
+      <c r="B64" s="32"/>
+      <c r="C64" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="42"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="28"/>
+      <c r="B65" s="32"/>
+      <c r="C65" s="41" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65" s="42"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -2443,13 +2493,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -2466,20 +2523,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
   <si>
     <t>Search</t>
   </si>
@@ -642,89 +642,89 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1013,8 +1013,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:R38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1295,6 +1295,15 @@
       <c r="B13" t="s">
         <v>83</v>
       </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1303,6 +1312,15 @@
       <c r="B14" t="s">
         <v>89</v>
       </c>
+      <c r="C14" s="2">
+        <v>5</v>
+      </c>
+      <c r="D14" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
@@ -1311,6 +1329,15 @@
       <c r="B15" t="s">
         <v>79</v>
       </c>
+      <c r="C15" s="2">
+        <v>4</v>
+      </c>
+      <c r="D15" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -1319,6 +1346,15 @@
       <c r="B16" t="s">
         <v>88</v>
       </c>
+      <c r="C16" s="2">
+        <v>3</v>
+      </c>
+      <c r="D16" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -1327,6 +1363,15 @@
       <c r="B17" t="s">
         <v>86</v>
       </c>
+      <c r="C17" s="2">
+        <v>3</v>
+      </c>
+      <c r="D17" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -1335,6 +1380,15 @@
       <c r="B18" t="s">
         <v>85</v>
       </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+      <c r="D18" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -1343,6 +1397,15 @@
       <c r="B19" t="s">
         <v>87</v>
       </c>
+      <c r="C19" s="2">
+        <v>3</v>
+      </c>
+      <c r="D19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E19" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -1351,6 +1414,15 @@
       <c r="B20" t="s">
         <v>65</v>
       </c>
+      <c r="C20" s="2">
+        <v>5</v>
+      </c>
+      <c r="D20" t="s">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -1359,6 +1431,15 @@
       <c r="B21" t="s">
         <v>64</v>
       </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+      <c r="D21" t="s">
+        <v>56</v>
+      </c>
+      <c r="E21" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -1367,6 +1448,15 @@
       <c r="B22" t="s">
         <v>80</v>
       </c>
+      <c r="C22" s="2">
+        <v>3</v>
+      </c>
+      <c r="D22" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -1375,6 +1465,15 @@
       <c r="B23" t="s">
         <v>77</v>
       </c>
+      <c r="C23" s="2">
+        <v>4</v>
+      </c>
+      <c r="D23" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -1383,6 +1482,15 @@
       <c r="B24" t="s">
         <v>81</v>
       </c>
+      <c r="C24" s="2">
+        <v>4</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -1432,6 +1540,15 @@
       <c r="B29" t="s">
         <v>100</v>
       </c>
+      <c r="C29" s="2">
+        <v>3</v>
+      </c>
+      <c r="D29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -1466,7 +1583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>94</v>
       </c>
@@ -1474,15 +1591,24 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>94</v>
       </c>
       <c r="B34" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C34" s="2">
+        <v>4</v>
+      </c>
+      <c r="D34" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>94</v>
       </c>
@@ -1490,28 +1616,55 @@
         <v>96</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>94</v>
       </c>
       <c r="B36" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C36" s="2">
+        <v>3</v>
+      </c>
+      <c r="D36" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>94</v>
       </c>
       <c r="B37" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C37" s="2">
+        <v>3</v>
+      </c>
+      <c r="D37" t="s">
+        <v>57</v>
+      </c>
+      <c r="E37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>91</v>
       </c>
       <c r="B38" t="s">
         <v>84</v>
+      </c>
+      <c r="C38" s="2">
+        <v>4</v>
+      </c>
+      <c r="D38" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -1560,11 +1713,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29" t="s">
+      <c r="A2" s="55"/>
+      <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="36" t="s">
+      <c r="C2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1578,9 +1731,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="28"/>
-      <c r="B3" s="29"/>
-      <c r="C3" s="36"/>
+      <c r="A3" s="55"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1592,9 +1745,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="28"/>
-      <c r="B4" s="29"/>
-      <c r="C4" s="36"/>
+      <c r="A4" s="55"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1604,9 +1757,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="28"/>
-      <c r="B5" s="29"/>
-      <c r="C5" s="36" t="s">
+      <c r="A5" s="55"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1620,9 +1773,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="28"/>
-      <c r="B6" s="29"/>
-      <c r="C6" s="36"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -1634,9 +1787,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="28"/>
-      <c r="B7" s="29"/>
-      <c r="C7" s="36"/>
+      <c r="A7" s="55"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1648,9 +1801,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="28"/>
-      <c r="B8" s="29"/>
-      <c r="C8" s="36"/>
+      <c r="A8" s="55"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1660,9 +1813,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="28"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="36" t="s">
+      <c r="A9" s="55"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1676,9 +1829,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="28"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="36"/>
+      <c r="A10" s="55"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -1690,9 +1843,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="28"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="36"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1704,9 +1857,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="28"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="36"/>
+      <c r="A12" s="55"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1716,9 +1869,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="28"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="36" t="s">
+      <c r="A13" s="55"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1732,9 +1885,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="28"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="36"/>
+      <c r="A14" s="55"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -1746,9 +1899,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="28"/>
-      <c r="B15" s="29"/>
-      <c r="C15" s="36"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1760,9 +1913,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="28"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="36"/>
+      <c r="A16" s="55"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1772,21 +1925,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="28"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="37" t="s">
+      <c r="A17" s="55"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="37"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="28">
+      <c r="A18" s="55">
         <v>2</v>
       </c>
-      <c r="B18" s="43" t="s">
+      <c r="B18" s="30" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1798,8 +1951,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="28"/>
-      <c r="B19" s="44"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="31"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1812,8 +1965,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="28"/>
-      <c r="B20" s="44"/>
+      <c r="A20" s="55"/>
+      <c r="B20" s="31"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1823,8 +1976,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="28"/>
-      <c r="B21" s="44"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="31"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1837,8 +1990,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="28"/>
-      <c r="B22" s="44"/>
+      <c r="A22" s="55"/>
+      <c r="B22" s="31"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -1848,8 +2001,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="28"/>
-      <c r="B23" s="44"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="31"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -1859,8 +2012,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="28"/>
-      <c r="B24" s="44"/>
+      <c r="A24" s="55"/>
+      <c r="B24" s="31"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -1873,24 +2026,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="28"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="54" t="s">
+      <c r="A25" s="55"/>
+      <c r="B25" s="32"/>
+      <c r="C25" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="55"/>
+      <c r="D25" s="44"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="28">
+      <c r="A26" s="55">
         <v>6</v>
       </c>
-      <c r="B26" s="38" t="s">
+      <c r="B26" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="38" t="s">
+      <c r="C26" s="35" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -1904,9 +2057,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="28"/>
-      <c r="B27" s="39"/>
-      <c r="C27" s="39"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="36"/>
+      <c r="C27" s="36"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -1918,9 +2071,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="28"/>
-      <c r="B28" s="39"/>
-      <c r="C28" s="40"/>
+      <c r="A28" s="55"/>
+      <c r="B28" s="36"/>
+      <c r="C28" s="54"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -1930,8 +2083,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="28"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="36"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -1941,12 +2094,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="28"/>
-      <c r="B30" s="39"/>
-      <c r="C30" s="52" t="s">
+      <c r="A30" s="55"/>
+      <c r="B30" s="36"/>
+      <c r="C30" s="41" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="53"/>
+      <c r="D30" s="42"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -1955,13 +2108,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="28">
+      <c r="A31" s="55">
         <v>4</v>
       </c>
-      <c r="B31" s="46" t="s">
+      <c r="B31" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="33" t="s">
+      <c r="C31" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -1975,9 +2128,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="28"/>
-      <c r="B32" s="46"/>
-      <c r="C32" s="33"/>
+      <c r="A32" s="55"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -1989,9 +2142,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="28"/>
-      <c r="B33" s="46"/>
-      <c r="C33" s="33"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2001,9 +2154,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="28"/>
-      <c r="B34" s="46"/>
-      <c r="C34" s="33" t="s">
+      <c r="A34" s="55"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2017,9 +2170,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="28"/>
-      <c r="B35" s="46"/>
-      <c r="C35" s="33"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2031,9 +2184,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="28"/>
-      <c r="B36" s="46"/>
-      <c r="C36" s="33"/>
+      <c r="A36" s="55"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2043,9 +2196,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="28"/>
-      <c r="B37" s="46"/>
-      <c r="C37" s="33" t="s">
+      <c r="A37" s="55"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2059,9 +2212,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="28"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="33"/>
+      <c r="A38" s="55"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2073,9 +2226,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="28"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="33"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2087,9 +2240,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="28"/>
-      <c r="B40" s="46"/>
-      <c r="C40" s="33"/>
+      <c r="A40" s="55"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2099,9 +2252,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="28"/>
-      <c r="B41" s="46"/>
-      <c r="C41" s="33" t="s">
+      <c r="A41" s="55"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2115,9 +2268,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="28"/>
-      <c r="B42" s="46"/>
-      <c r="C42" s="33"/>
+      <c r="A42" s="55"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2129,9 +2282,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="28"/>
-      <c r="B43" s="46"/>
-      <c r="C43" s="33"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2143,9 +2296,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="28"/>
-      <c r="B44" s="46"/>
-      <c r="C44" s="33"/>
+      <c r="A44" s="55"/>
+      <c r="B44" s="33"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2155,8 +2308,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="28"/>
-      <c r="B45" s="46"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="33"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2166,8 +2319,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="28"/>
-      <c r="B46" s="47"/>
+      <c r="A46" s="55"/>
+      <c r="B46" s="34"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2192,16 +2345,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="28">
+      <c r="A48" s="55">
         <v>3</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="48" t="s">
+      <c r="C48" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="49"/>
+      <c r="D48" s="38"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2210,12 +2363,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="28"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="48" t="s">
+      <c r="A49" s="55"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="37" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="49"/>
+      <c r="D49" s="38"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2224,34 +2377,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="28"/>
-      <c r="B50" s="30"/>
-      <c r="C50" s="48" t="s">
+      <c r="A50" s="55"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="49"/>
+      <c r="D50" s="38"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="28"/>
-      <c r="B51" s="30"/>
-      <c r="C51" s="48" t="s">
+      <c r="A51" s="55"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="49"/>
+      <c r="D51" s="38"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="28"/>
-      <c r="B52" s="30"/>
-      <c r="C52" s="48" t="s">
+      <c r="A52" s="55"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="49"/>
+      <c r="D52" s="38"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2272,13 +2425,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="28">
+      <c r="A54" s="55">
         <v>5</v>
       </c>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="34" t="s">
+      <c r="C54" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2290,9 +2443,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="28"/>
-      <c r="B55" s="31"/>
-      <c r="C55" s="34"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2304,9 +2457,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="28"/>
-      <c r="B56" s="31"/>
-      <c r="C56" s="34"/>
+      <c r="A56" s="55"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2318,9 +2471,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="28"/>
-      <c r="B57" s="31"/>
-      <c r="C57" s="34"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2330,12 +2483,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="28"/>
-      <c r="B58" s="31"/>
-      <c r="C58" s="50" t="s">
+      <c r="A58" s="55"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="51"/>
+      <c r="D58" s="40"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2344,12 +2497,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="28"/>
-      <c r="B59" s="31"/>
-      <c r="C59" s="50" t="s">
+      <c r="A59" s="55"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="39" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="51"/>
+      <c r="D59" s="40"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2358,13 +2511,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="28">
+      <c r="A60" s="55">
         <v>7</v>
       </c>
-      <c r="B60" s="32" t="s">
+      <c r="B60" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="35" t="s">
+      <c r="C60" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2378,9 +2531,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="28"/>
-      <c r="B61" s="32"/>
-      <c r="C61" s="35"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2392,9 +2545,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="28"/>
-      <c r="B62" s="32"/>
-      <c r="C62" s="35"/>
+      <c r="A62" s="55"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2406,9 +2559,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="28"/>
-      <c r="B63" s="32"/>
-      <c r="C63" s="35"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2418,23 +2571,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="28"/>
-      <c r="B64" s="32"/>
-      <c r="C64" s="41" t="s">
+      <c r="A64" s="55"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="28" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="42"/>
+      <c r="D64" s="29"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="28"/>
-      <c r="B65" s="32"/>
-      <c r="C65" s="41" t="s">
+      <c r="A65" s="55"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="42"/>
+      <c r="D65" s="29"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -2493,20 +2646,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -2523,13 +2669,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -17,6 +17,7 @@
     <sheet name="SD" sheetId="4" r:id="rId3"/>
   </sheets>
   <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UC!$F$1:$F$82</definedName>
     <definedName name="Members">Modules!#REF!</definedName>
   </definedNames>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="115">
   <si>
     <t>Search</t>
   </si>
@@ -354,6 +355,27 @@
   </si>
   <si>
     <t>General Layout (Master page)</t>
+  </si>
+  <si>
+    <t>Statistics for Charity</t>
+  </si>
+  <si>
+    <t>Statistics for Volunteer</t>
+  </si>
+  <si>
+    <t>Statistics for Sponsor</t>
+  </si>
+  <si>
+    <t>Statistics for Admin</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Dia diem thi phuc vu luong thi sinh nhieu nhat</t>
+  </si>
+  <si>
+    <t>Deadline</t>
   </si>
 </sst>
 </file>
@@ -587,7 +609,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -634,14 +656,50 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -663,12 +721,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -693,38 +745,30 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1011,678 +1055,858 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R38"/>
+  <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="63" customWidth="1"/>
+    <col min="3" max="3" width="11" style="2" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="12.140625" customWidth="1"/>
+    <col min="6" max="6" width="11.42578125" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" customWidth="1"/>
+    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="58" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="22" t="s">
+      <c r="C1" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="58" t="s">
         <v>59</v>
       </c>
-      <c r="P1" t="s">
+      <c r="F1" s="59" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="Q1" t="s">
         <v>98</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>55</v>
       </c>
-      <c r="R1" s="24">
+      <c r="S1" s="23">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C2" s="56">
+        <v>3</v>
+      </c>
+      <c r="D2" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="Q2" t="s">
+        <v>66</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C3" s="56">
+        <v>5</v>
+      </c>
+      <c r="D3" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E3" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" s="55"/>
+      <c r="G3" s="55"/>
+      <c r="Q3" t="s">
+        <v>92</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C4" s="56">
+        <v>3</v>
+      </c>
+      <c r="D4" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F4" s="55"/>
+      <c r="G4" s="55"/>
+      <c r="Q4" t="s">
+        <v>90</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="55" t="s">
+        <v>92</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>89</v>
+      </c>
+      <c r="C5" s="56">
+        <v>3</v>
+      </c>
+      <c r="D5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F5" s="55"/>
+      <c r="G5" s="55"/>
+      <c r="Q5" t="s">
+        <v>67</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" s="56">
+        <v>3</v>
+      </c>
+      <c r="D6" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="55"/>
+      <c r="G6" s="55"/>
+      <c r="Q6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C7" s="56">
+        <v>3</v>
+      </c>
+      <c r="D7" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="55"/>
+      <c r="G7" s="55"/>
+      <c r="Q7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="C8" s="56">
+        <v>5</v>
+      </c>
+      <c r="D8" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F8" s="55"/>
+      <c r="G8" s="55"/>
+      <c r="Q8" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9" s="56"/>
+      <c r="D9" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E9" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="Q9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="56">
+        <v>3</v>
+      </c>
+      <c r="D10" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="55"/>
+      <c r="G10" s="55"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="56">
+        <v>4</v>
+      </c>
+      <c r="D11" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12" s="56">
+        <v>3</v>
+      </c>
+      <c r="D12" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="55"/>
+      <c r="G12" s="55"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="56">
+        <v>3</v>
+      </c>
+      <c r="D13" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E13" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="55"/>
+      <c r="G13" s="55"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="56">
+        <v>2</v>
+      </c>
+      <c r="D14" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="F14" s="55"/>
+      <c r="G14" s="55"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="56">
+        <v>4</v>
+      </c>
+      <c r="D15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="55"/>
+      <c r="G15" s="55"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C16" s="56">
+        <v>4</v>
+      </c>
+      <c r="D16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F16" s="55"/>
+      <c r="G16" s="55"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" s="56"/>
+      <c r="D17" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E17" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F17" s="55"/>
+      <c r="G17" s="55"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="56"/>
+      <c r="D18" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E18" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F18" s="55"/>
+      <c r="G18" s="55"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="55" t="s">
+        <v>82</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C19" s="56"/>
+      <c r="D19" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E19" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" s="55"/>
+      <c r="G19" s="55"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C20" s="56"/>
+      <c r="D20" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F20" s="55"/>
+      <c r="G20" s="55"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="56"/>
+      <c r="D21" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="55"/>
+      <c r="G21" s="55"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="56"/>
+      <c r="D22" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="F22" s="55"/>
+      <c r="G22" s="55"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="56">
+        <v>3</v>
+      </c>
+      <c r="D23" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="55"/>
+      <c r="G23" s="55"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="56">
+        <v>4</v>
+      </c>
+      <c r="D24" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F24" s="55"/>
+      <c r="G24" s="55"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C25" s="56">
+        <v>3</v>
+      </c>
+      <c r="D25" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E25" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F25" s="55"/>
+      <c r="G25" s="55"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>101</v>
+      </c>
+      <c r="C26" s="56">
+        <v>4</v>
+      </c>
+      <c r="D26" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F26" s="55"/>
+      <c r="G26" s="55"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C27" s="56">
+        <v>3</v>
+      </c>
+      <c r="D27" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E27" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F27" s="55"/>
+      <c r="G27" s="55"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C28" s="56">
+        <v>3</v>
+      </c>
+      <c r="D28" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E28" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F28" s="55"/>
+      <c r="G28" s="55"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="55" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C29" s="56">
+        <v>4</v>
+      </c>
+      <c r="D29" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F29" s="55"/>
+      <c r="G29" s="55"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C30" s="56">
+        <v>3</v>
+      </c>
+      <c r="D30" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E30" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F30" s="55"/>
+      <c r="G30" s="55"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="55" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C31" s="56">
+        <v>4</v>
+      </c>
+      <c r="D31" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E31" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F31" s="55"/>
+      <c r="G31" s="55"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B32" s="61" t="s">
         <v>76</v>
       </c>
-      <c r="C2" s="2">
+      <c r="C32" s="56">
         <v>3</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D32" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E32" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="P2" t="s">
-        <v>66</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>54</v>
-      </c>
-      <c r="R2" s="23">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="F32" s="55"/>
+      <c r="G32" s="55"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="55" t="s">
         <v>98</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B33" s="61" t="s">
         <v>99</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C33" s="56">
         <v>3</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D33" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E33" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="P3" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>53</v>
-      </c>
-      <c r="R3" s="26">
+      <c r="F33" s="55"/>
+      <c r="G33" s="55"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" s="56">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="D34" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E34" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F34" s="55"/>
+      <c r="G34" s="55"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C35" s="56">
+        <v>4</v>
+      </c>
+      <c r="D35" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F35" s="55"/>
+      <c r="G35" s="55"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="55" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>88</v>
+      </c>
+      <c r="C36" s="56">
         <v>3</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D36" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E36" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="P4" t="s">
+      <c r="F36" s="55"/>
+      <c r="G36" s="55"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="55" t="s">
         <v>90</v>
       </c>
-      <c r="Q4" t="s">
-        <v>57</v>
-      </c>
-      <c r="R4" s="25">
+      <c r="B37" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="56">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" t="s">
-        <v>78</v>
-      </c>
-      <c r="C5" s="2">
-        <v>3</v>
-      </c>
-      <c r="D5" t="s">
+      <c r="D37" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E37" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="P5" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q5" t="s">
+      <c r="F37" s="55"/>
+      <c r="G37" s="55"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="55" t="s">
+        <v>94</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>96</v>
+      </c>
+      <c r="C38" s="56"/>
+      <c r="D38" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="R5" s="27">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="2">
-        <v>3</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="E38" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E6" t="s">
-        <v>56</v>
-      </c>
-      <c r="P6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>61</v>
-      </c>
-      <c r="C7" s="2">
-        <v>3</v>
-      </c>
-      <c r="D7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E7" t="s">
-        <v>54</v>
-      </c>
-      <c r="P7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" t="s">
-        <v>62</v>
-      </c>
-      <c r="C8" s="2">
-        <v>4</v>
-      </c>
-      <c r="D8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" t="s">
-        <v>54</v>
-      </c>
-      <c r="P8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" s="2">
-        <v>5</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" t="s">
-        <v>54</v>
-      </c>
-      <c r="P9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="2">
-        <v>3</v>
-      </c>
-      <c r="D10" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="2">
-        <v>3</v>
-      </c>
-      <c r="D11" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="2">
-        <v>2</v>
-      </c>
-      <c r="D12" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="2">
-        <v>3</v>
-      </c>
-      <c r="D13" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="2">
-        <v>5</v>
-      </c>
-      <c r="D14" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C15" s="2">
-        <v>4</v>
-      </c>
-      <c r="D15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="2">
-        <v>3</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" t="s">
-        <v>86</v>
-      </c>
-      <c r="C17" s="2">
-        <v>3</v>
-      </c>
-      <c r="D17" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" t="s">
-        <v>85</v>
-      </c>
-      <c r="C18" s="2">
-        <v>4</v>
-      </c>
-      <c r="D18" t="s">
-        <v>55</v>
-      </c>
-      <c r="E18" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" t="s">
-        <v>87</v>
-      </c>
-      <c r="C19" s="2">
-        <v>3</v>
-      </c>
-      <c r="D19" t="s">
-        <v>55</v>
-      </c>
-      <c r="E19" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="2">
-        <v>5</v>
-      </c>
-      <c r="D20" t="s">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="2">
-        <v>5</v>
-      </c>
-      <c r="D21" t="s">
-        <v>56</v>
-      </c>
-      <c r="E21" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="2">
-        <v>3</v>
-      </c>
-      <c r="D22" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="2">
-        <v>4</v>
-      </c>
-      <c r="D23" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="2">
-        <v>4</v>
-      </c>
-      <c r="D24" t="s">
-        <v>57</v>
-      </c>
-      <c r="E24" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" t="s">
-        <v>107</v>
-      </c>
-      <c r="C28" s="2">
-        <v>4</v>
-      </c>
-      <c r="D28" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" t="s">
-        <v>100</v>
-      </c>
-      <c r="C29" s="2">
-        <v>3</v>
-      </c>
-      <c r="D29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" t="s">
-        <v>72</v>
-      </c>
-      <c r="C31" s="2">
-        <v>4</v>
-      </c>
-      <c r="D31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2">
-        <v>4</v>
-      </c>
-      <c r="D34" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="2">
-        <v>3</v>
-      </c>
-      <c r="D36" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" t="s">
-        <v>97</v>
-      </c>
-      <c r="C37" s="2">
-        <v>3</v>
-      </c>
-      <c r="D37" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="2">
-        <v>4</v>
-      </c>
-      <c r="D38" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" t="s">
-        <v>57</v>
+      <c r="F38" s="55"/>
+      <c r="G38" s="55"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="55"/>
+      <c r="B39" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="C39" s="56"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="55"/>
+      <c r="G39" s="57"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="55"/>
+      <c r="B40" s="61" t="s">
+        <v>110</v>
+      </c>
+      <c r="C40" s="56"/>
+      <c r="D40" s="55"/>
+      <c r="E40" s="55"/>
+      <c r="F40" s="55"/>
+      <c r="G40" s="57"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="55"/>
+      <c r="B41" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="C41" s="56"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="55"/>
+      <c r="G41" s="55"/>
+    </row>
+    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A42" s="55"/>
+      <c r="B42" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="55"/>
+      <c r="E42" s="55"/>
+      <c r="F42" s="55"/>
+      <c r="G42" s="57" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:B37">
+  <autoFilter ref="A1:E42">
+    <sortState ref="A2:E42">
+      <sortCondition ref="D1:D42"/>
+    </sortState>
+  </autoFilter>
+  <sortState ref="A2:E38">
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K1:L1 L2:L17">
-      <formula1>$Q$1:$Q$4</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1 M2:M17">
+      <formula1>$R$1:$R$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A38 A40:A1048576">
+      <formula1>$Q$1:$Q$10</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576">
-      <formula1>$Q$1:$Q$5</formula1>
+      <formula1>$R$1:$R$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$R$1:$R$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$P$1:$P$10</formula1>
+      <formula1>$S$1:$S$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1713,11 +1937,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="55"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="35" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1731,9 +1955,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1745,9 +1969,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1757,9 +1981,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1773,9 +1997,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -1787,9 +2011,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -1801,9 +2025,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1813,9 +2037,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="55"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -1829,9 +2053,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="55"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -1843,9 +2067,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="55"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -1857,9 +2081,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -1869,9 +2093,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -1885,9 +2109,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -1899,9 +2123,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -1913,9 +2137,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -1925,21 +2149,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="55">
+      <c r="A18" s="27">
         <v>2</v>
       </c>
-      <c r="B18" s="30" t="s">
+      <c r="B18" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -1951,8 +2175,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="55"/>
-      <c r="B19" s="31"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -1965,8 +2189,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="55"/>
-      <c r="B20" s="31"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -1976,8 +2200,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="55"/>
-      <c r="B21" s="31"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -1990,8 +2214,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
-      <c r="B22" s="31"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2001,8 +2225,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
-      <c r="B23" s="31"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2012,8 +2236,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
-      <c r="B24" s="31"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2026,24 +2250,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
-      <c r="B25" s="32"/>
-      <c r="C25" s="43" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="44"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="55">
+      <c r="A26" s="27">
         <v>6</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="35" t="s">
+      <c r="C26" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2057,9 +2281,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2071,9 +2295,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
-      <c r="B28" s="36"/>
-      <c r="C28" s="54"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2083,8 +2307,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
-      <c r="B29" s="36"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2094,12 +2318,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
-      <c r="B30" s="36"/>
-      <c r="C30" s="41" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="42"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2108,13 +2332,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="55">
+      <c r="A31" s="27">
         <v>4</v>
       </c>
-      <c r="B31" s="33" t="s">
+      <c r="B31" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2128,9 +2352,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="55"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2142,9 +2366,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="55"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2154,9 +2378,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="55"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2170,9 +2394,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="55"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2184,9 +2408,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="55"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2196,9 +2420,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="55"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2212,9 +2436,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="55"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2226,9 +2450,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2240,9 +2464,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2252,9 +2476,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="49" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2268,9 +2492,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2282,9 +2506,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="55"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2296,9 +2520,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="55"/>
-      <c r="B44" s="33"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2308,8 +2532,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="55"/>
-      <c r="B45" s="33"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2319,8 +2543,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="55"/>
-      <c r="B46" s="34"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2345,16 +2569,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="55">
+      <c r="A48" s="27">
         <v>3</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="37" t="s">
+      <c r="C48" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="38"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2363,12 +2587,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="55"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="37" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="38"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2377,34 +2601,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="55"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="37" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="38"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="55"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="37" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="38"/>
+      <c r="D51" s="48"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="55"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="37" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="38"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2425,13 +2649,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="55">
+      <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2443,9 +2667,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="55"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2457,9 +2681,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="55"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="50"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2471,9 +2695,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="55"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="50"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2483,12 +2707,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="55"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="39" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="40"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2497,12 +2721,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="55"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="39" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="40"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2511,13 +2735,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="55">
+      <c r="A60" s="27">
         <v>7</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2531,9 +2755,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="55"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="51"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2545,9 +2769,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="55"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2559,9 +2783,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="55"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2571,23 +2795,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="55"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="28" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="29"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="55"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="28" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="29"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -2646,13 +2870,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -2669,20 +2900,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Desktop\group-22-tsmt\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
@@ -661,90 +656,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,6 +680,90 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1047,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1057,14 +1052,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:A38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" style="63" customWidth="1"/>
+    <col min="2" max="2" width="52.5703125" style="35" customWidth="1"/>
     <col min="3" max="3" width="11" style="2" customWidth="1"/>
     <col min="4" max="4" width="12.28515625" customWidth="1"/>
     <col min="5" max="5" width="12.140625" customWidth="1"/>
@@ -1074,25 +1069,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="30" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="58" t="s">
+      <c r="C1" s="30" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="58" t="s">
+      <c r="D1" s="30" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="58" t="s">
+      <c r="E1" s="30" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="59" t="s">
+      <c r="F1" s="31" t="s">
         <v>114</v>
       </c>
-      <c r="G1" s="58" t="s">
+      <c r="G1" s="30" t="s">
         <v>112</v>
       </c>
       <c r="Q1" t="s">
@@ -1106,23 +1101,23 @@
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="33" t="s">
         <v>75</v>
       </c>
-      <c r="C2" s="56">
+      <c r="C2" s="28">
         <v>3</v>
       </c>
-      <c r="D2" s="55" t="s">
+      <c r="D2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="55" t="s">
+      <c r="E2" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
       <c r="Q2" t="s">
         <v>66</v>
       </c>
@@ -1134,23 +1129,23 @@
       </c>
     </row>
     <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="61" t="s">
-        <v>63</v>
-      </c>
-      <c r="C3" s="56">
-        <v>5</v>
-      </c>
-      <c r="D3" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E3" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F3" s="55"/>
-      <c r="G3" s="55"/>
+      <c r="A3" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C3" s="28">
+        <v>3</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="27"/>
+      <c r="G3" s="27"/>
       <c r="Q3" t="s">
         <v>92</v>
       </c>
@@ -1162,23 +1157,23 @@
       </c>
     </row>
     <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B4" s="61" t="s">
-        <v>83</v>
-      </c>
-      <c r="C4" s="56">
+      <c r="A4" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C4" s="28">
         <v>3</v>
       </c>
-      <c r="D4" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E4" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
+      <c r="D4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
       <c r="Q4" t="s">
         <v>90</v>
       </c>
@@ -1190,23 +1185,23 @@
       </c>
     </row>
     <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="55" t="s">
-        <v>92</v>
-      </c>
-      <c r="B5" s="61" t="s">
-        <v>89</v>
-      </c>
-      <c r="C5" s="56">
+      <c r="A5" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" s="28">
         <v>3</v>
       </c>
-      <c r="D5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E5" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F5" s="55"/>
-      <c r="G5" s="55"/>
+      <c r="D5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
       <c r="Q5" t="s">
         <v>67</v>
       </c>
@@ -1218,671 +1213,671 @@
       </c>
     </row>
     <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B6" s="61" t="s">
-        <v>86</v>
-      </c>
-      <c r="C6" s="56">
+      <c r="A6" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>78</v>
+      </c>
+      <c r="C6" s="28">
         <v>3</v>
       </c>
-      <c r="D6" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="55"/>
-      <c r="G6" s="55"/>
+      <c r="D6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
       <c r="Q6" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B7" s="61" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="56">
-        <v>3</v>
-      </c>
-      <c r="D7" s="55" t="s">
+      <c r="A7" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="28">
+        <v>5</v>
+      </c>
+      <c r="D7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="55" t="s">
+      <c r="E7" s="27" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="55"/>
-      <c r="G7" s="55"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
       <c r="Q7" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" s="61" t="s">
-        <v>65</v>
-      </c>
-      <c r="C8" s="56">
-        <v>5</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F8" s="55"/>
-      <c r="G8" s="55"/>
+      <c r="A8" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="28">
+        <v>3</v>
+      </c>
+      <c r="D8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="27"/>
+      <c r="G8" s="27"/>
       <c r="Q8" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B9" s="61" t="s">
-        <v>73</v>
-      </c>
-      <c r="C9" s="56"/>
-      <c r="D9" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="E9" s="55" t="s">
-        <v>55</v>
-      </c>
-      <c r="F9" s="55"/>
-      <c r="G9" s="55"/>
+      <c r="A9" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C9" s="28">
+        <v>4</v>
+      </c>
+      <c r="D9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="27"/>
+      <c r="G9" s="27"/>
       <c r="Q9" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="55" t="s">
+      <c r="A10" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B10" s="61" t="s">
-        <v>61</v>
-      </c>
-      <c r="C10" s="56">
+      <c r="B10" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C10" s="28">
         <v>3</v>
       </c>
-      <c r="D10" s="55" t="s">
+      <c r="D10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="27" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="55"/>
-      <c r="G10" s="55"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="27"/>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C11" s="56">
+      <c r="B11" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C11" s="28">
+        <v>3</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>66</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>106</v>
+      </c>
+      <c r="C12" s="28">
+        <v>2</v>
+      </c>
+      <c r="D12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="27" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C13" s="28">
+        <v>3</v>
+      </c>
+      <c r="D13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="C14" s="28">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>86</v>
+      </c>
+      <c r="C15" s="28">
+        <v>3</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>87</v>
+      </c>
+      <c r="C16" s="28">
+        <v>3</v>
+      </c>
+      <c r="D16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C17" s="28">
         <v>4</v>
       </c>
-      <c r="D11" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="55"/>
-      <c r="G11" s="55"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>104</v>
-      </c>
-      <c r="C12" s="56">
+      <c r="D17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="27"/>
+      <c r="G17" s="27"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="C18" s="28">
         <v>3</v>
       </c>
-      <c r="D12" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="55"/>
-      <c r="G12" s="55"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B13" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="C13" s="56">
+      <c r="D18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="27"/>
+      <c r="G18" s="27"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C19" s="28">
+        <v>4</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="27"/>
+      <c r="G19" s="27"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C20" s="28">
+        <v>5</v>
+      </c>
+      <c r="D20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="27"/>
+      <c r="G20" s="27"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="27" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="C21" s="28"/>
+      <c r="D21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F21" s="27"/>
+      <c r="G21" s="27"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C22" s="28">
         <v>3</v>
       </c>
-      <c r="D13" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="55"/>
-      <c r="G13" s="55"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="55" t="s">
-        <v>66</v>
-      </c>
-      <c r="B14" s="61" t="s">
-        <v>106</v>
-      </c>
-      <c r="C14" s="56">
-        <v>2</v>
-      </c>
-      <c r="D14" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="E14" s="55" t="s">
-        <v>54</v>
-      </c>
-      <c r="F14" s="55"/>
-      <c r="G14" s="55"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="55" t="s">
+      <c r="D22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="27"/>
+      <c r="G22" s="27"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23" s="28">
+        <v>4</v>
+      </c>
+      <c r="D23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="27" t="s">
+        <v>93</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="28">
+        <v>4</v>
+      </c>
+      <c r="D24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="27"/>
+      <c r="G24" s="27"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B25" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" s="28"/>
+      <c r="D25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="27" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B26" s="33" t="s">
         <v>107</v>
       </c>
-      <c r="C15" s="56">
+      <c r="C26" s="28">
         <v>4</v>
       </c>
-      <c r="D15" s="55" t="s">
+      <c r="D26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="55" t="s">
+      <c r="E26" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="55"/>
-      <c r="G15" s="55"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="55" t="s">
+      <c r="F26" s="27"/>
+      <c r="G26" s="27"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C27" s="28"/>
+      <c r="D27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C28" s="28"/>
+      <c r="D28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="27" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="27"/>
+      <c r="G28" s="27"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B29" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="C16" s="56">
+      <c r="C29" s="28">
         <v>4</v>
       </c>
-      <c r="D16" s="55" t="s">
+      <c r="D29" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E29" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F16" s="55"/>
-      <c r="G16" s="55"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="55" t="s">
-        <v>67</v>
-      </c>
-      <c r="B17" s="61" t="s">
-        <v>64</v>
-      </c>
-      <c r="C17" s="56"/>
-      <c r="D17" s="55" t="s">
+      <c r="F29" s="27"/>
+      <c r="G29" s="27"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C30" s="28"/>
+      <c r="D30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E17" s="55" t="s">
+      <c r="E30" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F17" s="55"/>
-      <c r="G17" s="55"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B18" s="61" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" s="56"/>
-      <c r="D18" s="55" t="s">
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="28"/>
+      <c r="D31" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E31" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F18" s="55"/>
-      <c r="G18" s="55"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="55" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19" s="61" t="s">
-        <v>74</v>
-      </c>
-      <c r="C19" s="56"/>
-      <c r="D19" s="55" t="s">
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="28"/>
+      <c r="D32" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="E19" s="55" t="s">
+      <c r="E32" s="27" t="s">
         <v>53</v>
       </c>
-      <c r="F19" s="55"/>
-      <c r="G19" s="55"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="55" t="s">
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="61" t="s">
-        <v>69</v>
-      </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E20" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F20" s="55"/>
-      <c r="G20" s="55"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="B33" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C33" s="28">
+        <v>3</v>
+      </c>
+      <c r="D33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="61" t="s">
-        <v>70</v>
-      </c>
-      <c r="C21" s="56"/>
-      <c r="D21" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="55"/>
-      <c r="G21" s="55"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="55" t="s">
+      <c r="B34" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="28">
+        <v>4</v>
+      </c>
+      <c r="D34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="B22" s="61" t="s">
-        <v>71</v>
-      </c>
-      <c r="C22" s="56"/>
-      <c r="D22" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="E22" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="61" t="s">
-        <v>80</v>
-      </c>
-      <c r="C23" s="56">
+      <c r="B35" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C35" s="28">
         <v>3</v>
       </c>
-      <c r="D23" s="55" t="s">
+      <c r="D35" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="55" t="s">
+      <c r="E35" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="55"/>
-      <c r="G23" s="55"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="61" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="56">
+      <c r="F35" s="27"/>
+      <c r="G35" s="27"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C36" s="28">
+        <v>3</v>
+      </c>
+      <c r="D36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="27"/>
+      <c r="G36" s="27"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="C37" s="28"/>
+      <c r="D37" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="27"/>
+      <c r="G37" s="27"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C38" s="28">
         <v>4</v>
       </c>
-      <c r="D24" s="55" t="s">
+      <c r="D38" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="E24" s="55" t="s">
+      <c r="E38" s="27" t="s">
         <v>57</v>
       </c>
-      <c r="F24" s="55"/>
-      <c r="G24" s="55"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B25" s="61" t="s">
-        <v>100</v>
-      </c>
-      <c r="C25" s="56">
-        <v>3</v>
-      </c>
-      <c r="D25" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F25" s="55"/>
-      <c r="G25" s="55"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B26" s="61" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="56">
-        <v>4</v>
-      </c>
-      <c r="D26" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E26" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F26" s="55"/>
-      <c r="G26" s="55"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B27" s="61" t="s">
-        <v>95</v>
-      </c>
-      <c r="C27" s="56">
-        <v>3</v>
-      </c>
-      <c r="D27" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F27" s="55"/>
-      <c r="G27" s="55"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="61" t="s">
-        <v>97</v>
-      </c>
-      <c r="C28" s="56">
-        <v>3</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E28" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F28" s="55"/>
-      <c r="G28" s="55"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="55" t="s">
-        <v>91</v>
-      </c>
-      <c r="B29" s="61" t="s">
-        <v>84</v>
-      </c>
-      <c r="C29" s="56">
-        <v>4</v>
-      </c>
-      <c r="D29" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E29" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F29" s="55"/>
-      <c r="G29" s="55"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B30" s="61" t="s">
-        <v>102</v>
-      </c>
-      <c r="C30" s="56">
-        <v>3</v>
-      </c>
-      <c r="D30" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="E30" s="55" t="s">
-        <v>57</v>
-      </c>
-      <c r="F30" s="55"/>
-      <c r="G30" s="55"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="55" t="s">
-        <v>93</v>
-      </c>
-      <c r="B31" s="61" t="s">
-        <v>81</v>
-      </c>
-      <c r="C31" s="56">
-        <v>4</v>
-      </c>
-      <c r="D31" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E31" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F31" s="55"/>
-      <c r="G31" s="55"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B32" s="61" t="s">
-        <v>76</v>
-      </c>
-      <c r="C32" s="56">
-        <v>3</v>
-      </c>
-      <c r="D32" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E32" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F32" s="55"/>
-      <c r="G32" s="55"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B33" s="61" t="s">
-        <v>99</v>
-      </c>
-      <c r="C33" s="56">
-        <v>3</v>
-      </c>
-      <c r="D33" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F33" s="55"/>
-      <c r="G33" s="55"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B34" s="61" t="s">
-        <v>78</v>
-      </c>
-      <c r="C34" s="56">
-        <v>3</v>
-      </c>
-      <c r="D34" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E34" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F34" s="55"/>
-      <c r="G34" s="55"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="61" t="s">
-        <v>79</v>
-      </c>
-      <c r="C35" s="56">
-        <v>4</v>
-      </c>
-      <c r="D35" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F35" s="55"/>
-      <c r="G35" s="55"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="61" t="s">
-        <v>88</v>
-      </c>
-      <c r="C36" s="56">
-        <v>3</v>
-      </c>
-      <c r="D36" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B37" s="61" t="s">
-        <v>85</v>
-      </c>
-      <c r="C37" s="56">
-        <v>4</v>
-      </c>
-      <c r="D37" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="55"/>
-      <c r="G37" s="55"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="55" t="s">
-        <v>94</v>
-      </c>
-      <c r="B38" s="61" t="s">
-        <v>96</v>
-      </c>
-      <c r="C38" s="56"/>
-      <c r="D38" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="E38" s="55" t="s">
-        <v>56</v>
-      </c>
-      <c r="F38" s="55"/>
-      <c r="G38" s="55"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="55"/>
-      <c r="B39" s="61" t="s">
+      <c r="A39" s="27"/>
+      <c r="B39" s="33" t="s">
         <v>109</v>
       </c>
-      <c r="C39" s="56"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="55"/>
-      <c r="G39" s="57"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="27"/>
+      <c r="G39" s="29"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="55"/>
-      <c r="B40" s="61" t="s">
+      <c r="A40" s="27"/>
+      <c r="B40" s="33" t="s">
         <v>110</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="55"/>
-      <c r="E40" s="55"/>
-      <c r="F40" s="55"/>
-      <c r="G40" s="57"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="27"/>
+      <c r="G40" s="29"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="55"/>
-      <c r="B41" s="61" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="33" t="s">
         <v>111</v>
       </c>
-      <c r="C41" s="56"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
-      <c r="F41" s="55"/>
-      <c r="G41" s="55"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="27"/>
+      <c r="G41" s="27"/>
     </row>
     <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="55"/>
-      <c r="B42" s="62" t="s">
+      <c r="A42" s="27"/>
+      <c r="B42" s="34" t="s">
         <v>108</v>
       </c>
-      <c r="C42" s="56"/>
-      <c r="D42" s="55"/>
-      <c r="E42" s="55"/>
-      <c r="F42" s="55"/>
-      <c r="G42" s="57" t="s">
+      <c r="C42" s="28"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="29" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1892,7 +1887,7 @@
       <sortCondition ref="D1:D42"/>
     </sortState>
   </autoFilter>
-  <sortState ref="A2:E38">
+  <sortState ref="A2:G42">
     <sortCondition ref="A2"/>
   </sortState>
   <dataValidations count="4">
@@ -1937,11 +1932,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="63"/>
+      <c r="B2" s="53" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="60" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1955,9 +1950,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="63"/>
+      <c r="B3" s="53"/>
+      <c r="C3" s="60"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1969,9 +1964,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="63"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="60"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1981,9 +1976,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="63"/>
+      <c r="B5" s="53"/>
+      <c r="C5" s="60" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1997,9 +1992,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="63"/>
+      <c r="B6" s="53"/>
+      <c r="C6" s="60"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2011,9 +2006,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="63"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="60"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2025,9 +2020,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="63"/>
+      <c r="B8" s="53"/>
+      <c r="C8" s="60"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2037,9 +2032,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="35" t="s">
+      <c r="A9" s="63"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="60" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2053,9 +2048,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="63"/>
+      <c r="B10" s="53"/>
+      <c r="C10" s="60"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2067,9 +2062,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="63"/>
+      <c r="B11" s="53"/>
+      <c r="C11" s="60"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2081,9 +2076,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="63"/>
+      <c r="B12" s="53"/>
+      <c r="C12" s="60"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2093,9 +2088,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="63"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="60" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2109,9 +2104,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="63"/>
+      <c r="B14" s="53"/>
+      <c r="C14" s="60"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2123,9 +2118,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="63"/>
+      <c r="B15" s="53"/>
+      <c r="C15" s="60"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2137,9 +2132,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="63"/>
+      <c r="B16" s="53"/>
+      <c r="C16" s="60"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2149,21 +2144,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="36" t="s">
+      <c r="A17" s="63"/>
+      <c r="B17" s="53"/>
+      <c r="C17" s="61" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="61"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="63">
         <v>2</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="38" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2175,8 +2170,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="63"/>
+      <c r="B19" s="39"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2189,8 +2184,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="63"/>
+      <c r="B20" s="39"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2200,8 +2195,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="63"/>
+      <c r="B21" s="39"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2214,8 +2209,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="63"/>
+      <c r="B22" s="39"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2225,8 +2220,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="63"/>
+      <c r="B23" s="39"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2236,8 +2231,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="63"/>
+      <c r="B24" s="39"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2250,24 +2245,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="63"/>
+      <c r="B25" s="40"/>
+      <c r="C25" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="52"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="63">
         <v>6</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="43" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2281,9 +2276,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="63"/>
+      <c r="B27" s="44"/>
+      <c r="C27" s="44"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2295,9 +2290,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
+      <c r="A28" s="63"/>
+      <c r="B28" s="44"/>
+      <c r="C28" s="62"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2307,8 +2302,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="63"/>
+      <c r="B29" s="44"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2318,12 +2313,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="38"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="63"/>
+      <c r="B30" s="44"/>
+      <c r="C30" s="49" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="50"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2332,13 +2327,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="63">
         <v>4</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="41" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="57" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2352,9 +2347,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="63"/>
+      <c r="B32" s="41"/>
+      <c r="C32" s="57"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2366,9 +2361,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="63"/>
+      <c r="B33" s="41"/>
+      <c r="C33" s="57"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2378,9 +2373,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="63"/>
+      <c r="B34" s="41"/>
+      <c r="C34" s="57" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2394,9 +2389,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="63"/>
+      <c r="B35" s="41"/>
+      <c r="C35" s="57"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2408,9 +2403,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="63"/>
+      <c r="B36" s="41"/>
+      <c r="C36" s="57"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2420,9 +2415,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="32" t="s">
+      <c r="A37" s="63"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="57" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2436,9 +2431,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="63"/>
+      <c r="B38" s="41"/>
+      <c r="C38" s="57"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2450,9 +2445,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="32"/>
+      <c r="A39" s="63"/>
+      <c r="B39" s="41"/>
+      <c r="C39" s="57"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2464,9 +2459,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="63"/>
+      <c r="B40" s="41"/>
+      <c r="C40" s="57"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2476,9 +2471,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="32" t="s">
+      <c r="A41" s="63"/>
+      <c r="B41" s="41"/>
+      <c r="C41" s="57" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2492,9 +2487,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="63"/>
+      <c r="B42" s="41"/>
+      <c r="C42" s="57"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2506,9 +2501,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="63"/>
+      <c r="B43" s="41"/>
+      <c r="C43" s="57"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2520,9 +2515,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="63"/>
+      <c r="B44" s="41"/>
+      <c r="C44" s="57"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2532,8 +2527,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="63"/>
+      <c r="B45" s="41"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2543,8 +2538,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="63"/>
+      <c r="B46" s="42"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2569,16 +2564,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+      <c r="A48" s="63">
         <v>3</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="45" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="46"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2587,12 +2582,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="29"/>
-      <c r="C49" s="47" t="s">
+      <c r="A49" s="63"/>
+      <c r="B49" s="54"/>
+      <c r="C49" s="45" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="46"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2601,34 +2596,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="29"/>
-      <c r="C50" s="47" t="s">
+      <c r="A50" s="63"/>
+      <c r="B50" s="54"/>
+      <c r="C50" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="46"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="29"/>
-      <c r="C51" s="47" t="s">
+      <c r="A51" s="63"/>
+      <c r="B51" s="54"/>
+      <c r="C51" s="45" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="48"/>
+      <c r="D51" s="46"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="29"/>
-      <c r="C52" s="47" t="s">
+      <c r="A52" s="63"/>
+      <c r="B52" s="54"/>
+      <c r="C52" s="45" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="48"/>
+      <c r="D52" s="46"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2649,13 +2644,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="63">
         <v>5</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="58" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2667,9 +2662,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="33"/>
+      <c r="A55" s="63"/>
+      <c r="B55" s="55"/>
+      <c r="C55" s="58"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2681,9 +2676,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="63"/>
+      <c r="B56" s="55"/>
+      <c r="C56" s="58"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2695,9 +2690,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="33"/>
+      <c r="A57" s="63"/>
+      <c r="B57" s="55"/>
+      <c r="C57" s="58"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2707,12 +2702,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="49" t="s">
+      <c r="A58" s="63"/>
+      <c r="B58" s="55"/>
+      <c r="C58" s="47" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="50"/>
+      <c r="D58" s="48"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2721,12 +2716,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="30"/>
-      <c r="C59" s="49" t="s">
+      <c r="A59" s="63"/>
+      <c r="B59" s="55"/>
+      <c r="C59" s="47" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="50"/>
+      <c r="D59" s="48"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2735,13 +2730,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
+      <c r="A60" s="63">
         <v>7</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="59" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2755,9 +2750,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="34"/>
+      <c r="A61" s="63"/>
+      <c r="B61" s="56"/>
+      <c r="C61" s="59"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2769,9 +2764,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="34"/>
+      <c r="A62" s="63"/>
+      <c r="B62" s="56"/>
+      <c r="C62" s="59"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2783,9 +2778,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="34"/>
+      <c r="A63" s="63"/>
+      <c r="B63" s="56"/>
+      <c r="C63" s="59"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2795,23 +2790,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="40" t="s">
+      <c r="A64" s="63"/>
+      <c r="B64" s="56"/>
+      <c r="C64" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="41"/>
+      <c r="D64" s="37"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="40" t="s">
+      <c r="A65" s="63"/>
+      <c r="B65" s="56"/>
+      <c r="C65" s="36" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="41"/>
+      <c r="D65" s="37"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -2870,20 +2865,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -2900,13 +2888,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -8,12 +8,15 @@
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="3" r:id="rId1"/>
-    <sheet name="UC" sheetId="1" r:id="rId2"/>
-    <sheet name="SD" sheetId="4" r:id="rId3"/>
+    <sheet name="Issues" sheetId="6" r:id="rId2"/>
+    <sheet name="UC" sheetId="1" r:id="rId3"/>
+    <sheet name="SD" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$42</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">UC!$F$1:$F$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$B$41</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UC!$F$1:$F$82</definedName>
+    <definedName name="Members" localSheetId="1">Issues!#REF!</definedName>
     <definedName name="Members">Modules!#REF!</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
@@ -26,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="127">
   <si>
     <t>Search</t>
   </si>
@@ -211,15 +214,9 @@
     <t>Task</t>
   </si>
   <si>
-    <t>Auto assign Student into Rooms</t>
-  </si>
-  <si>
     <t>Auto assign Students to Vehicle</t>
   </si>
   <si>
-    <t>Auto auto suggest Routes</t>
-  </si>
-  <si>
     <t>Display Venues, Lodges</t>
   </si>
   <si>
@@ -346,18 +343,12 @@
     <t>Manual assign Students to Vehicle</t>
   </si>
   <si>
-    <t>Manual suggest Routes</t>
-  </si>
-  <si>
     <t>General Layout (Master page)</t>
   </si>
   <si>
     <t>Statistics for Charity</t>
   </si>
   <si>
-    <t>Statistics for Volunteer</t>
-  </si>
-  <si>
     <t>Statistics for Sponsor</t>
   </si>
   <si>
@@ -367,17 +358,65 @@
     <t>Note</t>
   </si>
   <si>
-    <t>Dia diem thi phuc vu luong thi sinh nhieu nhat</t>
-  </si>
-  <si>
     <t>Deadline</t>
+  </si>
+  <si>
+    <t>Has Issues</t>
+  </si>
+  <si>
+    <t>Is Done</t>
+  </si>
+  <si>
+    <t>OK</t>
+  </si>
+  <si>
+    <t>YES</t>
+  </si>
+  <si>
+    <t>Auto auto suggest Routes (with some creterias)</t>
+  </si>
+  <si>
+    <t>Auto assign Student into Rooms (with some creterias)</t>
+  </si>
+  <si>
+    <t>Manual edit Routes</t>
+  </si>
+  <si>
+    <t>Tester</t>
+  </si>
+  <si>
+    <t>User manages user's profile</t>
+  </si>
+  <si>
+    <t>Issue</t>
+  </si>
+  <si>
+    <t>Solution</t>
+  </si>
+  <si>
+    <t>Approved</t>
+  </si>
+  <si>
+    <t>Left-menu stick and float along when user scroll mouse</t>
+  </si>
+  <si>
+    <t>Asked by</t>
+  </si>
+  <si>
+    <t>Answered by</t>
+  </si>
+  <si>
+    <t>Menu bên trái bị trống không khi user kéo màn hình xuống dưới?</t>
+  </si>
+  <si>
+    <t>Đính và kéo menu theo, kèm hiệu ứng đẹp mắt --&gt; đã chuyển lên thành task mức độ 3.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -402,6 +441,14 @@
     <font>
       <b/>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -604,7 +651,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="73">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -656,30 +703,44 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1" readingOrder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -702,12 +763,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -732,38 +787,59 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1042,7 +1118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1050,839 +1126,1110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S42"/>
+  <sheetPr filterMode="1">
+    <tabColor rgb="FF00B050"/>
+  </sheetPr>
+  <dimension ref="A1:U43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A38"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="52.5703125" style="35" customWidth="1"/>
-    <col min="3" max="3" width="11" style="2" customWidth="1"/>
-    <col min="4" max="4" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="12.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" customWidth="1"/>
-    <col min="17" max="17" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="62" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="56" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="56" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="30" t="s">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="32" t="s">
+      <c r="B1" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="30" t="s">
+      <c r="C1" s="55" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="55" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="55" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="60" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="55" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="55" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="55" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="23">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="57">
+        <v>3</v>
+      </c>
+      <c r="D2" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="57"/>
+      <c r="H2" s="57"/>
+      <c r="I2" s="57"/>
+      <c r="J2" s="57"/>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="22">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="61" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="57">
+        <v>2</v>
+      </c>
+      <c r="D3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="57"/>
+      <c r="H3" s="57"/>
+      <c r="I3" s="57"/>
+      <c r="J3" s="57"/>
+      <c r="R3" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="57">
+        <v>2</v>
+      </c>
+      <c r="D4" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="57"/>
+      <c r="H4" s="57"/>
+      <c r="I4" s="57"/>
+      <c r="J4" s="57"/>
+      <c r="R4" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="57">
+        <v>1</v>
+      </c>
+      <c r="D5" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="57"/>
+      <c r="H5" s="57"/>
+      <c r="I5" s="57"/>
+      <c r="J5" s="57"/>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="57" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="61" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="57">
+        <v>2</v>
+      </c>
+      <c r="D6" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="57"/>
+      <c r="H6" s="57"/>
+      <c r="I6" s="57"/>
+      <c r="J6" s="57"/>
+      <c r="R6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="61" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="57">
+        <v>5</v>
+      </c>
+      <c r="D7" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="57"/>
+      <c r="H7" s="57"/>
+      <c r="I7" s="57"/>
+      <c r="J7" s="57"/>
+      <c r="R7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="61" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="57">
+        <v>5</v>
+      </c>
+      <c r="D8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="57"/>
+      <c r="H8" s="57"/>
+      <c r="I8" s="57"/>
+      <c r="J8" s="57"/>
+      <c r="R8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="61" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="57">
+        <v>4</v>
+      </c>
+      <c r="D9" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="57"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="57"/>
+      <c r="J9" s="57"/>
+      <c r="R9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="57">
+        <v>3</v>
+      </c>
+      <c r="D10" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="57"/>
+      <c r="H10" s="57"/>
+      <c r="I10" s="57"/>
+      <c r="J10" s="57"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="61" t="s">
         <v>103</v>
       </c>
-      <c r="D1" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="31" t="s">
-        <v>114</v>
-      </c>
-      <c r="G1" s="30" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q1" t="s">
+      <c r="C11" s="57">
+        <v>3</v>
+      </c>
+      <c r="D11" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="57"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="57"/>
+      <c r="J11" s="57"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="57" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="57">
+        <v>4</v>
+      </c>
+      <c r="D12" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="57"/>
+      <c r="H12" s="57"/>
+      <c r="I12" s="57"/>
+      <c r="J12" s="57"/>
+    </row>
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="57">
+        <v>3</v>
+      </c>
+      <c r="D13" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F13" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="57"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="57"/>
+      <c r="J13" s="57"/>
+    </row>
+    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="57" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="61" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="57">
+        <v>2</v>
+      </c>
+      <c r="D14" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="57"/>
+      <c r="H14" s="57"/>
+      <c r="I14" s="57"/>
+      <c r="J14" s="57"/>
+    </row>
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="57">
+        <v>3</v>
+      </c>
+      <c r="D15" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="57"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="57"/>
+      <c r="J15" s="57"/>
+    </row>
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="57">
+        <v>3</v>
+      </c>
+      <c r="D16" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="57"/>
+      <c r="H16" s="57"/>
+      <c r="I16" s="57"/>
+      <c r="J16" s="57"/>
+    </row>
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="61" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="57">
+        <v>2</v>
+      </c>
+      <c r="D17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="57"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="57"/>
+      <c r="J17" s="57"/>
+    </row>
+    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="57">
+        <v>3</v>
+      </c>
+      <c r="D18" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="57"/>
+      <c r="H18" s="57"/>
+      <c r="I18" s="57"/>
+      <c r="J18" s="57"/>
+    </row>
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="57" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="61" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="57">
+        <v>3</v>
+      </c>
+      <c r="D19" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="57"/>
+      <c r="J19" s="57"/>
+    </row>
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="61" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="57">
+        <v>5</v>
+      </c>
+      <c r="D20" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="57"/>
+      <c r="H20" s="57"/>
+      <c r="I20" s="57"/>
+      <c r="J20" s="57"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="57">
+        <v>5</v>
+      </c>
+      <c r="D21" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="57"/>
+      <c r="J21" s="57"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="61" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="57">
+        <v>2</v>
+      </c>
+      <c r="D22" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="57"/>
+      <c r="J22" s="57"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="57">
+        <v>3</v>
+      </c>
+      <c r="D23" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="57"/>
+      <c r="J23" s="57"/>
+    </row>
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="57" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="61" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="57">
+        <v>3</v>
+      </c>
+      <c r="D24" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="57"/>
+      <c r="H24" s="57"/>
+      <c r="I24" s="57"/>
+      <c r="J24" s="57"/>
+    </row>
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="61" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="57">
+        <v>4</v>
+      </c>
+      <c r="D25" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="57"/>
+      <c r="J25" s="57"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="61" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="57">
+        <v>4</v>
+      </c>
+      <c r="D26" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="57"/>
+      <c r="J26" s="57"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="61" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="57">
+        <v>4</v>
+      </c>
+      <c r="D27" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="57"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="57">
+        <v>4</v>
+      </c>
+      <c r="D28" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="57" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="57"/>
+      <c r="H28" s="57"/>
+      <c r="I28" s="57"/>
+      <c r="J28" s="57"/>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="61" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="57">
+        <v>3</v>
+      </c>
+      <c r="D29" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="57"/>
+      <c r="H29" s="57"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="57"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="61" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="57">
+        <v>3</v>
+      </c>
+      <c r="D30" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="57"/>
+      <c r="H30" s="57"/>
+      <c r="I30" s="57"/>
+      <c r="J30" s="57"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="61" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="57">
+        <v>3</v>
+      </c>
+      <c r="D31" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="57"/>
+      <c r="H31" s="57"/>
+      <c r="I31" s="57"/>
+      <c r="J31" s="57"/>
+    </row>
+    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="57">
+        <v>3</v>
+      </c>
+      <c r="D32" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="57"/>
+      <c r="H32" s="57"/>
+      <c r="I32" s="57"/>
+      <c r="J32" s="57"/>
+    </row>
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="61" t="s">
         <v>98</v>
       </c>
-      <c r="R1" t="s">
+      <c r="C33" s="57">
+        <v>4</v>
+      </c>
+      <c r="D33" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="23">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A2" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C2" s="28">
+      <c r="G33" s="57"/>
+      <c r="H33" s="57"/>
+      <c r="I33" s="57"/>
+      <c r="J33" s="57"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="61" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" s="57">
         <v>3</v>
       </c>
-      <c r="D2" s="27" t="s">
+      <c r="D34" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="27" t="s">
+      <c r="G34" s="57"/>
+      <c r="H34" s="57"/>
+      <c r="I34" s="57"/>
+      <c r="J34" s="57"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="61" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="57">
+        <v>4</v>
+      </c>
+      <c r="D35" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="Q2" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" t="s">
-        <v>54</v>
-      </c>
-      <c r="S2" s="22">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A3" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C3" s="28">
+      <c r="G35" s="57"/>
+      <c r="H35" s="57"/>
+      <c r="I35" s="57"/>
+      <c r="J35" s="57"/>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="61" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="57">
         <v>3</v>
       </c>
-      <c r="D3" s="27" t="s">
+      <c r="D36" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="27" t="s">
+      <c r="E36" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="27"/>
-      <c r="G3" s="27"/>
-      <c r="Q3" t="s">
+      <c r="F36" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="57"/>
+      <c r="H36" s="57"/>
+      <c r="I36" s="57"/>
+      <c r="J36" s="57"/>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="R3" t="s">
+      <c r="B37" s="61" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="57">
+        <v>3</v>
+      </c>
+      <c r="D37" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="25">
+      <c r="G37" s="57"/>
+      <c r="H37" s="57"/>
+      <c r="I37" s="57"/>
+      <c r="J37" s="57"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="57" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="61" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="57">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A4" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="28">
+      <c r="D38" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="57" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="57" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="57"/>
+      <c r="H38" s="57"/>
+      <c r="I38" s="57"/>
+      <c r="J38" s="57"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="61" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="57">
+        <v>4</v>
+      </c>
+      <c r="D39" s="57"/>
+      <c r="E39" s="57"/>
+      <c r="F39" s="58"/>
+      <c r="G39" s="57"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="58"/>
+      <c r="J39" s="58"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="61" t="s">
+        <v>107</v>
+      </c>
+      <c r="C40" s="57">
+        <v>4</v>
+      </c>
+      <c r="D40" s="57"/>
+      <c r="E40" s="57"/>
+      <c r="F40" s="57"/>
+      <c r="G40" s="57"/>
+      <c r="H40" s="57"/>
+      <c r="I40" s="57"/>
+      <c r="J40" s="57"/>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="61" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="57">
+        <v>4</v>
+      </c>
+      <c r="D41" s="57"/>
+      <c r="E41" s="57"/>
+      <c r="F41" s="58"/>
+      <c r="G41" s="57"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="58"/>
+      <c r="J41" s="58"/>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="61" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="57">
         <v>3</v>
       </c>
-      <c r="D4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="Q4" t="s">
-        <v>90</v>
-      </c>
-      <c r="R4" t="s">
-        <v>57</v>
-      </c>
-      <c r="S4" s="24">
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
+      <c r="F42" s="58"/>
+      <c r="G42" s="57"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="58"/>
+      <c r="J42" s="58"/>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="61" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="57">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A5" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>99</v>
-      </c>
-      <c r="C5" s="28">
-        <v>3</v>
-      </c>
-      <c r="D5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="Q5" t="s">
-        <v>67</v>
-      </c>
-      <c r="R5" t="s">
-        <v>56</v>
-      </c>
-      <c r="S5" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A6" s="27" t="s">
-        <v>98</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="28">
-        <v>3</v>
-      </c>
-      <c r="D6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="Q6" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A7" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="28">
-        <v>5</v>
-      </c>
-      <c r="D7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="27"/>
-      <c r="G7" s="27"/>
-      <c r="Q7" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A8" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C8" s="28">
-        <v>3</v>
-      </c>
-      <c r="D8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="27"/>
-      <c r="G8" s="27"/>
-      <c r="Q8" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C9" s="28">
-        <v>4</v>
-      </c>
-      <c r="D9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="27"/>
-      <c r="G9" s="27"/>
-      <c r="Q9" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="28">
-        <v>3</v>
-      </c>
-      <c r="D10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="27"/>
-      <c r="G10" s="27"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C11" s="28">
-        <v>3</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="27"/>
-      <c r="G11" s="27"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C12" s="28">
-        <v>2</v>
-      </c>
-      <c r="D12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="27" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C13" s="28">
-        <v>3</v>
-      </c>
-      <c r="D13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A14" s="27" t="s">
-        <v>92</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="C14" s="28">
-        <v>3</v>
-      </c>
-      <c r="D14" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A15" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>86</v>
-      </c>
-      <c r="C15" s="28">
-        <v>3</v>
-      </c>
-      <c r="D15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>87</v>
-      </c>
-      <c r="C16" s="28">
-        <v>3</v>
-      </c>
-      <c r="D16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C17" s="28">
-        <v>4</v>
-      </c>
-      <c r="D17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>88</v>
-      </c>
-      <c r="C18" s="28">
-        <v>3</v>
-      </c>
-      <c r="D18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C19" s="28">
-        <v>4</v>
-      </c>
-      <c r="D19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="C20" s="28">
-        <v>5</v>
-      </c>
-      <c r="D20" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="27" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="C21" s="28"/>
-      <c r="D21" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C22" s="28">
-        <v>3</v>
-      </c>
-      <c r="D22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="27"/>
-      <c r="G22" s="27"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C23" s="28">
-        <v>4</v>
-      </c>
-      <c r="D23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="27" t="s">
-        <v>93</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C24" s="28">
-        <v>4</v>
-      </c>
-      <c r="D24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="27"/>
-      <c r="G24" s="27"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C25" s="28"/>
-      <c r="D25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="27" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>107</v>
-      </c>
-      <c r="C26" s="28">
-        <v>4</v>
-      </c>
-      <c r="D26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C27" s="28"/>
-      <c r="D27" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="27" t="s">
-        <v>82</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C28" s="28"/>
-      <c r="D28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="28">
-        <v>4</v>
-      </c>
-      <c r="D29" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="27"/>
-      <c r="G29" s="27"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="28"/>
-      <c r="D30" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="27"/>
-      <c r="G30" s="27"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C31" s="28"/>
-      <c r="D31" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C32" s="28"/>
-      <c r="D32" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="27" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C33" s="28">
-        <v>3</v>
-      </c>
-      <c r="D33" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="28">
-        <v>4</v>
-      </c>
-      <c r="D34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="27"/>
-      <c r="G34" s="27"/>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C35" s="28">
-        <v>3</v>
-      </c>
-      <c r="D35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="27"/>
-      <c r="G35" s="27"/>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C36" s="28">
-        <v>3</v>
-      </c>
-      <c r="D36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="27"/>
-      <c r="G36" s="27"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="27" t="s">
-        <v>94</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C37" s="28"/>
-      <c r="D37" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="27" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="27"/>
-      <c r="G37" s="27"/>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="27" t="s">
-        <v>91</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C38" s="28">
-        <v>4</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="27" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="27"/>
-      <c r="G38" s="27"/>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="C39" s="28"/>
-      <c r="D39" s="27"/>
-      <c r="E39" s="27"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="C40" s="28"/>
-      <c r="D40" s="27"/>
-      <c r="E40" s="27"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="28"/>
-      <c r="D41" s="27"/>
-      <c r="E41" s="27"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="27"/>
-    </row>
-    <row r="42" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="34" t="s">
-        <v>108</v>
-      </c>
-      <c r="C42" s="28"/>
-      <c r="D42" s="27"/>
-      <c r="E42" s="27"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="29" t="s">
-        <v>113</v>
-      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
+      <c r="F43" s="58"/>
+      <c r="G43" s="57"/>
+      <c r="H43" s="58"/>
+      <c r="I43" s="58"/>
+      <c r="J43" s="58"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E42">
+  <autoFilter ref="A1:E43">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Khoa"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:E42">
       <sortCondition ref="D1:D42"/>
     </sortState>
@@ -1890,18 +2237,24 @@
   <sortState ref="A2:G42">
     <sortCondition ref="A2"/>
   </sortState>
-  <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L1:M1 M2:M17">
-      <formula1>$R$1:$R$4</formula1>
+  <dataValidations count="6">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:N1 N2:N17">
+      <formula1>$S$1:$S$4</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A38 A40:A1048576">
-      <formula1>$Q$1:$Q$10</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$R$1:$R$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576">
-      <formula1>$R$1:$R$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576 F1:F1048576">
+      <formula1>$S$1:$S$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$S$1:$S$5</formula1>
+      <formula1>$T$1:$T$5</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
+      <formula1>$U$2</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
+      <formula1>$U$1</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1911,6 +2264,392 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF0000"/>
+  </sheetPr>
+  <dimension ref="A1:T42"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.85546875" style="70" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="62" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="62" customWidth="1"/>
+    <col min="4" max="4" width="16" style="71" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="57" customWidth="1"/>
+    <col min="6" max="6" width="16" style="57" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A1" s="64" t="s">
+        <v>52</v>
+      </c>
+      <c r="B1" s="68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="64" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="65" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="65" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="72" t="s">
+        <v>121</v>
+      </c>
+      <c r="Q1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="R1" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="S1" s="66">
+        <v>1</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="69" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="63" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="63" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="67" t="s">
+        <v>53</v>
+      </c>
+      <c r="E2" s="57" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>64</v>
+      </c>
+      <c r="R2" t="s">
+        <v>54</v>
+      </c>
+      <c r="S2" s="22">
+        <v>2</v>
+      </c>
+      <c r="T2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A3" s="69"/>
+      <c r="B3" s="63"/>
+      <c r="C3" s="63"/>
+      <c r="D3" s="67"/>
+      <c r="Q3" t="s">
+        <v>90</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="S3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A4" s="69"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="67"/>
+      <c r="Q4" t="s">
+        <v>88</v>
+      </c>
+      <c r="R4" t="s">
+        <v>57</v>
+      </c>
+      <c r="S4" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A5" s="69"/>
+      <c r="B5" s="63"/>
+      <c r="C5" s="63"/>
+      <c r="D5" s="67"/>
+      <c r="Q5" t="s">
+        <v>65</v>
+      </c>
+      <c r="R5" t="s">
+        <v>56</v>
+      </c>
+      <c r="S5" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A6" s="69"/>
+      <c r="B6" s="63"/>
+      <c r="C6" s="63"/>
+      <c r="D6" s="67"/>
+      <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="69"/>
+      <c r="B7" s="63"/>
+      <c r="C7" s="63"/>
+      <c r="D7" s="67"/>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="69"/>
+      <c r="B8" s="63"/>
+      <c r="C8" s="63"/>
+      <c r="D8" s="67"/>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="69"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="67"/>
+      <c r="Q9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A10" s="69"/>
+      <c r="B10" s="63"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="67"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A11" s="69"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="67"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A12" s="69"/>
+      <c r="B12" s="63"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="67"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A13" s="69"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="67"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A14" s="69"/>
+      <c r="B14" s="63"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="67"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A15" s="69"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="67"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A16" s="69"/>
+      <c r="B16" s="63"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="67"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" s="69"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="67"/>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" s="69"/>
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="67"/>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="69"/>
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="67"/>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="69"/>
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="67"/>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" s="69"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="67"/>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" s="69"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="67"/>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" s="69"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="67"/>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" s="69"/>
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="67"/>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" s="69"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="67"/>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" s="69"/>
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="67"/>
+    </row>
+    <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="69"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="67"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" s="69"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="67"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="69"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="67"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="69"/>
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="67"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" s="69"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="67"/>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" s="69"/>
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="67"/>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="69"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="67"/>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="69"/>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="67"/>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="69"/>
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="67"/>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="69"/>
+      <c r="B36" s="63"/>
+      <c r="C36" s="63"/>
+      <c r="D36" s="67"/>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="69"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="67"/>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="69"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="67"/>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="69"/>
+      <c r="B39" s="63"/>
+      <c r="C39" s="63"/>
+      <c r="D39" s="67"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="69"/>
+      <c r="B40" s="63"/>
+      <c r="C40" s="63"/>
+      <c r="D40" s="67"/>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="69"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="67"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="69"/>
+      <c r="B42" s="63"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="67"/>
+    </row>
+  </sheetData>
+  <dataValidations count="3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
+      <formula1>$Q$1:$Q$9</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F1:F1048576">
+      <formula1>$T$1</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576">
+      <formula1>$R$1:$R$5</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
   <dimension ref="A1:F82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1932,11 +2671,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="63"/>
-      <c r="B2" s="53" t="s">
+      <c r="A2" s="27"/>
+      <c r="B2" s="28" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="60" t="s">
+      <c r="C2" s="35" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -1950,9 +2689,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="63"/>
-      <c r="B3" s="53"/>
-      <c r="C3" s="60"/>
+      <c r="A3" s="27"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="35"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -1964,9 +2703,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="63"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="60"/>
+      <c r="A4" s="27"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="35"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -1976,9 +2715,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="63"/>
-      <c r="B5" s="53"/>
-      <c r="C5" s="60" t="s">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="35" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -1992,9 +2731,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="63"/>
-      <c r="B6" s="53"/>
-      <c r="C6" s="60"/>
+      <c r="A6" s="27"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="35"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2006,9 +2745,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="63"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="60"/>
+      <c r="A7" s="27"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="35"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2020,9 +2759,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="63"/>
-      <c r="B8" s="53"/>
-      <c r="C8" s="60"/>
+      <c r="A8" s="27"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="35"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2032,9 +2771,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="63"/>
-      <c r="B9" s="53"/>
-      <c r="C9" s="60" t="s">
+      <c r="A9" s="27"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="35" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2048,9 +2787,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="63"/>
-      <c r="B10" s="53"/>
-      <c r="C10" s="60"/>
+      <c r="A10" s="27"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="35"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2062,9 +2801,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="63"/>
-      <c r="B11" s="53"/>
-      <c r="C11" s="60"/>
+      <c r="A11" s="27"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="35"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2076,9 +2815,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="63"/>
-      <c r="B12" s="53"/>
-      <c r="C12" s="60"/>
+      <c r="A12" s="27"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="35"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2088,9 +2827,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="63"/>
-      <c r="B13" s="53"/>
-      <c r="C13" s="60" t="s">
+      <c r="A13" s="27"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="35" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2104,9 +2843,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="63"/>
-      <c r="B14" s="53"/>
-      <c r="C14" s="60"/>
+      <c r="A14" s="27"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="35"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2118,9 +2857,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="63"/>
-      <c r="B15" s="53"/>
-      <c r="C15" s="60"/>
+      <c r="A15" s="27"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="35"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2132,9 +2871,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="63"/>
-      <c r="B16" s="53"/>
-      <c r="C16" s="60"/>
+      <c r="A16" s="27"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2144,21 +2883,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="63"/>
-      <c r="B17" s="53"/>
-      <c r="C17" s="61" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="61"/>
+      <c r="D17" s="36"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="63">
+      <c r="A18" s="27">
         <v>2</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="42" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2170,8 +2909,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="63"/>
-      <c r="B19" s="39"/>
+      <c r="A19" s="27"/>
+      <c r="B19" s="43"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2184,8 +2923,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="63"/>
-      <c r="B20" s="39"/>
+      <c r="A20" s="27"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2195,8 +2934,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="63"/>
-      <c r="B21" s="39"/>
+      <c r="A21" s="27"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2209,8 +2948,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="63"/>
-      <c r="B22" s="39"/>
+      <c r="A22" s="27"/>
+      <c r="B22" s="43"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2220,8 +2959,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="63"/>
-      <c r="B23" s="39"/>
+      <c r="A23" s="27"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2231,8 +2970,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="63"/>
-      <c r="B24" s="39"/>
+      <c r="A24" s="27"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2245,24 +2984,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="63"/>
-      <c r="B25" s="40"/>
-      <c r="C25" s="51" t="s">
+      <c r="A25" s="27"/>
+      <c r="B25" s="44"/>
+      <c r="C25" s="53" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="52"/>
+      <c r="D25" s="54"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="63">
+      <c r="A26" s="27">
         <v>6</v>
       </c>
-      <c r="B26" s="43" t="s">
+      <c r="B26" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="43" t="s">
+      <c r="C26" s="37" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2276,9 +3015,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="63"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
+      <c r="A27" s="27"/>
+      <c r="B27" s="38"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2290,9 +3029,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="63"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="62"/>
+      <c r="A28" s="27"/>
+      <c r="B28" s="38"/>
+      <c r="C28" s="39"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2302,8 +3041,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="63"/>
-      <c r="B29" s="44"/>
+      <c r="A29" s="27"/>
+      <c r="B29" s="38"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2313,12 +3052,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="63"/>
-      <c r="B30" s="44"/>
-      <c r="C30" s="49" t="s">
+      <c r="A30" s="27"/>
+      <c r="B30" s="38"/>
+      <c r="C30" s="51" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="50"/>
+      <c r="D30" s="52"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2327,13 +3066,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="63">
+      <c r="A31" s="27">
         <v>4</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="45" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="57" t="s">
+      <c r="C31" s="32" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2347,9 +3086,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="63"/>
-      <c r="B32" s="41"/>
-      <c r="C32" s="57"/>
+      <c r="A32" s="27"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="32"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2361,9 +3100,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="63"/>
-      <c r="B33" s="41"/>
-      <c r="C33" s="57"/>
+      <c r="A33" s="27"/>
+      <c r="B33" s="45"/>
+      <c r="C33" s="32"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2373,9 +3112,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="63"/>
-      <c r="B34" s="41"/>
-      <c r="C34" s="57" t="s">
+      <c r="A34" s="27"/>
+      <c r="B34" s="45"/>
+      <c r="C34" s="32" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2389,9 +3128,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="63"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="57"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="32"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2403,9 +3142,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="63"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="57"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="45"/>
+      <c r="C36" s="32"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2415,9 +3154,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="63"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="57" t="s">
+      <c r="A37" s="27"/>
+      <c r="B37" s="45"/>
+      <c r="C37" s="32" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2431,9 +3170,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="63"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="57"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="45"/>
+      <c r="C38" s="32"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2445,9 +3184,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="63"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="57"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="32"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2459,9 +3198,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="63"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="57"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="45"/>
+      <c r="C40" s="32"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2471,9 +3210,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="63"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="57" t="s">
+      <c r="A41" s="27"/>
+      <c r="B41" s="45"/>
+      <c r="C41" s="32" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2487,9 +3226,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="63"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="57"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="45"/>
+      <c r="C42" s="32"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2501,9 +3240,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="63"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="57"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="45"/>
+      <c r="C43" s="32"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2515,9 +3254,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="63"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="57"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="32"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2527,8 +3266,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="63"/>
-      <c r="B45" s="41"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="45"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2538,8 +3277,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="63"/>
-      <c r="B46" s="42"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="46"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2564,16 +3303,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="63">
+      <c r="A48" s="27">
         <v>3</v>
       </c>
-      <c r="B48" s="54" t="s">
+      <c r="B48" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="45" t="s">
+      <c r="C48" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="46"/>
+      <c r="D48" s="48"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2582,12 +3321,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="63"/>
-      <c r="B49" s="54"/>
-      <c r="C49" s="45" t="s">
+      <c r="A49" s="27"/>
+      <c r="B49" s="29"/>
+      <c r="C49" s="47" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="46"/>
+      <c r="D49" s="48"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2596,34 +3335,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="63"/>
-      <c r="B50" s="54"/>
-      <c r="C50" s="45" t="s">
+      <c r="A50" s="27"/>
+      <c r="B50" s="29"/>
+      <c r="C50" s="47" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="46"/>
+      <c r="D50" s="48"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="63"/>
-      <c r="B51" s="54"/>
-      <c r="C51" s="45" t="s">
+      <c r="A51" s="27"/>
+      <c r="B51" s="29"/>
+      <c r="C51" s="47" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="46"/>
+      <c r="D51" s="48"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="63"/>
-      <c r="B52" s="54"/>
-      <c r="C52" s="45" t="s">
+      <c r="A52" s="27"/>
+      <c r="B52" s="29"/>
+      <c r="C52" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="46"/>
+      <c r="D52" s="48"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2644,13 +3383,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="63">
+      <c r="A54" s="27">
         <v>5</v>
       </c>
-      <c r="B54" s="55" t="s">
+      <c r="B54" s="30" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="58" t="s">
+      <c r="C54" s="33" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2662,9 +3401,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="63"/>
-      <c r="B55" s="55"/>
-      <c r="C55" s="58"/>
+      <c r="A55" s="27"/>
+      <c r="B55" s="30"/>
+      <c r="C55" s="33"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2676,9 +3415,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="63"/>
-      <c r="B56" s="55"/>
-      <c r="C56" s="58"/>
+      <c r="A56" s="27"/>
+      <c r="B56" s="30"/>
+      <c r="C56" s="33"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2690,9 +3429,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="63"/>
-      <c r="B57" s="55"/>
-      <c r="C57" s="58"/>
+      <c r="A57" s="27"/>
+      <c r="B57" s="30"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2702,12 +3441,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="63"/>
-      <c r="B58" s="55"/>
-      <c r="C58" s="47" t="s">
+      <c r="A58" s="27"/>
+      <c r="B58" s="30"/>
+      <c r="C58" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="48"/>
+      <c r="D58" s="50"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2716,12 +3455,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="63"/>
-      <c r="B59" s="55"/>
-      <c r="C59" s="47" t="s">
+      <c r="A59" s="27"/>
+      <c r="B59" s="30"/>
+      <c r="C59" s="49" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="48"/>
+      <c r="D59" s="50"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2730,13 +3469,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="63">
+      <c r="A60" s="27">
         <v>7</v>
       </c>
-      <c r="B60" s="56" t="s">
+      <c r="B60" s="31" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="59" t="s">
+      <c r="C60" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2750,9 +3489,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="63"/>
-      <c r="B61" s="56"/>
-      <c r="C61" s="59"/>
+      <c r="A61" s="27"/>
+      <c r="B61" s="31"/>
+      <c r="C61" s="34"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2764,9 +3503,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="63"/>
-      <c r="B62" s="56"/>
-      <c r="C62" s="59"/>
+      <c r="A62" s="27"/>
+      <c r="B62" s="31"/>
+      <c r="C62" s="34"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2778,9 +3517,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="63"/>
-      <c r="B63" s="56"/>
-      <c r="C63" s="59"/>
+      <c r="A63" s="27"/>
+      <c r="B63" s="31"/>
+      <c r="C63" s="34"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2790,23 +3529,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="63"/>
-      <c r="B64" s="56"/>
-      <c r="C64" s="36" t="s">
+      <c r="A64" s="27"/>
+      <c r="B64" s="31"/>
+      <c r="C64" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="37"/>
+      <c r="D64" s="41"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="63"/>
-      <c r="B65" s="56"/>
-      <c r="C65" s="36" t="s">
+      <c r="A65" s="27"/>
+      <c r="B65" s="31"/>
+      <c r="C65" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="37"/>
+      <c r="D65" s="41"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -2865,13 +3604,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -2888,32 +3634,28 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FF0070C0"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
   <si>
     <t>Search</t>
   </si>
@@ -410,13 +415,19 @@
   </si>
   <si>
     <t>Đính và kéo menu theo, kèm hiệu ứng đẹp mắt --&gt; đã chuyển lên thành task mức độ 3.</t>
+  </si>
+  <si>
+    <t>ForgotPassword</t>
+  </si>
+  <si>
+    <t>Capcha when register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -440,7 +451,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -448,11 +459,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -651,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -699,147 +715,171 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1126,1110 +1166,1139 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:U43"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="62" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="56" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="56" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="84" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="81" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="82" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="68" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="9.140625" style="68"/>
+    <col min="18" max="18" width="12.42578125" style="68" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="68"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="59" t="s">
+      <c r="B1" s="83" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="66" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="55" t="s">
+      <c r="D1" s="66" t="s">
         <v>58</v>
       </c>
-      <c r="E1" s="55" t="s">
+      <c r="E1" s="66" t="s">
         <v>59</v>
       </c>
-      <c r="F1" s="55" t="s">
+      <c r="F1" s="66" t="s">
         <v>117</v>
       </c>
-      <c r="G1" s="60" t="s">
+      <c r="G1" s="67" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="55" t="s">
+      <c r="H1" s="66" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="55" t="s">
+      <c r="I1" s="66" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="55" t="s">
+      <c r="J1" s="66" t="s">
         <v>108</v>
       </c>
-      <c r="R1" t="s">
+      <c r="R1" s="68" t="s">
         <v>96</v>
       </c>
-      <c r="S1" t="s">
+      <c r="S1" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="23">
+      <c r="T1" s="69">
         <v>1</v>
       </c>
-      <c r="U1" t="s">
+      <c r="U1" s="68" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="2" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="57" t="s">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B2" s="61" t="s">
+      <c r="B2" s="71" t="s">
         <v>73</v>
       </c>
-      <c r="C2" s="57">
+      <c r="C2" s="70">
         <v>3</v>
       </c>
-      <c r="D2" s="57" t="s">
+      <c r="D2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="57" t="s">
+      <c r="F2" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="57"/>
-      <c r="H2" s="57"/>
-      <c r="I2" s="57"/>
-      <c r="J2" s="57"/>
-      <c r="R2" t="s">
+      <c r="G2" s="70"/>
+      <c r="H2" s="70"/>
+      <c r="I2" s="70"/>
+      <c r="J2" s="70"/>
+      <c r="R2" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="S2" t="s">
+      <c r="S2" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="72">
         <v>2</v>
       </c>
-      <c r="U2" t="s">
+      <c r="U2" s="68" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="57" t="s">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A3" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B3" s="61" t="s">
+      <c r="B3" s="71" t="s">
         <v>100</v>
       </c>
-      <c r="C3" s="57">
+      <c r="C3" s="70">
         <v>2</v>
       </c>
-      <c r="D3" s="57" t="s">
+      <c r="D3" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="57" t="s">
+      <c r="E3" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="57" t="s">
+      <c r="F3" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="R3" t="s">
+      <c r="G3" s="70"/>
+      <c r="H3" s="70"/>
+      <c r="I3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="R3" s="68" t="s">
         <v>90</v>
       </c>
-      <c r="S3" t="s">
+      <c r="S3" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="T3" s="25">
+      <c r="T3" s="73">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="57" t="s">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A4" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B4" s="61" t="s">
+      <c r="B4" s="71" t="s">
         <v>74</v>
       </c>
-      <c r="C4" s="57">
+      <c r="C4" s="70">
         <v>2</v>
       </c>
-      <c r="D4" s="57" t="s">
+      <c r="D4" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E4" s="57" t="s">
+      <c r="E4" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="F4" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G4" s="57"/>
-      <c r="H4" s="57"/>
-      <c r="I4" s="57"/>
-      <c r="J4" s="57"/>
-      <c r="R4" t="s">
+      <c r="G4" s="70"/>
+      <c r="H4" s="70"/>
+      <c r="I4" s="70"/>
+      <c r="J4" s="70"/>
+      <c r="R4" s="68" t="s">
         <v>88</v>
       </c>
-      <c r="S4" t="s">
+      <c r="S4" s="68" t="s">
         <v>57</v>
       </c>
-      <c r="T4" s="24">
+      <c r="T4" s="74">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="57" t="s">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="61" t="s">
+      <c r="B5" s="71" t="s">
         <v>97</v>
       </c>
-      <c r="C5" s="57">
+      <c r="C5" s="70">
         <v>1</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G5" s="57"/>
-      <c r="H5" s="57"/>
-      <c r="I5" s="57"/>
-      <c r="J5" s="57"/>
-      <c r="R5" t="s">
+      <c r="G5" s="70"/>
+      <c r="H5" s="70"/>
+      <c r="I5" s="70"/>
+      <c r="J5" s="70"/>
+      <c r="R5" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="S5" t="s">
+      <c r="S5" s="68" t="s">
         <v>56</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="75">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="57" t="s">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="70" t="s">
         <v>96</v>
       </c>
-      <c r="B6" s="61" t="s">
+      <c r="B6" s="71" t="s">
         <v>76</v>
       </c>
-      <c r="C6" s="57">
+      <c r="C6" s="70">
         <v>2</v>
       </c>
-      <c r="D6" s="57" t="s">
+      <c r="D6" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E6" s="57" t="s">
+      <c r="E6" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="F6" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G6" s="57"/>
-      <c r="H6" s="57"/>
-      <c r="I6" s="57"/>
-      <c r="J6" s="57"/>
-      <c r="R6" t="s">
+      <c r="G6" s="70"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="R6" s="68" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="57" t="s">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="61" t="s">
+      <c r="B7" s="71" t="s">
         <v>114</v>
       </c>
-      <c r="C7" s="57">
+      <c r="C7" s="70">
         <v>5</v>
       </c>
-      <c r="D7" s="57" t="s">
+      <c r="D7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="F7" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G7" s="57"/>
-      <c r="H7" s="57"/>
-      <c r="I7" s="57"/>
-      <c r="J7" s="57"/>
-      <c r="R7" t="s">
+      <c r="G7" s="70"/>
+      <c r="H7" s="70"/>
+      <c r="I7" s="70"/>
+      <c r="J7" s="70"/>
+      <c r="R7" s="68" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="57" t="s">
+    <row r="8" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B8" s="61" t="s">
+      <c r="B8" s="71" t="s">
         <v>115</v>
       </c>
-      <c r="C8" s="57">
+      <c r="C8" s="70">
         <v>5</v>
       </c>
-      <c r="D8" s="57" t="s">
+      <c r="D8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="F8" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G8" s="57"/>
-      <c r="H8" s="57"/>
-      <c r="I8" s="57"/>
-      <c r="J8" s="57"/>
-      <c r="R8" t="s">
+      <c r="G8" s="70"/>
+      <c r="H8" s="70"/>
+      <c r="I8" s="70"/>
+      <c r="J8" s="70"/>
+      <c r="R8" s="68" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="57" t="s">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="61" t="s">
+      <c r="B9" s="71" t="s">
         <v>61</v>
       </c>
-      <c r="C9" s="57">
+      <c r="C9" s="70">
         <v>4</v>
       </c>
-      <c r="D9" s="57" t="s">
+      <c r="D9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E9" s="57" t="s">
+      <c r="E9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="F9" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="57"/>
-      <c r="I9" s="57"/>
-      <c r="J9" s="57"/>
-      <c r="R9" t="s">
+      <c r="G9" s="70"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="R9" s="68" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="57" t="s">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="61" t="s">
+      <c r="B10" s="71" t="s">
         <v>102</v>
       </c>
-      <c r="C10" s="57">
+      <c r="C10" s="70">
         <v>3</v>
       </c>
-      <c r="D10" s="57" t="s">
+      <c r="D10" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="F10" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G10" s="57"/>
-      <c r="H10" s="57"/>
-      <c r="I10" s="57"/>
-      <c r="J10" s="57"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="57" t="s">
+      <c r="G10" s="70"/>
+      <c r="H10" s="70"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B11" s="61" t="s">
+      <c r="B11" s="71" t="s">
         <v>103</v>
       </c>
-      <c r="C11" s="57">
+      <c r="C11" s="70">
         <v>3</v>
       </c>
-      <c r="D11" s="57" t="s">
+      <c r="D11" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E11" s="57" t="s">
+      <c r="E11" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="57" t="s">
+      <c r="F11" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="57"/>
-      <c r="H11" s="57"/>
-      <c r="I11" s="57"/>
-      <c r="J11" s="57"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="57" t="s">
+      <c r="G11" s="70"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="70"/>
+      <c r="J11" s="70"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" s="70" t="s">
         <v>64</v>
       </c>
-      <c r="B12" s="61" t="s">
+      <c r="B12" s="71" t="s">
         <v>116</v>
       </c>
-      <c r="C12" s="57">
+      <c r="C12" s="70">
         <v>4</v>
       </c>
-      <c r="D12" s="57" t="s">
+      <c r="D12" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="F12" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="57"/>
-      <c r="H12" s="57"/>
-      <c r="I12" s="57"/>
-      <c r="J12" s="57"/>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="57" t="s">
+      <c r="G12" s="70"/>
+      <c r="H12" s="70"/>
+      <c r="I12" s="70"/>
+      <c r="J12" s="70"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B13" s="61" t="s">
+      <c r="B13" s="71" t="s">
         <v>81</v>
       </c>
-      <c r="C13" s="57">
+      <c r="C13" s="70">
         <v>3</v>
       </c>
-      <c r="D13" s="57" t="s">
+      <c r="D13" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F13" s="57" t="s">
+      <c r="F13" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G13" s="57"/>
-      <c r="H13" s="57"/>
-      <c r="I13" s="57"/>
-      <c r="J13" s="57"/>
-    </row>
-    <row r="14" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="57" t="s">
+      <c r="G13" s="70"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="70"/>
+      <c r="J13" s="70"/>
+    </row>
+    <row r="14" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="70" t="s">
         <v>90</v>
       </c>
-      <c r="B14" s="61" t="s">
+      <c r="B14" s="71" t="s">
         <v>87</v>
       </c>
-      <c r="C14" s="57">
+      <c r="C14" s="70">
         <v>2</v>
       </c>
-      <c r="D14" s="57" t="s">
+      <c r="D14" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F14" s="57" t="s">
+      <c r="F14" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="57"/>
-      <c r="I14" s="57"/>
-      <c r="J14" s="57"/>
-    </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="57" t="s">
+      <c r="G14" s="70"/>
+      <c r="H14" s="70"/>
+      <c r="I14" s="70"/>
+      <c r="J14" s="70"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="71" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="57">
+      <c r="C15" s="70">
         <v>3</v>
       </c>
-      <c r="D15" s="57" t="s">
+      <c r="D15" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E15" s="57" t="s">
+      <c r="E15" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F15" s="57" t="s">
+      <c r="F15" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G15" s="57"/>
-      <c r="H15" s="57"/>
-      <c r="I15" s="57"/>
-      <c r="J15" s="57"/>
-    </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="57" t="s">
+      <c r="G15" s="70"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="70"/>
+      <c r="J15" s="70"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="61" t="s">
+      <c r="B16" s="71" t="s">
         <v>85</v>
       </c>
-      <c r="C16" s="57">
+      <c r="C16" s="70">
         <v>3</v>
       </c>
-      <c r="D16" s="57" t="s">
+      <c r="D16" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F16" s="57" t="s">
+      <c r="F16" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G16" s="57"/>
-      <c r="H16" s="57"/>
-      <c r="I16" s="57"/>
-      <c r="J16" s="57"/>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="57" t="s">
+      <c r="G16" s="70"/>
+      <c r="H16" s="70"/>
+      <c r="I16" s="70"/>
+      <c r="J16" s="70"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B17" s="61" t="s">
+      <c r="B17" s="71" t="s">
         <v>77</v>
       </c>
-      <c r="C17" s="57">
+      <c r="C17" s="70">
         <v>2</v>
       </c>
-      <c r="D17" s="57" t="s">
+      <c r="D17" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E17" s="57" t="s">
+      <c r="E17" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F17" s="57" t="s">
+      <c r="F17" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-    </row>
-    <row r="18" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="57" t="s">
+      <c r="G17" s="70"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="70"/>
+      <c r="J17" s="70"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A18" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B18" s="61" t="s">
+      <c r="B18" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="C18" s="57">
+      <c r="C18" s="70">
         <v>3</v>
       </c>
-      <c r="D18" s="57" t="s">
+      <c r="D18" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F18" s="57" t="s">
+      <c r="F18" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G18" s="57"/>
-      <c r="H18" s="57"/>
-      <c r="I18" s="57"/>
-      <c r="J18" s="57"/>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="57" t="s">
+      <c r="G18" s="70"/>
+      <c r="H18" s="70"/>
+      <c r="I18" s="70"/>
+      <c r="J18" s="70"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="70" t="s">
         <v>88</v>
       </c>
-      <c r="B19" s="61" t="s">
+      <c r="B19" s="71" t="s">
         <v>83</v>
       </c>
-      <c r="C19" s="57">
+      <c r="C19" s="70">
         <v>3</v>
       </c>
-      <c r="D19" s="57" t="s">
+      <c r="D19" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E19" s="57" t="s">
+      <c r="E19" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F19" s="57" t="s">
+      <c r="F19" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="57"/>
-      <c r="J19" s="57"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="57" t="s">
+      <c r="G19" s="70"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="70"/>
+      <c r="J19" s="70"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B20" s="61" t="s">
+      <c r="B20" s="71" t="s">
         <v>63</v>
       </c>
-      <c r="C20" s="57">
+      <c r="C20" s="70">
         <v>5</v>
       </c>
-      <c r="D20" s="57" t="s">
+      <c r="D20" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E20" s="57" t="s">
+      <c r="E20" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="F20" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G20" s="57"/>
-      <c r="H20" s="57"/>
-      <c r="I20" s="57"/>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="57" t="s">
+      <c r="G20" s="70"/>
+      <c r="H20" s="70"/>
+      <c r="I20" s="70"/>
+      <c r="J20" s="70"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A21" s="70" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="61" t="s">
+      <c r="B21" s="71" t="s">
         <v>62</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="70">
         <v>5</v>
       </c>
-      <c r="D21" s="57" t="s">
+      <c r="D21" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E21" s="57" t="s">
+      <c r="E21" s="70" t="s">
         <v>54</v>
       </c>
-      <c r="F21" s="57" t="s">
+      <c r="F21" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G21" s="57"/>
-      <c r="H21" s="57"/>
-      <c r="I21" s="57"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="57" t="s">
+      <c r="G21" s="70"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="70"/>
+      <c r="J21" s="70"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A22" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B22" s="61" t="s">
+      <c r="B22" s="71" t="s">
         <v>78</v>
       </c>
-      <c r="C22" s="57">
+      <c r="C22" s="70">
         <v>2</v>
       </c>
-      <c r="D22" s="57" t="s">
+      <c r="D22" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E22" s="57" t="s">
+      <c r="E22" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F22" s="57" t="s">
+      <c r="F22" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="57"/>
-      <c r="J22" s="57"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="57" t="s">
+      <c r="G22" s="70"/>
+      <c r="H22" s="70"/>
+      <c r="I22" s="70"/>
+      <c r="J22" s="70"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A23" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B23" s="61" t="s">
+      <c r="B23" s="71" t="s">
         <v>75</v>
       </c>
-      <c r="C23" s="57">
+      <c r="C23" s="70">
         <v>3</v>
       </c>
-      <c r="D23" s="57" t="s">
+      <c r="D23" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E23" s="57" t="s">
+      <c r="E23" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F23" s="57" t="s">
+      <c r="F23" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G23" s="57"/>
-      <c r="H23" s="57"/>
-      <c r="I23" s="57"/>
-      <c r="J23" s="57"/>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="57" t="s">
+      <c r="G23" s="70"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="70"/>
+      <c r="J23" s="70"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="70" t="s">
         <v>91</v>
       </c>
-      <c r="B24" s="61" t="s">
+      <c r="B24" s="71" t="s">
         <v>79</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="70">
         <v>3</v>
       </c>
-      <c r="D24" s="57" t="s">
+      <c r="D24" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="57" t="s">
+      <c r="E24" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="F24" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G24" s="57"/>
-      <c r="H24" s="57"/>
-      <c r="I24" s="57"/>
-      <c r="J24" s="57"/>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="57" t="s">
+      <c r="G24" s="70"/>
+      <c r="H24" s="70"/>
+      <c r="I24" s="70"/>
+      <c r="J24" s="70"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B25" s="61" t="s">
+      <c r="B25" s="71" t="s">
         <v>71</v>
       </c>
-      <c r="C25" s="57">
+      <c r="C25" s="70">
         <v>4</v>
       </c>
-      <c r="D25" s="57" t="s">
+      <c r="D25" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="E25" s="57" t="s">
+      <c r="E25" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="F25" s="57" t="s">
+      <c r="F25" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G25" s="57"/>
-      <c r="H25" s="57"/>
-      <c r="I25" s="57"/>
-      <c r="J25" s="57"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="57" t="s">
+      <c r="G25" s="70"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="70"/>
+      <c r="J25" s="70"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A26" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B26" s="61" t="s">
+      <c r="B26" s="71" t="s">
         <v>104</v>
       </c>
-      <c r="C26" s="57">
+      <c r="C26" s="70">
         <v>4</v>
       </c>
-      <c r="D26" s="57" t="s">
+      <c r="D26" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E26" s="57" t="s">
+      <c r="E26" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F26" s="57" t="s">
+      <c r="F26" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G26" s="57"/>
-      <c r="H26" s="57"/>
-      <c r="I26" s="57"/>
-      <c r="J26" s="57"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="57" t="s">
+      <c r="G26" s="70"/>
+      <c r="H26" s="70"/>
+      <c r="I26" s="70"/>
+      <c r="J26" s="70"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B27" s="61" t="s">
+      <c r="B27" s="71" t="s">
         <v>66</v>
       </c>
-      <c r="C27" s="57">
+      <c r="C27" s="70">
         <v>4</v>
       </c>
-      <c r="D27" s="57" t="s">
+      <c r="D27" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E27" s="57" t="s">
+      <c r="E27" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="F27" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G27" s="57"/>
-      <c r="H27" s="57"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="57"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="57" t="s">
+      <c r="G27" s="70"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="70"/>
+      <c r="J27" s="70"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A28" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B28" s="61" t="s">
+      <c r="B28" s="71" t="s">
         <v>72</v>
       </c>
-      <c r="C28" s="57">
+      <c r="C28" s="70">
         <v>4</v>
       </c>
-      <c r="D28" s="57" t="s">
+      <c r="D28" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E28" s="57" t="s">
+      <c r="E28" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G28" s="57"/>
-      <c r="H28" s="57"/>
-      <c r="I28" s="57"/>
-      <c r="J28" s="57"/>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="57" t="s">
+      <c r="G28" s="70"/>
+      <c r="H28" s="70"/>
+      <c r="I28" s="70"/>
+      <c r="J28" s="70"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A29" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="61" t="s">
+      <c r="B29" s="71" t="s">
         <v>70</v>
       </c>
-      <c r="C29" s="57">
+      <c r="C29" s="70">
         <v>3</v>
       </c>
-      <c r="D29" s="57" t="s">
+      <c r="D29" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E29" s="57" t="s">
+      <c r="E29" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="F29" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G29" s="57"/>
-      <c r="H29" s="57"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="57"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="57" t="s">
+      <c r="G29" s="70"/>
+      <c r="H29" s="70"/>
+      <c r="I29" s="70"/>
+      <c r="J29" s="70"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A30" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B30" s="61" t="s">
+      <c r="B30" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="C30" s="57">
+      <c r="C30" s="70">
         <v>3</v>
       </c>
-      <c r="D30" s="57" t="s">
+      <c r="D30" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E30" s="57" t="s">
+      <c r="E30" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="F30" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-      <c r="I30" s="57"/>
-      <c r="J30" s="57"/>
-    </row>
-    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="57" t="s">
+      <c r="G30" s="70"/>
+      <c r="H30" s="70"/>
+      <c r="I30" s="70"/>
+      <c r="J30" s="70"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A31" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B31" s="61" t="s">
+      <c r="B31" s="71" t="s">
         <v>68</v>
       </c>
-      <c r="C31" s="57">
+      <c r="C31" s="70">
         <v>3</v>
       </c>
-      <c r="D31" s="57" t="s">
+      <c r="D31" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E31" s="57" t="s">
+      <c r="E31" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="F31" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-      <c r="I31" s="57"/>
-      <c r="J31" s="57"/>
-    </row>
-    <row r="32" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="57" t="s">
+      <c r="G31" s="70"/>
+      <c r="H31" s="70"/>
+      <c r="I31" s="70"/>
+      <c r="J31" s="70"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A32" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B32" s="61" t="s">
+      <c r="B32" s="71" t="s">
         <v>69</v>
       </c>
-      <c r="C32" s="57">
+      <c r="C32" s="70">
         <v>3</v>
       </c>
-      <c r="D32" s="57" t="s">
+      <c r="D32" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="E32" s="57" t="s">
+      <c r="E32" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="F32" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-      <c r="I32" s="57"/>
-      <c r="J32" s="57"/>
-    </row>
-    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="57" t="s">
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="70"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A33" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B33" s="61" t="s">
+      <c r="B33" s="71" t="s">
         <v>98</v>
       </c>
-      <c r="C33" s="57">
+      <c r="C33" s="70">
         <v>4</v>
       </c>
-      <c r="D33" s="57" t="s">
+      <c r="D33" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E33" s="57" t="s">
+      <c r="E33" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="F33" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G33" s="57"/>
-      <c r="H33" s="57"/>
-      <c r="I33" s="57"/>
-      <c r="J33" s="57"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="57" t="s">
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="70"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A34" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B34" s="61" t="s">
+      <c r="B34" s="71" t="s">
         <v>99</v>
       </c>
-      <c r="C34" s="57">
+      <c r="C34" s="70">
         <v>3</v>
       </c>
-      <c r="D34" s="57" t="s">
+      <c r="D34" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E34" s="57" t="s">
+      <c r="E34" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F34" s="57" t="s">
+      <c r="F34" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G34" s="57"/>
-      <c r="H34" s="57"/>
-      <c r="I34" s="57"/>
-      <c r="J34" s="57"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="57" t="s">
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="70"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A35" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B35" s="61" t="s">
+      <c r="B35" s="71" t="s">
         <v>93</v>
       </c>
-      <c r="C35" s="57">
+      <c r="C35" s="70">
         <v>4</v>
       </c>
-      <c r="D35" s="57" t="s">
+      <c r="D35" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E35" s="57" t="s">
+      <c r="E35" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F35" s="57" t="s">
+      <c r="F35" s="70" t="s">
         <v>55</v>
       </c>
-      <c r="G35" s="57"/>
-      <c r="H35" s="57"/>
-      <c r="I35" s="57"/>
-      <c r="J35" s="57"/>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="57" t="s">
+      <c r="G35" s="70"/>
+      <c r="H35" s="70"/>
+      <c r="I35" s="70"/>
+      <c r="J35" s="70"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A36" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B36" s="61" t="s">
+      <c r="B36" s="71" t="s">
         <v>95</v>
       </c>
-      <c r="C36" s="57">
+      <c r="C36" s="70">
         <v>3</v>
       </c>
-      <c r="D36" s="57" t="s">
+      <c r="D36" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E36" s="57" t="s">
+      <c r="E36" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F36" s="57" t="s">
+      <c r="F36" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G36" s="57"/>
-      <c r="H36" s="57"/>
-      <c r="I36" s="57"/>
-      <c r="J36" s="57"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="57" t="s">
+      <c r="G36" s="70"/>
+      <c r="H36" s="70"/>
+      <c r="I36" s="70"/>
+      <c r="J36" s="70"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B37" s="61" t="s">
+      <c r="B37" s="71" t="s">
         <v>94</v>
       </c>
-      <c r="C37" s="57">
+      <c r="C37" s="70">
         <v>3</v>
       </c>
-      <c r="D37" s="57" t="s">
+      <c r="D37" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="E37" s="57" t="s">
+      <c r="E37" s="70" t="s">
         <v>56</v>
       </c>
-      <c r="F37" s="57" t="s">
+      <c r="F37" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G37" s="57"/>
-      <c r="H37" s="57"/>
-      <c r="I37" s="57"/>
-      <c r="J37" s="57"/>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="57" t="s">
+      <c r="G37" s="70"/>
+      <c r="H37" s="70"/>
+      <c r="I37" s="70"/>
+      <c r="J37" s="70"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A38" s="70" t="s">
         <v>89</v>
       </c>
-      <c r="B38" s="61" t="s">
+      <c r="B38" s="71" t="s">
         <v>82</v>
       </c>
-      <c r="C38" s="57">
+      <c r="C38" s="70">
         <v>3</v>
       </c>
-      <c r="D38" s="57" t="s">
+      <c r="D38" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="E38" s="57" t="s">
+      <c r="E38" s="70" t="s">
         <v>57</v>
       </c>
-      <c r="F38" s="57" t="s">
+      <c r="F38" s="70" t="s">
         <v>53</v>
       </c>
-      <c r="G38" s="57"/>
-      <c r="H38" s="57"/>
-      <c r="I38" s="57"/>
-      <c r="J38" s="57"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="57" t="s">
+      <c r="G38" s="70"/>
+      <c r="H38" s="70"/>
+      <c r="I38" s="70"/>
+      <c r="J38" s="70"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A39" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B39" s="61" t="s">
+      <c r="B39" s="71" t="s">
         <v>106</v>
       </c>
-      <c r="C39" s="57">
+      <c r="C39" s="70">
         <v>4</v>
       </c>
-      <c r="D39" s="57"/>
-      <c r="E39" s="57"/>
-      <c r="F39" s="58"/>
-      <c r="G39" s="57"/>
-      <c r="H39" s="58"/>
-      <c r="I39" s="58"/>
-      <c r="J39" s="58"/>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="57" t="s">
+      <c r="D39" s="70"/>
+      <c r="E39" s="70"/>
+      <c r="F39" s="76"/>
+      <c r="G39" s="70"/>
+      <c r="H39" s="76"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="76"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A40" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B40" s="61" t="s">
+      <c r="B40" s="71" t="s">
         <v>107</v>
       </c>
-      <c r="C40" s="57">
+      <c r="C40" s="70">
         <v>4</v>
       </c>
-      <c r="D40" s="57"/>
-      <c r="E40" s="57"/>
-      <c r="F40" s="57"/>
-      <c r="G40" s="57"/>
-      <c r="H40" s="57"/>
-      <c r="I40" s="57"/>
-      <c r="J40" s="57"/>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="57" t="s">
+      <c r="D40" s="70"/>
+      <c r="E40" s="70"/>
+      <c r="F40" s="70"/>
+      <c r="G40" s="70"/>
+      <c r="H40" s="70"/>
+      <c r="I40" s="70"/>
+      <c r="J40" s="70"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A41" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="61" t="s">
+      <c r="B41" s="71" t="s">
         <v>105</v>
       </c>
-      <c r="C41" s="57">
+      <c r="C41" s="70">
         <v>4</v>
       </c>
-      <c r="D41" s="57"/>
-      <c r="E41" s="57"/>
-      <c r="F41" s="58"/>
-      <c r="G41" s="57"/>
-      <c r="H41" s="58"/>
-      <c r="I41" s="58"/>
-      <c r="J41" s="58"/>
-    </row>
-    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="57" t="s">
+      <c r="D41" s="70"/>
+      <c r="E41" s="70"/>
+      <c r="F41" s="76"/>
+      <c r="G41" s="70"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="76"/>
+    </row>
+    <row r="42" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A42" s="70" t="s">
         <v>80</v>
       </c>
-      <c r="B42" s="61" t="s">
+      <c r="B42" s="71" t="s">
         <v>122</v>
       </c>
-      <c r="C42" s="57">
+      <c r="C42" s="70">
         <v>3</v>
       </c>
-      <c r="D42" s="57"/>
-      <c r="E42" s="57"/>
-      <c r="F42" s="58"/>
-      <c r="G42" s="57"/>
-      <c r="H42" s="58"/>
-      <c r="I42" s="58"/>
-      <c r="J42" s="58"/>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="57" t="s">
+      <c r="D42" s="70"/>
+      <c r="E42" s="70"/>
+      <c r="F42" s="76"/>
+      <c r="G42" s="70"/>
+      <c r="H42" s="76"/>
+      <c r="I42" s="76"/>
+      <c r="J42" s="76"/>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A43" s="70" t="s">
         <v>92</v>
       </c>
-      <c r="B43" s="61" t="s">
+      <c r="B43" s="71" t="s">
         <v>118</v>
       </c>
-      <c r="C43" s="57">
+      <c r="C43" s="70">
         <v>4</v>
       </c>
-      <c r="D43" s="57"/>
-      <c r="E43" s="57"/>
-      <c r="F43" s="58"/>
-      <c r="G43" s="57"/>
-      <c r="H43" s="58"/>
-      <c r="I43" s="58"/>
-      <c r="J43" s="58"/>
+      <c r="D43" s="70"/>
+      <c r="E43" s="70"/>
+      <c r="F43" s="76"/>
+      <c r="G43" s="70"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
+      <c r="J43" s="76"/>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A44" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B44" s="71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="78"/>
+      <c r="D44" s="79"/>
+      <c r="E44" s="79"/>
+      <c r="F44" s="80"/>
+      <c r="G44" s="80"/>
+      <c r="H44" s="80"/>
+      <c r="I44" s="80"/>
+      <c r="J44" s="80"/>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A45" s="77" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="71" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="78"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="79"/>
+      <c r="F45" s="80"/>
+      <c r="G45" s="80"/>
+      <c r="H45" s="80"/>
+      <c r="I45" s="80"/>
+      <c r="J45" s="80"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:E43">
-    <filterColumn colId="3">
-      <filters>
-        <filter val="Khoa"/>
-      </filters>
-    </filterColumn>
     <sortState ref="A2:E42">
       <sortCondition ref="D1:D42"/>
     </sortState>
@@ -2275,12 +2344,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="70" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" style="62" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="62" customWidth="1"/>
-    <col min="4" max="4" width="16" style="71" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="57" customWidth="1"/>
-    <col min="6" max="6" width="16" style="57" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="16" style="26" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -2289,22 +2358,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="64" t="s">
+      <c r="C1" s="29" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="30" t="s">
         <v>123</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="30" t="s">
         <v>124</v>
       </c>
-      <c r="F1" s="72" t="s">
+      <c r="F1" s="37" t="s">
         <v>121</v>
       </c>
       <c r="Q1" s="2" t="s">
@@ -2313,7 +2382,7 @@
       <c r="R1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="66">
+      <c r="S1" s="31">
         <v>1</v>
       </c>
       <c r="T1" s="2" t="s">
@@ -2321,19 +2390,19 @@
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="69" t="s">
+      <c r="A2" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B2" s="63" t="s">
+      <c r="B2" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="C2" s="63" t="s">
+      <c r="C2" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="57" t="s">
+      <c r="E2" s="26" t="s">
         <v>54</v>
       </c>
       <c r="Q2" t="s">
@@ -2350,283 +2419,283 @@
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="69"/>
-      <c r="B3" s="63"/>
-      <c r="C3" s="63"/>
-      <c r="D3" s="67"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="Q3" t="s">
         <v>90</v>
       </c>
       <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="69"/>
-      <c r="B4" s="63"/>
-      <c r="C4" s="63"/>
-      <c r="D4" s="67"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="32"/>
       <c r="Q4" t="s">
         <v>88</v>
       </c>
       <c r="R4" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="69"/>
-      <c r="B5" s="63"/>
-      <c r="C5" s="63"/>
-      <c r="D5" s="67"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="32"/>
       <c r="Q5" t="s">
         <v>65</v>
       </c>
       <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="69"/>
-      <c r="B6" s="63"/>
-      <c r="C6" s="63"/>
-      <c r="D6" s="67"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="32"/>
       <c r="Q6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="69"/>
-      <c r="B7" s="63"/>
-      <c r="C7" s="63"/>
-      <c r="D7" s="67"/>
+      <c r="A7" s="34"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
       <c r="Q7" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="69"/>
-      <c r="B8" s="63"/>
-      <c r="C8" s="63"/>
-      <c r="D8" s="67"/>
+      <c r="A8" s="34"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
       <c r="Q8" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="69"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="67"/>
+      <c r="A9" s="34"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
       <c r="Q9" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="69"/>
-      <c r="B10" s="63"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="67"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="69"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="67"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="69"/>
-      <c r="B12" s="63"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="67"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="69"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="67"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="69"/>
-      <c r="B14" s="63"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="67"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="69"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="67"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="69"/>
-      <c r="B16" s="63"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="67"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="69"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="67"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="69"/>
-      <c r="B18" s="63"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="67"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="69"/>
-      <c r="B19" s="63"/>
-      <c r="C19" s="63"/>
-      <c r="D19" s="67"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="69"/>
-      <c r="B20" s="63"/>
-      <c r="C20" s="63"/>
-      <c r="D20" s="67"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="69"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="67"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="69"/>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="67"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="69"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="67"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="69"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="67"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="69"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="67"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="69"/>
-      <c r="B26" s="63"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="67"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="69"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="67"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="69"/>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="67"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="69"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="67"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="69"/>
-      <c r="B30" s="63"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="67"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="69"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="67"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="69"/>
-      <c r="B32" s="63"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="67"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="69"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="67"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="69"/>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="67"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="69"/>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="67"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="69"/>
-      <c r="B36" s="63"/>
-      <c r="C36" s="63"/>
-      <c r="D36" s="67"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="69"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="67"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="69"/>
-      <c r="B38" s="63"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="67"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="69"/>
-      <c r="B39" s="63"/>
-      <c r="C39" s="63"/>
-      <c r="D39" s="67"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="69"/>
-      <c r="B40" s="63"/>
-      <c r="C40" s="63"/>
-      <c r="D40" s="67"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="69"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="67"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="69"/>
-      <c r="B42" s="63"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="67"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2671,11 +2740,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="28" t="s">
+      <c r="A2" s="65"/>
+      <c r="B2" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="35" t="s">
+      <c r="C2" s="62" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2689,9 +2758,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="27"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="35"/>
+      <c r="A3" s="65"/>
+      <c r="B3" s="55"/>
+      <c r="C3" s="62"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2703,9 +2772,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="27"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="35"/>
+      <c r="A4" s="65"/>
+      <c r="B4" s="55"/>
+      <c r="C4" s="62"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2715,9 +2784,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="27"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="35" t="s">
+      <c r="A5" s="65"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="62" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2731,9 +2800,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="27"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="35"/>
+      <c r="A6" s="65"/>
+      <c r="B6" s="55"/>
+      <c r="C6" s="62"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2745,9 +2814,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="35"/>
+      <c r="A7" s="65"/>
+      <c r="B7" s="55"/>
+      <c r="C7" s="62"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2759,9 +2828,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="27"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="35"/>
+      <c r="A8" s="65"/>
+      <c r="B8" s="55"/>
+      <c r="C8" s="62"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2771,9 +2840,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="27"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="35" t="s">
+      <c r="A9" s="65"/>
+      <c r="B9" s="55"/>
+      <c r="C9" s="62" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2787,9 +2856,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="27"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="35"/>
+      <c r="A10" s="65"/>
+      <c r="B10" s="55"/>
+      <c r="C10" s="62"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2801,9 +2870,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="27"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="35"/>
+      <c r="A11" s="65"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="62"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2815,9 +2884,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="27"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="35"/>
+      <c r="A12" s="65"/>
+      <c r="B12" s="55"/>
+      <c r="C12" s="62"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2827,9 +2896,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="27"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="35" t="s">
+      <c r="A13" s="65"/>
+      <c r="B13" s="55"/>
+      <c r="C13" s="62" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2843,9 +2912,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="27"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="35"/>
+      <c r="A14" s="65"/>
+      <c r="B14" s="55"/>
+      <c r="C14" s="62"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2857,9 +2926,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="27"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="35"/>
+      <c r="A15" s="65"/>
+      <c r="B15" s="55"/>
+      <c r="C15" s="62"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2871,9 +2940,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="27"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="65"/>
+      <c r="B16" s="55"/>
+      <c r="C16" s="62"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2883,21 +2952,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="27"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="36" t="s">
+      <c r="A17" s="65"/>
+      <c r="B17" s="55"/>
+      <c r="C17" s="63" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="36"/>
+      <c r="D17" s="63"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="27">
+      <c r="A18" s="65">
         <v>2</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="40" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2909,8 +2978,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="27"/>
-      <c r="B19" s="43"/>
+      <c r="A19" s="65"/>
+      <c r="B19" s="41"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2923,8 +2992,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="27"/>
-      <c r="B20" s="43"/>
+      <c r="A20" s="65"/>
+      <c r="B20" s="41"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2934,8 +3003,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="27"/>
-      <c r="B21" s="43"/>
+      <c r="A21" s="65"/>
+      <c r="B21" s="41"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2948,8 +3017,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="27"/>
-      <c r="B22" s="43"/>
+      <c r="A22" s="65"/>
+      <c r="B22" s="41"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2959,8 +3028,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="27"/>
-      <c r="B23" s="43"/>
+      <c r="A23" s="65"/>
+      <c r="B23" s="41"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2970,8 +3039,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="27"/>
-      <c r="B24" s="43"/>
+      <c r="A24" s="65"/>
+      <c r="B24" s="41"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2984,8 +3053,8 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="27"/>
-      <c r="B25" s="44"/>
+      <c r="A25" s="65"/>
+      <c r="B25" s="42"/>
       <c r="C25" s="53" t="s">
         <v>33</v>
       </c>
@@ -2995,13 +3064,13 @@
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="27">
+      <c r="A26" s="65">
         <v>6</v>
       </c>
-      <c r="B26" s="37" t="s">
+      <c r="B26" s="45" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="37" t="s">
+      <c r="C26" s="45" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -3015,9 +3084,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="27"/>
-      <c r="B27" s="38"/>
-      <c r="C27" s="38"/>
+      <c r="A27" s="65"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -3029,9 +3098,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="27"/>
-      <c r="B28" s="38"/>
-      <c r="C28" s="39"/>
+      <c r="A28" s="65"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="64"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -3041,8 +3110,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="27"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="65"/>
+      <c r="B29" s="46"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -3052,8 +3121,8 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="27"/>
-      <c r="B30" s="38"/>
+      <c r="A30" s="65"/>
+      <c r="B30" s="46"/>
       <c r="C30" s="51" t="s">
         <v>11</v>
       </c>
@@ -3066,13 +3135,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="27">
+      <c r="A31" s="65">
         <v>4</v>
       </c>
-      <c r="B31" s="45" t="s">
+      <c r="B31" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="32" t="s">
+      <c r="C31" s="59" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3086,9 +3155,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="27"/>
-      <c r="B32" s="45"/>
-      <c r="C32" s="32"/>
+      <c r="A32" s="65"/>
+      <c r="B32" s="43"/>
+      <c r="C32" s="59"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -3100,9 +3169,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="27"/>
-      <c r="B33" s="45"/>
-      <c r="C33" s="32"/>
+      <c r="A33" s="65"/>
+      <c r="B33" s="43"/>
+      <c r="C33" s="59"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -3112,9 +3181,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="27"/>
-      <c r="B34" s="45"/>
-      <c r="C34" s="32" t="s">
+      <c r="A34" s="65"/>
+      <c r="B34" s="43"/>
+      <c r="C34" s="59" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3128,9 +3197,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="27"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="32"/>
+      <c r="A35" s="65"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="59"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -3142,9 +3211,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="27"/>
-      <c r="B36" s="45"/>
-      <c r="C36" s="32"/>
+      <c r="A36" s="65"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="59"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -3154,9 +3223,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="27"/>
-      <c r="B37" s="45"/>
-      <c r="C37" s="32" t="s">
+      <c r="A37" s="65"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="59" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3170,9 +3239,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="27"/>
-      <c r="B38" s="45"/>
-      <c r="C38" s="32"/>
+      <c r="A38" s="65"/>
+      <c r="B38" s="43"/>
+      <c r="C38" s="59"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -3184,9 +3253,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="27"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="32"/>
+      <c r="A39" s="65"/>
+      <c r="B39" s="43"/>
+      <c r="C39" s="59"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -3198,9 +3267,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="27"/>
-      <c r="B40" s="45"/>
-      <c r="C40" s="32"/>
+      <c r="A40" s="65"/>
+      <c r="B40" s="43"/>
+      <c r="C40" s="59"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3210,9 +3279,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="27"/>
-      <c r="B41" s="45"/>
-      <c r="C41" s="32" t="s">
+      <c r="A41" s="65"/>
+      <c r="B41" s="43"/>
+      <c r="C41" s="59" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3226,9 +3295,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="27"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="32"/>
+      <c r="A42" s="65"/>
+      <c r="B42" s="43"/>
+      <c r="C42" s="59"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -3240,9 +3309,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="27"/>
-      <c r="B43" s="45"/>
-      <c r="C43" s="32"/>
+      <c r="A43" s="65"/>
+      <c r="B43" s="43"/>
+      <c r="C43" s="59"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -3254,9 +3323,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="27"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="32"/>
+      <c r="A44" s="65"/>
+      <c r="B44" s="43"/>
+      <c r="C44" s="59"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -3266,8 +3335,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="27"/>
-      <c r="B45" s="45"/>
+      <c r="A45" s="65"/>
+      <c r="B45" s="43"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -3277,8 +3346,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="27"/>
-      <c r="B46" s="46"/>
+      <c r="A46" s="65"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -3303,10 +3372,10 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="27">
+      <c r="A48" s="65">
         <v>3</v>
       </c>
-      <c r="B48" s="29" t="s">
+      <c r="B48" s="56" t="s">
         <v>32</v>
       </c>
       <c r="C48" s="47" t="s">
@@ -3321,8 +3390,8 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="27"/>
-      <c r="B49" s="29"/>
+      <c r="A49" s="65"/>
+      <c r="B49" s="56"/>
       <c r="C49" s="47" t="s">
         <v>45</v>
       </c>
@@ -3335,8 +3404,8 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="27"/>
-      <c r="B50" s="29"/>
+      <c r="A50" s="65"/>
+      <c r="B50" s="56"/>
       <c r="C50" s="47" t="s">
         <v>10</v>
       </c>
@@ -3346,8 +3415,8 @@
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="27"/>
-      <c r="B51" s="29"/>
+      <c r="A51" s="65"/>
+      <c r="B51" s="56"/>
       <c r="C51" s="47" t="s">
         <v>8</v>
       </c>
@@ -3357,8 +3426,8 @@
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="27"/>
-      <c r="B52" s="29"/>
+      <c r="A52" s="65"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="47" t="s">
         <v>12</v>
       </c>
@@ -3383,13 +3452,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="27">
+      <c r="A54" s="65">
         <v>5</v>
       </c>
-      <c r="B54" s="30" t="s">
+      <c r="B54" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="33" t="s">
+      <c r="C54" s="60" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -3401,9 +3470,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="27"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="33"/>
+      <c r="A55" s="65"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="60"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -3415,9 +3484,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="27"/>
-      <c r="B56" s="30"/>
-      <c r="C56" s="33"/>
+      <c r="A56" s="65"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="60"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -3429,9 +3498,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="27"/>
-      <c r="B57" s="30"/>
-      <c r="C57" s="33"/>
+      <c r="A57" s="65"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="60"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -3441,8 +3510,8 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="27"/>
-      <c r="B58" s="30"/>
+      <c r="A58" s="65"/>
+      <c r="B58" s="57"/>
       <c r="C58" s="49" t="s">
         <v>40</v>
       </c>
@@ -3455,8 +3524,8 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="27"/>
-      <c r="B59" s="30"/>
+      <c r="A59" s="65"/>
+      <c r="B59" s="57"/>
       <c r="C59" s="49" t="s">
         <v>41</v>
       </c>
@@ -3469,13 +3538,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="27">
+      <c r="A60" s="65">
         <v>7</v>
       </c>
-      <c r="B60" s="31" t="s">
+      <c r="B60" s="58" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="34" t="s">
+      <c r="C60" s="61" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -3489,9 +3558,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="27"/>
-      <c r="B61" s="31"/>
-      <c r="C61" s="34"/>
+      <c r="A61" s="65"/>
+      <c r="B61" s="58"/>
+      <c r="C61" s="61"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -3503,9 +3572,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="27"/>
-      <c r="B62" s="31"/>
-      <c r="C62" s="34"/>
+      <c r="A62" s="65"/>
+      <c r="B62" s="58"/>
+      <c r="C62" s="61"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -3517,9 +3586,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="27"/>
-      <c r="B63" s="31"/>
-      <c r="C63" s="34"/>
+      <c r="A63" s="65"/>
+      <c r="B63" s="58"/>
+      <c r="C63" s="61"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -3529,23 +3598,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="27"/>
-      <c r="B64" s="31"/>
-      <c r="C64" s="40" t="s">
+      <c r="A64" s="65"/>
+      <c r="B64" s="58"/>
+      <c r="C64" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="41"/>
+      <c r="D64" s="39"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="27"/>
-      <c r="B65" s="31"/>
-      <c r="C65" s="40" t="s">
+      <c r="A65" s="65"/>
+      <c r="B65" s="58"/>
+      <c r="C65" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="41"/>
+      <c r="D65" s="39"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3604,20 +3673,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3634,13 +3696,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
@@ -19,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$B$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$43</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$42</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UC!$F$1:$F$82</definedName>
     <definedName name="Members" localSheetId="1">Issues!#REF!</definedName>
     <definedName name="Members">Modules!#REF!</definedName>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
   <si>
     <t>Search</t>
   </si>
@@ -249,12 +244,6 @@
     <t>Login / Logout</t>
   </si>
   <si>
-    <t>Check authentication all pages</t>
-  </si>
-  <si>
-    <t>Check authorization all pages</t>
-  </si>
-  <si>
     <t>Admin control panel page</t>
   </si>
   <si>
@@ -417,17 +406,14 @@
     <t>Đính và kéo menu theo, kèm hiệu ứng đẹp mắt --&gt; đã chuyển lên thành task mức độ 3.</t>
   </si>
   <si>
-    <t>ForgotPassword</t>
-  </si>
-  <si>
-    <t>Capcha when register</t>
+    <t>Check authentication and authorization all pages</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -451,7 +437,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -459,16 +445,11 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -667,7 +648,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -715,22 +696,41 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -739,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,7 +751,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -838,48 +838,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1158,7 +1118,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1169,1136 +1129,1106 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="84" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="81" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="82" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="82" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="68" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="68" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="68" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" style="68"/>
-    <col min="18" max="18" width="12.42578125" style="68" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="68"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="34" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="66" t="s">
+    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="83" t="s">
+      <c r="B1" s="31" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="66" t="s">
+      <c r="C1" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>115</v>
+      </c>
+      <c r="G1" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="I1" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="J1" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="R1" t="s">
+        <v>94</v>
+      </c>
+      <c r="S1" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="23">
+        <v>1</v>
+      </c>
+      <c r="U1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="29">
+        <v>3</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="29"/>
+      <c r="R2" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="22">
+        <v>2</v>
+      </c>
+      <c r="U2" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>98</v>
+      </c>
+      <c r="C3" s="29">
+        <v>2</v>
+      </c>
+      <c r="D3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H3" s="29"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
+      <c r="R3" t="s">
+        <v>88</v>
+      </c>
+      <c r="S3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="C4" s="29">
+        <v>2</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H4" s="29"/>
+      <c r="I4" s="29"/>
+      <c r="J4" s="29"/>
+      <c r="R4" t="s">
+        <v>86</v>
+      </c>
+      <c r="S4" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="29">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="R5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C6" s="29">
+        <v>2</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="R6" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>112</v>
+      </c>
+      <c r="C7" s="29">
+        <v>5</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
+      <c r="I7" s="29"/>
+      <c r="J7" s="29"/>
+      <c r="R7" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>113</v>
+      </c>
+      <c r="C8" s="29">
+        <v>5</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="29"/>
+      <c r="H8" s="29"/>
+      <c r="I8" s="29"/>
+      <c r="J8" s="29"/>
+      <c r="R8" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="29">
+        <v>4</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="R9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>100</v>
+      </c>
+      <c r="C10" s="29">
+        <v>3</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29"/>
+      <c r="I10" s="29"/>
+      <c r="J10" s="29"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="D1" s="66" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="66" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="66" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="H1" s="66" t="s">
-        <v>110</v>
-      </c>
-      <c r="I1" s="66" t="s">
-        <v>111</v>
-      </c>
-      <c r="J1" s="66" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="68" t="s">
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29"/>
+      <c r="J11" s="29"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>114</v>
+      </c>
+      <c r="C12" s="29">
+        <v>4</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29"/>
+      <c r="I12" s="29"/>
+      <c r="J12" s="29"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>79</v>
+      </c>
+      <c r="C13" s="29">
+        <v>3</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>85</v>
+      </c>
+      <c r="C14" s="29">
+        <v>4</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="73"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>82</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>83</v>
+      </c>
+      <c r="C16" s="29">
+        <v>3</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="29"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="29">
+        <v>2</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F17" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="29"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>84</v>
+      </c>
+      <c r="C18" s="29">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H18" s="29"/>
+      <c r="I18" s="29"/>
+      <c r="J18" s="29"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>86</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="29">
+        <v>5</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="29"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="29">
+        <v>5</v>
+      </c>
+      <c r="D21" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
+      <c r="I21" s="29"/>
+      <c r="J21" s="29"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>76</v>
+      </c>
+      <c r="C22" s="29">
+        <v>2</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C23" s="29">
+        <v>3</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="29"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>77</v>
+      </c>
+      <c r="C24" s="29">
+        <v>3</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="73">
+        <v>41762</v>
+      </c>
+      <c r="H24" s="29"/>
+      <c r="I24" s="29"/>
+      <c r="J24" s="29"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>125</v>
+      </c>
+      <c r="C25" s="29">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="29"/>
+      <c r="H25" s="29"/>
+      <c r="I25" s="29"/>
+      <c r="J25" s="29"/>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C26" s="29">
+        <v>4</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="29">
+        <v>4</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="29"/>
+      <c r="H27" s="29"/>
+      <c r="I27" s="29"/>
+      <c r="J27" s="29"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="C28" s="29">
+        <v>3</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="29"/>
+      <c r="H28" s="29"/>
+      <c r="I28" s="29"/>
+      <c r="J28" s="29"/>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" s="29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="C30" s="29">
+        <v>3</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="29"/>
+      <c r="H30" s="29"/>
+      <c r="I30" s="29"/>
+      <c r="J30" s="29"/>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C31" s="29">
+        <v>3</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="29"/>
+      <c r="H31" s="29"/>
+      <c r="I31" s="29"/>
+      <c r="J31" s="29"/>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B32" s="33" t="s">
         <v>96</v>
       </c>
-      <c r="S1" s="68" t="s">
+      <c r="C32" s="29">
+        <v>4</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E32" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F32" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="T1" s="69">
-        <v>1</v>
-      </c>
-      <c r="U1" s="68" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="71" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="70">
+      <c r="G32" s="73"/>
+      <c r="H32" s="29"/>
+      <c r="I32" s="29"/>
+      <c r="J32" s="29"/>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="C33" s="29">
         <v>3</v>
       </c>
-      <c r="D2" s="70" t="s">
+      <c r="D33" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E2" s="70" t="s">
+      <c r="G33" s="73"/>
+      <c r="H33" s="29"/>
+      <c r="I33" s="29"/>
+      <c r="J33" s="29"/>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>91</v>
+      </c>
+      <c r="C34" s="29">
+        <v>4</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="70" t="s">
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="29">
+        <v>3</v>
+      </c>
+      <c r="D35" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-      <c r="R2" s="68" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="68" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="72">
-        <v>2</v>
-      </c>
-      <c r="U2" s="68" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="71" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="70">
-        <v>2</v>
-      </c>
-      <c r="D3" s="70" t="s">
+      <c r="E35" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="E3" s="70" t="s">
+      <c r="F35" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="29"/>
+      <c r="H35" s="29"/>
+      <c r="I35" s="29"/>
+      <c r="J35" s="29"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>92</v>
+      </c>
+      <c r="C36" s="29">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F36" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="29"/>
+      <c r="H36" s="29"/>
+      <c r="I36" s="29"/>
+      <c r="J36" s="29"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>87</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" s="29">
+        <v>3</v>
+      </c>
+      <c r="D37" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="E37" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="G3" s="70"/>
-      <c r="H3" s="70"/>
-      <c r="I3" s="70"/>
-      <c r="J3" s="70"/>
-      <c r="R3" s="68" t="s">
+      <c r="F37" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="73"/>
+      <c r="H37" s="29"/>
+      <c r="I37" s="29"/>
+      <c r="J37" s="29"/>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="29">
+        <v>4</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+      <c r="F38" s="30"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="30"/>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="29">
+        <v>4</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+      <c r="F39" s="29"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="29"/>
+      <c r="I39" s="29"/>
+      <c r="J39" s="29"/>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>103</v>
+      </c>
+      <c r="C40" s="29">
+        <v>4</v>
+      </c>
+      <c r="D40" s="29"/>
+      <c r="E40" s="29"/>
+      <c r="F40" s="30"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" s="29" t="s">
+        <v>78</v>
+      </c>
+      <c r="B41" s="33" t="s">
+        <v>120</v>
+      </c>
+      <c r="C41" s="29">
+        <v>3</v>
+      </c>
+      <c r="D41" s="29"/>
+      <c r="E41" s="29"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" s="29" t="s">
         <v>90</v>
       </c>
-      <c r="S3" s="68" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="73">
+      <c r="B42" s="33" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="29">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="70">
-        <v>2</v>
-      </c>
-      <c r="D4" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="70"/>
-      <c r="H4" s="70"/>
-      <c r="I4" s="70"/>
-      <c r="J4" s="70"/>
-      <c r="R4" s="68" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" s="68" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="74">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="71" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="70">
-        <v>1</v>
-      </c>
-      <c r="D5" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="70"/>
-      <c r="H5" s="70"/>
-      <c r="I5" s="70"/>
-      <c r="J5" s="70"/>
-      <c r="R5" s="68" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="68" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="75">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="70" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="71" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="70">
-        <v>2</v>
-      </c>
-      <c r="D6" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="70"/>
-      <c r="H6" s="70"/>
-      <c r="I6" s="70"/>
-      <c r="J6" s="70"/>
-      <c r="R6" s="68" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A7" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="71" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="70">
-        <v>5</v>
-      </c>
-      <c r="D7" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="70"/>
-      <c r="H7" s="70"/>
-      <c r="I7" s="70"/>
-      <c r="J7" s="70"/>
-      <c r="R7" s="68" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="71" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="70">
-        <v>5</v>
-      </c>
-      <c r="D8" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="70"/>
-      <c r="R8" s="68" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="71" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="70">
-        <v>4</v>
-      </c>
-      <c r="D9" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="70"/>
-      <c r="H9" s="70"/>
-      <c r="I9" s="70"/>
-      <c r="J9" s="70"/>
-      <c r="R9" s="68" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A10" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="71" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="70">
-        <v>3</v>
-      </c>
-      <c r="D10" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="70"/>
-      <c r="H10" s="70"/>
-      <c r="I10" s="70"/>
-      <c r="J10" s="70"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="71" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="70">
-        <v>3</v>
-      </c>
-      <c r="D11" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="70"/>
-      <c r="H11" s="70"/>
-      <c r="I11" s="70"/>
-      <c r="J11" s="70"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A12" s="70" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="71" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="70">
-        <v>4</v>
-      </c>
-      <c r="D12" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="70"/>
-      <c r="H12" s="70"/>
-      <c r="I12" s="70"/>
-      <c r="J12" s="70"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A13" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="71" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="70">
-        <v>3</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E13" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="70"/>
-      <c r="H13" s="70"/>
-      <c r="I13" s="70"/>
-      <c r="J13" s="70"/>
-    </row>
-    <row r="14" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A14" s="70" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="71" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="70">
-        <v>2</v>
-      </c>
-      <c r="D14" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="70"/>
-      <c r="H14" s="70"/>
-      <c r="I14" s="70"/>
-      <c r="J14" s="70"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A15" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="71" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="70">
-        <v>3</v>
-      </c>
-      <c r="D15" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="70"/>
-      <c r="H15" s="70"/>
-      <c r="I15" s="70"/>
-      <c r="J15" s="70"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A16" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="71" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="70">
-        <v>3</v>
-      </c>
-      <c r="D16" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="70"/>
-      <c r="H16" s="70"/>
-      <c r="I16" s="70"/>
-      <c r="J16" s="70"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="71" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="70">
-        <v>2</v>
-      </c>
-      <c r="D17" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="70"/>
-      <c r="H17" s="70"/>
-      <c r="I17" s="70"/>
-      <c r="J17" s="70"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="71" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="70">
-        <v>3</v>
-      </c>
-      <c r="D18" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="70"/>
-      <c r="H18" s="70"/>
-      <c r="I18" s="70"/>
-      <c r="J18" s="70"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A19" s="70" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="71" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="70">
-        <v>3</v>
-      </c>
-      <c r="D19" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="70"/>
-      <c r="H19" s="70"/>
-      <c r="I19" s="70"/>
-      <c r="J19" s="70"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A20" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="70">
-        <v>5</v>
-      </c>
-      <c r="D20" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="70"/>
-      <c r="H20" s="70"/>
-      <c r="I20" s="70"/>
-      <c r="J20" s="70"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A21" s="70" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="71" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="70">
-        <v>5</v>
-      </c>
-      <c r="D21" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="70" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="70"/>
-      <c r="H21" s="70"/>
-      <c r="I21" s="70"/>
-      <c r="J21" s="70"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A22" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="71" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="70">
-        <v>2</v>
-      </c>
-      <c r="D22" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="70"/>
-      <c r="H22" s="70"/>
-      <c r="I22" s="70"/>
-      <c r="J22" s="70"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A23" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="71" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="70">
-        <v>3</v>
-      </c>
-      <c r="D23" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="70"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A24" s="70" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="71" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="70">
-        <v>3</v>
-      </c>
-      <c r="D24" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="70"/>
-      <c r="H24" s="70"/>
-      <c r="I24" s="70"/>
-      <c r="J24" s="70"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A25" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="71" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="70">
-        <v>4</v>
-      </c>
-      <c r="D25" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="70"/>
-      <c r="H25" s="70"/>
-      <c r="I25" s="70"/>
-      <c r="J25" s="70"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A26" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="71" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="70">
-        <v>4</v>
-      </c>
-      <c r="D26" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="70"/>
-      <c r="H26" s="70"/>
-      <c r="I26" s="70"/>
-      <c r="J26" s="70"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="71" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="70">
-        <v>4</v>
-      </c>
-      <c r="D27" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="70"/>
-      <c r="H27" s="70"/>
-      <c r="I27" s="70"/>
-      <c r="J27" s="70"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A28" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="71" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="70">
-        <v>4</v>
-      </c>
-      <c r="D28" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="70"/>
-      <c r="H28" s="70"/>
-      <c r="I28" s="70"/>
-      <c r="J28" s="70"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A29" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="71" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="70">
-        <v>3</v>
-      </c>
-      <c r="D29" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="70"/>
-      <c r="H29" s="70"/>
-      <c r="I29" s="70"/>
-      <c r="J29" s="70"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A30" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="71" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="70">
-        <v>3</v>
-      </c>
-      <c r="D30" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="70"/>
-      <c r="H30" s="70"/>
-      <c r="I30" s="70"/>
-      <c r="J30" s="70"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A31" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="71" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="70">
-        <v>3</v>
-      </c>
-      <c r="D31" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="70"/>
-      <c r="H31" s="70"/>
-      <c r="I31" s="70"/>
-      <c r="J31" s="70"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A32" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="71" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="70">
-        <v>3</v>
-      </c>
-      <c r="D32" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="70"/>
-      <c r="H32" s="70"/>
-      <c r="I32" s="70"/>
-      <c r="J32" s="70"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A33" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="71" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="70">
-        <v>4</v>
-      </c>
-      <c r="D33" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="70"/>
-      <c r="H33" s="70"/>
-      <c r="I33" s="70"/>
-      <c r="J33" s="70"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A34" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="71" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="70">
-        <v>3</v>
-      </c>
-      <c r="D34" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-      <c r="I34" s="70"/>
-      <c r="J34" s="70"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A35" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="71" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="70">
-        <v>4</v>
-      </c>
-      <c r="D35" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="70" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="70"/>
-      <c r="H35" s="70"/>
-      <c r="I35" s="70"/>
-      <c r="J35" s="70"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A36" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="71" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="70">
-        <v>3</v>
-      </c>
-      <c r="D36" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="70"/>
-      <c r="H36" s="70"/>
-      <c r="I36" s="70"/>
-      <c r="J36" s="70"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A37" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="71" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="70">
-        <v>3</v>
-      </c>
-      <c r="D37" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="70" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="70"/>
-      <c r="H37" s="70"/>
-      <c r="I37" s="70"/>
-      <c r="J37" s="70"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A38" s="70" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="71" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="70">
-        <v>3</v>
-      </c>
-      <c r="D38" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="70" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="70" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="70"/>
-      <c r="H38" s="70"/>
-      <c r="I38" s="70"/>
-      <c r="J38" s="70"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A39" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="71" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="70">
-        <v>4</v>
-      </c>
-      <c r="D39" s="70"/>
-      <c r="E39" s="70"/>
-      <c r="F39" s="76"/>
-      <c r="G39" s="70"/>
-      <c r="H39" s="76"/>
-      <c r="I39" s="76"/>
-      <c r="J39" s="76"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A40" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="71" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="70">
-        <v>4</v>
-      </c>
-      <c r="D40" s="70"/>
-      <c r="E40" s="70"/>
-      <c r="F40" s="70"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="70"/>
-      <c r="I40" s="70"/>
-      <c r="J40" s="70"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A41" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="71" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="70">
-        <v>4</v>
-      </c>
-      <c r="D41" s="70"/>
-      <c r="E41" s="70"/>
-      <c r="F41" s="76"/>
-      <c r="G41" s="70"/>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="76"/>
-    </row>
-    <row r="42" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A42" s="70" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="71" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="70">
-        <v>3</v>
-      </c>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="76"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="76"/>
-      <c r="I42" s="76"/>
-      <c r="J42" s="76"/>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A43" s="70" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="71" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="70">
-        <v>4</v>
-      </c>
-      <c r="D43" s="70"/>
-      <c r="E43" s="70"/>
-      <c r="F43" s="76"/>
-      <c r="G43" s="70"/>
-      <c r="H43" s="76"/>
-      <c r="I43" s="76"/>
-      <c r="J43" s="76"/>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A44" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="71" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="78"/>
-      <c r="D44" s="79"/>
-      <c r="E44" s="79"/>
-      <c r="F44" s="80"/>
-      <c r="G44" s="80"/>
-      <c r="H44" s="80"/>
-      <c r="I44" s="80"/>
-      <c r="J44" s="80"/>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A45" s="77" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="78"/>
-      <c r="D45" s="79"/>
-      <c r="E45" s="79"/>
-      <c r="F45" s="80"/>
-      <c r="G45" s="80"/>
-      <c r="H45" s="80"/>
-      <c r="I45" s="80"/>
-      <c r="J45" s="80"/>
+      <c r="D42" s="29"/>
+      <c r="E42" s="29"/>
+      <c r="F42" s="30"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
+      <c r="I42" s="30"/>
+      <c r="J42" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E43">
+  <autoFilter ref="A1:E42">
     <sortState ref="A2:E42">
       <sortCondition ref="D1:D42"/>
     </sortState>
@@ -2313,7 +2243,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>$R$1:$R$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576 F1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
       <formula1>$S$1:$S$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2339,17 +2269,17 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16" style="36" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="16" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="34" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="34" customWidth="1"/>
+    <col min="4" max="4" width="16" style="43" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16" style="29" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -2358,52 +2288,55 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="B1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="C1" s="36" t="s">
+        <v>118</v>
+      </c>
+      <c r="D1" s="37" t="s">
+        <v>121</v>
+      </c>
+      <c r="E1" s="37" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="44" t="s">
         <v>119</v>
       </c>
-      <c r="C1" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>121</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="31">
+      <c r="S1" s="38">
         <v>1</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="32" t="s">
+      <c r="A2" s="41" t="s">
+        <v>78</v>
+      </c>
+      <c r="B2" s="35" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="29" t="s">
         <v>54</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>110</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
@@ -2415,287 +2348,287 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="41"/>
+      <c r="B3" s="35"/>
+      <c r="C3" s="35"/>
+      <c r="D3" s="39"/>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="35"/>
+      <c r="C4" s="35"/>
+      <c r="D4" s="39"/>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="R4" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="41"/>
+      <c r="B5" s="35"/>
+      <c r="C5" s="35"/>
+      <c r="D5" s="39"/>
       <c r="Q5" t="s">
         <v>65</v>
       </c>
       <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="41"/>
+      <c r="B6" s="35"/>
+      <c r="C6" s="35"/>
+      <c r="D6" s="39"/>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="35"/>
+      <c r="C7" s="35"/>
+      <c r="D7" s="39"/>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="41"/>
+      <c r="B8" s="35"/>
+      <c r="C8" s="35"/>
+      <c r="D8" s="39"/>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="35"/>
+      <c r="C9" s="35"/>
+      <c r="D9" s="39"/>
       <c r="Q9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="41"/>
+      <c r="B10" s="35"/>
+      <c r="C10" s="35"/>
+      <c r="D10" s="39"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="35"/>
+      <c r="D11" s="39"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="41"/>
+      <c r="B12" s="35"/>
+      <c r="C12" s="35"/>
+      <c r="D12" s="39"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="35"/>
+      <c r="C13" s="35"/>
+      <c r="D13" s="39"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="41"/>
+      <c r="B14" s="35"/>
+      <c r="C14" s="35"/>
+      <c r="D14" s="39"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="41"/>
+      <c r="B15" s="35"/>
+      <c r="C15" s="35"/>
+      <c r="D15" s="39"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="41"/>
+      <c r="B16" s="35"/>
+      <c r="C16" s="35"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="35"/>
+      <c r="C17" s="35"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="32"/>
+      <c r="A18" s="41"/>
+      <c r="B18" s="35"/>
+      <c r="C18" s="35"/>
+      <c r="D18" s="39"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="41"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="39"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="32"/>
+      <c r="A20" s="41"/>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="39"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="41"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="39"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="41"/>
+      <c r="B22" s="35"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="39"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="41"/>
+      <c r="B23" s="35"/>
+      <c r="C23" s="35"/>
+      <c r="D23" s="39"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="41"/>
+      <c r="B24" s="35"/>
+      <c r="C24" s="35"/>
+      <c r="D24" s="39"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="41"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="39"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="41"/>
+      <c r="B26" s="35"/>
+      <c r="C26" s="35"/>
+      <c r="D26" s="39"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="35"/>
+      <c r="C27" s="35"/>
+      <c r="D27" s="39"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="41"/>
+      <c r="B28" s="35"/>
+      <c r="C28" s="35"/>
+      <c r="D28" s="39"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="35"/>
+      <c r="C29" s="35"/>
+      <c r="D29" s="39"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="41"/>
+      <c r="B30" s="35"/>
+      <c r="C30" s="35"/>
+      <c r="D30" s="39"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="41"/>
+      <c r="B31" s="35"/>
+      <c r="C31" s="35"/>
+      <c r="D31" s="39"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="41"/>
+      <c r="B32" s="35"/>
+      <c r="C32" s="35"/>
+      <c r="D32" s="39"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="41"/>
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="39"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="41"/>
+      <c r="B34" s="35"/>
+      <c r="C34" s="35"/>
+      <c r="D34" s="39"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="41"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="39"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="41"/>
+      <c r="B36" s="35"/>
+      <c r="C36" s="35"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="32"/>
+      <c r="A37" s="41"/>
+      <c r="B37" s="35"/>
+      <c r="C37" s="35"/>
+      <c r="D37" s="39"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="32"/>
+      <c r="A38" s="41"/>
+      <c r="B38" s="35"/>
+      <c r="C38" s="35"/>
+      <c r="D38" s="39"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="41"/>
+      <c r="B39" s="35"/>
+      <c r="C39" s="35"/>
+      <c r="D39" s="39"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="35"/>
+      <c r="C40" s="35"/>
+      <c r="D40" s="39"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="32"/>
+      <c r="A41" s="41"/>
+      <c r="B41" s="35"/>
+      <c r="C41" s="35"/>
+      <c r="D41" s="39"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="32"/>
+      <c r="A42" s="41"/>
+      <c r="B42" s="35"/>
+      <c r="C42" s="35"/>
+      <c r="D42" s="39"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2740,11 +2673,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="65"/>
-      <c r="B2" s="55" t="s">
+      <c r="A2" s="72"/>
+      <c r="B2" s="62" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="62" t="s">
+      <c r="C2" s="69" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2758,9 +2691,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="65"/>
-      <c r="B3" s="55"/>
-      <c r="C3" s="62"/>
+      <c r="A3" s="72"/>
+      <c r="B3" s="62"/>
+      <c r="C3" s="69"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2772,9 +2705,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="65"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="62"/>
+      <c r="A4" s="72"/>
+      <c r="B4" s="62"/>
+      <c r="C4" s="69"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2784,9 +2717,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="65"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="62" t="s">
+      <c r="A5" s="72"/>
+      <c r="B5" s="62"/>
+      <c r="C5" s="69" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2800,9 +2733,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="65"/>
-      <c r="B6" s="55"/>
-      <c r="C6" s="62"/>
+      <c r="A6" s="72"/>
+      <c r="B6" s="62"/>
+      <c r="C6" s="69"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2814,9 +2747,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="65"/>
-      <c r="B7" s="55"/>
-      <c r="C7" s="62"/>
+      <c r="A7" s="72"/>
+      <c r="B7" s="62"/>
+      <c r="C7" s="69"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2828,9 +2761,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="65"/>
-      <c r="B8" s="55"/>
-      <c r="C8" s="62"/>
+      <c r="A8" s="72"/>
+      <c r="B8" s="62"/>
+      <c r="C8" s="69"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2840,9 +2773,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="65"/>
-      <c r="B9" s="55"/>
-      <c r="C9" s="62" t="s">
+      <c r="A9" s="72"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="69" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2856,9 +2789,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="65"/>
-      <c r="B10" s="55"/>
-      <c r="C10" s="62"/>
+      <c r="A10" s="72"/>
+      <c r="B10" s="62"/>
+      <c r="C10" s="69"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2870,9 +2803,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="65"/>
-      <c r="B11" s="55"/>
-      <c r="C11" s="62"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="69"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2884,9 +2817,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="65"/>
-      <c r="B12" s="55"/>
-      <c r="C12" s="62"/>
+      <c r="A12" s="72"/>
+      <c r="B12" s="62"/>
+      <c r="C12" s="69"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2896,9 +2829,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="65"/>
-      <c r="B13" s="55"/>
-      <c r="C13" s="62" t="s">
+      <c r="A13" s="72"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="69" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2912,9 +2845,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="65"/>
-      <c r="B14" s="55"/>
-      <c r="C14" s="62"/>
+      <c r="A14" s="72"/>
+      <c r="B14" s="62"/>
+      <c r="C14" s="69"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2926,9 +2859,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="65"/>
-      <c r="B15" s="55"/>
-      <c r="C15" s="62"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="69"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2940,9 +2873,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="65"/>
-      <c r="B16" s="55"/>
-      <c r="C16" s="62"/>
+      <c r="A16" s="72"/>
+      <c r="B16" s="62"/>
+      <c r="C16" s="69"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2952,21 +2885,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="65"/>
-      <c r="B17" s="55"/>
-      <c r="C17" s="63" t="s">
+      <c r="A17" s="72"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="70" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="63"/>
+      <c r="D17" s="70"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="65">
+      <c r="A18" s="72">
         <v>2</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="47" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2978,8 +2911,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="65"/>
-      <c r="B19" s="41"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="48"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2992,8 +2925,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="65"/>
-      <c r="B20" s="41"/>
+      <c r="A20" s="72"/>
+      <c r="B20" s="48"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3003,8 +2936,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="65"/>
-      <c r="B21" s="41"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="48"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -3017,8 +2950,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="65"/>
-      <c r="B22" s="41"/>
+      <c r="A22" s="72"/>
+      <c r="B22" s="48"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -3028,8 +2961,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="65"/>
-      <c r="B23" s="41"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="48"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -3039,8 +2972,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="65"/>
-      <c r="B24" s="41"/>
+      <c r="A24" s="72"/>
+      <c r="B24" s="48"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -3053,24 +2986,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="65"/>
-      <c r="B25" s="42"/>
-      <c r="C25" s="53" t="s">
+      <c r="A25" s="72"/>
+      <c r="B25" s="49"/>
+      <c r="C25" s="60" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="54"/>
+      <c r="D25" s="61"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="65">
+      <c r="A26" s="72">
         <v>6</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="52" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="45" t="s">
+      <c r="C26" s="52" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -3084,9 +3017,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="65"/>
-      <c r="B27" s="46"/>
-      <c r="C27" s="46"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="53"/>
+      <c r="C27" s="53"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -3098,9 +3031,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="65"/>
-      <c r="B28" s="46"/>
-      <c r="C28" s="64"/>
+      <c r="A28" s="72"/>
+      <c r="B28" s="53"/>
+      <c r="C28" s="71"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -3110,8 +3043,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="65"/>
-      <c r="B29" s="46"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="53"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -3121,12 +3054,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="65"/>
-      <c r="B30" s="46"/>
-      <c r="C30" s="51" t="s">
+      <c r="A30" s="72"/>
+      <c r="B30" s="53"/>
+      <c r="C30" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="52"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -3135,13 +3068,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="65">
+      <c r="A31" s="72">
         <v>4</v>
       </c>
-      <c r="B31" s="43" t="s">
+      <c r="B31" s="50" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="59" t="s">
+      <c r="C31" s="66" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3155,9 +3088,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="65"/>
-      <c r="B32" s="43"/>
-      <c r="C32" s="59"/>
+      <c r="A32" s="72"/>
+      <c r="B32" s="50"/>
+      <c r="C32" s="66"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -3169,9 +3102,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="65"/>
-      <c r="B33" s="43"/>
-      <c r="C33" s="59"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="50"/>
+      <c r="C33" s="66"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -3181,9 +3114,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="65"/>
-      <c r="B34" s="43"/>
-      <c r="C34" s="59" t="s">
+      <c r="A34" s="72"/>
+      <c r="B34" s="50"/>
+      <c r="C34" s="66" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3197,9 +3130,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="65"/>
-      <c r="B35" s="43"/>
-      <c r="C35" s="59"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="50"/>
+      <c r="C35" s="66"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -3211,9 +3144,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="65"/>
-      <c r="B36" s="43"/>
-      <c r="C36" s="59"/>
+      <c r="A36" s="72"/>
+      <c r="B36" s="50"/>
+      <c r="C36" s="66"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -3223,9 +3156,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="65"/>
-      <c r="B37" s="43"/>
-      <c r="C37" s="59" t="s">
+      <c r="A37" s="72"/>
+      <c r="B37" s="50"/>
+      <c r="C37" s="66" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3239,9 +3172,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="65"/>
-      <c r="B38" s="43"/>
-      <c r="C38" s="59"/>
+      <c r="A38" s="72"/>
+      <c r="B38" s="50"/>
+      <c r="C38" s="66"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -3253,9 +3186,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="65"/>
-      <c r="B39" s="43"/>
-      <c r="C39" s="59"/>
+      <c r="A39" s="72"/>
+      <c r="B39" s="50"/>
+      <c r="C39" s="66"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -3267,9 +3200,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="65"/>
-      <c r="B40" s="43"/>
-      <c r="C40" s="59"/>
+      <c r="A40" s="72"/>
+      <c r="B40" s="50"/>
+      <c r="C40" s="66"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3279,9 +3212,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="65"/>
-      <c r="B41" s="43"/>
-      <c r="C41" s="59" t="s">
+      <c r="A41" s="72"/>
+      <c r="B41" s="50"/>
+      <c r="C41" s="66" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3295,9 +3228,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="65"/>
-      <c r="B42" s="43"/>
-      <c r="C42" s="59"/>
+      <c r="A42" s="72"/>
+      <c r="B42" s="50"/>
+      <c r="C42" s="66"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -3309,9 +3242,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="65"/>
-      <c r="B43" s="43"/>
-      <c r="C43" s="59"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="50"/>
+      <c r="C43" s="66"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -3323,9 +3256,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="65"/>
-      <c r="B44" s="43"/>
-      <c r="C44" s="59"/>
+      <c r="A44" s="72"/>
+      <c r="B44" s="50"/>
+      <c r="C44" s="66"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -3335,8 +3268,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="65"/>
-      <c r="B45" s="43"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="50"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -3346,8 +3279,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="65"/>
-      <c r="B46" s="44"/>
+      <c r="A46" s="72"/>
+      <c r="B46" s="51"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -3372,16 +3305,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="65">
+      <c r="A48" s="72">
         <v>3</v>
       </c>
-      <c r="B48" s="56" t="s">
+      <c r="B48" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="47" t="s">
+      <c r="C48" s="54" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="48"/>
+      <c r="D48" s="55"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -3390,12 +3323,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="65"/>
-      <c r="B49" s="56"/>
-      <c r="C49" s="47" t="s">
+      <c r="A49" s="72"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="54" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="48"/>
+      <c r="D49" s="55"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -3404,34 +3337,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="65"/>
-      <c r="B50" s="56"/>
-      <c r="C50" s="47" t="s">
+      <c r="A50" s="72"/>
+      <c r="B50" s="63"/>
+      <c r="C50" s="54" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="48"/>
+      <c r="D50" s="55"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="65"/>
-      <c r="B51" s="56"/>
-      <c r="C51" s="47" t="s">
+      <c r="A51" s="72"/>
+      <c r="B51" s="63"/>
+      <c r="C51" s="54" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="48"/>
+      <c r="D51" s="55"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="65"/>
-      <c r="B52" s="56"/>
-      <c r="C52" s="47" t="s">
+      <c r="A52" s="72"/>
+      <c r="B52" s="63"/>
+      <c r="C52" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="48"/>
+      <c r="D52" s="55"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -3452,13 +3385,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="65">
+      <c r="A54" s="72">
         <v>5</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="60" t="s">
+      <c r="C54" s="67" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -3470,9 +3403,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="65"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="60"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="67"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -3484,9 +3417,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="65"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="60"/>
+      <c r="A56" s="72"/>
+      <c r="B56" s="64"/>
+      <c r="C56" s="67"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -3498,9 +3431,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="65"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="60"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="67"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -3510,12 +3443,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="65"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="49" t="s">
+      <c r="A58" s="72"/>
+      <c r="B58" s="64"/>
+      <c r="C58" s="56" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="50"/>
+      <c r="D58" s="57"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -3524,12 +3457,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="65"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="49" t="s">
+      <c r="A59" s="72"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="50"/>
+      <c r="D59" s="57"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -3538,13 +3471,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="65">
+      <c r="A60" s="72">
         <v>7</v>
       </c>
-      <c r="B60" s="58" t="s">
+      <c r="B60" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="61" t="s">
+      <c r="C60" s="68" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -3558,9 +3491,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="65"/>
-      <c r="B61" s="58"/>
-      <c r="C61" s="61"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="68"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -3572,9 +3505,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="65"/>
-      <c r="B62" s="58"/>
-      <c r="C62" s="61"/>
+      <c r="A62" s="72"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="68"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -3586,9 +3519,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="65"/>
-      <c r="B63" s="58"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="65"/>
+      <c r="C63" s="68"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -3598,23 +3531,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="65"/>
-      <c r="B64" s="58"/>
-      <c r="C64" s="38" t="s">
+      <c r="A64" s="72"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="45" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="39"/>
+      <c r="D64" s="46"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="65"/>
-      <c r="B65" s="58"/>
-      <c r="C65" s="38" t="s">
+      <c r="A65" s="72"/>
+      <c r="B65" s="65"/>
+      <c r="C65" s="45" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="39"/>
+      <c r="D65" s="46"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Desktop\group-22-tsmt\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
@@ -14,7 +19,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$B$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$45</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UC!$F$1:$F$82</definedName>
     <definedName name="Members" localSheetId="1">Issues!#REF!</definedName>
     <definedName name="Members">Modules!#REF!</definedName>
@@ -29,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="365" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
   <si>
     <t>Search</t>
   </si>
@@ -244,6 +249,12 @@
     <t>Login / Logout</t>
   </si>
   <si>
+    <t>Check authentication all pages</t>
+  </si>
+  <si>
+    <t>Check authorization all pages</t>
+  </si>
+  <si>
     <t>Admin control panel page</t>
   </si>
   <si>
@@ -406,14 +417,17 @@
     <t>Đính và kéo menu theo, kèm hiệu ứng đẹp mắt --&gt; đã chuyển lên thành task mức độ 3.</t>
   </si>
   <si>
-    <t>Check authentication and authorization all pages</t>
+    <t>ForgotPassword</t>
+  </si>
+  <si>
+    <t>Capcha when register</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -437,7 +451,7 @@
     </font>
     <font>
       <b/>
-      <sz val="12"/>
+      <sz val="13"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -445,11 +459,16 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="14"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="15">
@@ -648,7 +667,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -696,41 +715,22 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -739,7 +739,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -751,8 +751,90 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -775,12 +857,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -804,42 +880,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1118,7 +1158,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1126,1109 +1166,1145 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:U42"/>
+  <dimension ref="A1:U45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="34" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="28" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43" style="56" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="53" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="54" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.85546875" style="54" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.5703125" style="40" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="8.140625" style="40" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.85546875" style="40" bestFit="1" customWidth="1"/>
+    <col min="11" max="17" width="9.140625" style="40"/>
+    <col min="18" max="18" width="12.42578125" style="40" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="40"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A1" s="38" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="31" t="s">
+      <c r="B1" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C1" s="38" t="s">
+        <v>101</v>
+      </c>
+      <c r="D1" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="38" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H1" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="I1" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>108</v>
+      </c>
+      <c r="R1" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="S1" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="41">
+        <v>1</v>
+      </c>
+      <c r="U1" s="40" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A2" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B2" s="43" t="s">
+        <v>73</v>
+      </c>
+      <c r="C2" s="42">
+        <v>3</v>
+      </c>
+      <c r="D2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E2" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="R2" s="40" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="T2" s="44">
+        <v>2</v>
+      </c>
+      <c r="U2" s="40" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B3" s="43" t="s">
+        <v>100</v>
+      </c>
+      <c r="C3" s="42">
+        <v>2</v>
+      </c>
+      <c r="D3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="R3" s="40" t="s">
+        <v>90</v>
+      </c>
+      <c r="S3" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3" s="45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B4" s="43" t="s">
+        <v>74</v>
+      </c>
+      <c r="C4" s="42">
+        <v>2</v>
+      </c>
+      <c r="D4" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="R4" s="40" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="T4" s="46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="43" t="s">
+        <v>97</v>
+      </c>
+      <c r="C5" s="42">
+        <v>1</v>
+      </c>
+      <c r="D5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F5" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="R5" s="40" t="s">
+        <v>65</v>
+      </c>
+      <c r="S5" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="T5" s="47">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" s="42" t="s">
+        <v>96</v>
+      </c>
+      <c r="B6" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="C6" s="42">
+        <v>2</v>
+      </c>
+      <c r="D6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F6" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="R6" s="40" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B7" s="43" t="s">
+        <v>114</v>
+      </c>
+      <c r="C7" s="42">
+        <v>5</v>
+      </c>
+      <c r="D7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E7" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F7" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="R7" s="40" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>115</v>
+      </c>
+      <c r="C8" s="42">
+        <v>5</v>
+      </c>
+      <c r="D8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F8" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+      <c r="I8" s="42"/>
+      <c r="J8" s="42"/>
+      <c r="R8" s="40" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B9" s="43" t="s">
+        <v>61</v>
+      </c>
+      <c r="C9" s="42">
+        <v>4</v>
+      </c>
+      <c r="D9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+      <c r="I9" s="42"/>
+      <c r="J9" s="42"/>
+      <c r="R9" s="40" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B10" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="C10" s="42">
+        <v>3</v>
+      </c>
+      <c r="D10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F10" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
+      <c r="I10" s="42"/>
+      <c r="J10" s="42"/>
+    </row>
+    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B11" s="43" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11" s="42">
+        <v>3</v>
+      </c>
+      <c r="D11" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E11" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="42"/>
+      <c r="H11" s="42"/>
+      <c r="I11" s="42"/>
+      <c r="J11" s="42"/>
+    </row>
+    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="42" t="s">
+        <v>64</v>
+      </c>
+      <c r="B12" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C12" s="42">
+        <v>4</v>
+      </c>
+      <c r="D12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="E12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="42"/>
+      <c r="H12" s="42"/>
+      <c r="I12" s="42"/>
+      <c r="J12" s="42"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B13" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13" s="42">
+        <v>3</v>
+      </c>
+      <c r="D13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E13" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F13" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G13" s="42"/>
+      <c r="H13" s="42"/>
+      <c r="I13" s="42"/>
+      <c r="J13" s="42"/>
+    </row>
+    <row r="14" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A14" s="42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="C14" s="42">
+        <v>2</v>
+      </c>
+      <c r="D14" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G14" s="42"/>
+      <c r="H14" s="42"/>
+      <c r="I14" s="42"/>
+      <c r="J14" s="42"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B15" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="C15" s="42">
+        <v>3</v>
+      </c>
+      <c r="D15" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E15" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F15" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G15" s="42"/>
+      <c r="H15" s="42"/>
+      <c r="I15" s="42"/>
+      <c r="J15" s="42"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A16" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B16" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16" s="42">
+        <v>3</v>
+      </c>
+      <c r="D16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E16" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F16" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G16" s="42"/>
+      <c r="H16" s="42"/>
+      <c r="I16" s="42"/>
+      <c r="J16" s="42"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A17" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="43" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="42">
+        <v>2</v>
+      </c>
+      <c r="D17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F17" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="42"/>
+      <c r="H17" s="42"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="42"/>
+    </row>
+    <row r="18" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+      <c r="A18" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B18" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="C18" s="42">
+        <v>3</v>
+      </c>
+      <c r="D18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="42"/>
+      <c r="H18" s="42"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="42"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A19" s="42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C19" s="42">
+        <v>3</v>
+      </c>
+      <c r="D19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E19" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="42"/>
+      <c r="H19" s="42"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="42"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A20" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="C20" s="42">
+        <v>5</v>
+      </c>
+      <c r="D20" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E20" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F20" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G20" s="42"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="42"/>
+    </row>
+    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="42" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="43" t="s">
+        <v>62</v>
+      </c>
+      <c r="C21" s="42">
+        <v>5</v>
+      </c>
+      <c r="D21" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" s="42" t="s">
+        <v>54</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="42"/>
+    </row>
+    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C22" s="42">
+        <v>2</v>
+      </c>
+      <c r="D22" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F22" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="42"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="42"/>
+    </row>
+    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" s="43" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="42">
+        <v>3</v>
+      </c>
+      <c r="D23" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F23" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G23" s="42"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
+      <c r="J23" s="42"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A24" s="42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="43" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24" s="42">
+        <v>3</v>
+      </c>
+      <c r="D24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F24" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G24" s="42"/>
+      <c r="H24" s="42"/>
+      <c r="I24" s="42"/>
+      <c r="J24" s="42"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A25" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B25" s="43" t="s">
+        <v>71</v>
+      </c>
+      <c r="C25" s="42">
+        <v>4</v>
+      </c>
+      <c r="D25" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="F25" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G25" s="42"/>
+      <c r="H25" s="42"/>
+      <c r="I25" s="42"/>
+      <c r="J25" s="42"/>
+    </row>
+    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="43" t="s">
+        <v>104</v>
+      </c>
+      <c r="C26" s="42">
+        <v>4</v>
+      </c>
+      <c r="D26" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F26" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G26" s="42"/>
+      <c r="H26" s="42"/>
+      <c r="I26" s="42"/>
+      <c r="J26" s="42"/>
+    </row>
+    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B27" s="43" t="s">
+        <v>66</v>
+      </c>
+      <c r="C27" s="42">
+        <v>4</v>
+      </c>
+      <c r="D27" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F27" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G27" s="42"/>
+      <c r="H27" s="42"/>
+      <c r="I27" s="42"/>
+      <c r="J27" s="42"/>
+    </row>
+    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B28" s="43" t="s">
+        <v>72</v>
+      </c>
+      <c r="C28" s="42">
+        <v>4</v>
+      </c>
+      <c r="D28" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G28" s="42"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42"/>
+      <c r="J28" s="42"/>
+    </row>
+    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B29" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="C29" s="42">
+        <v>3</v>
+      </c>
+      <c r="D29" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E29" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F29" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G29" s="42"/>
+      <c r="H29" s="42"/>
+      <c r="I29" s="42"/>
+      <c r="J29" s="42"/>
+    </row>
+    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" s="42">
+        <v>3</v>
+      </c>
+      <c r="D30" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E30" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F30" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G30" s="42"/>
+      <c r="H30" s="42"/>
+      <c r="I30" s="42"/>
+      <c r="J30" s="42"/>
+    </row>
+    <row r="31" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B31" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" s="42">
+        <v>3</v>
+      </c>
+      <c r="D31" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E31" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F31" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G31" s="42"/>
+      <c r="H31" s="42"/>
+      <c r="I31" s="42"/>
+      <c r="J31" s="42"/>
+    </row>
+    <row r="32" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="C32" s="42">
+        <v>3</v>
+      </c>
+      <c r="D32" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="E32" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="F32" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" s="42"/>
+      <c r="H32" s="42"/>
+      <c r="I32" s="42"/>
+      <c r="J32" s="42"/>
+    </row>
+    <row r="33" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B33" s="43" t="s">
+        <v>98</v>
+      </c>
+      <c r="C33" s="42">
+        <v>4</v>
+      </c>
+      <c r="D33" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F33" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G33" s="42"/>
+      <c r="H33" s="42"/>
+      <c r="I33" s="42"/>
+      <c r="J33" s="42"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B34" s="43" t="s">
         <v>99</v>
       </c>
-      <c r="D1" s="27" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>115</v>
-      </c>
-      <c r="G1" s="32" t="s">
+      <c r="C34" s="42">
+        <v>3</v>
+      </c>
+      <c r="D34" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E34" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F34" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G34" s="42"/>
+      <c r="H34" s="42"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="42"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B35" s="43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="42">
+        <v>4</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E35" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F35" s="42" t="s">
+        <v>55</v>
+      </c>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+    </row>
+    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B36" s="43" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="42">
+        <v>3</v>
+      </c>
+      <c r="D36" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E36" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F36" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G36" s="42"/>
+      <c r="H36" s="42"/>
+      <c r="I36" s="42"/>
+      <c r="J36" s="42"/>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A37" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B37" s="43" t="s">
+        <v>94</v>
+      </c>
+      <c r="C37" s="42">
+        <v>3</v>
+      </c>
+      <c r="D37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="E37" s="42" t="s">
+        <v>56</v>
+      </c>
+      <c r="F37" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42"/>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+    </row>
+    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="42" t="s">
+        <v>89</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="C38" s="42">
+        <v>3</v>
+      </c>
+      <c r="D38" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>53</v>
+      </c>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42"/>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="43" t="s">
+        <v>106</v>
+      </c>
+      <c r="C39" s="42">
+        <v>4</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="48"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="48"/>
+      <c r="I39" s="48"/>
+      <c r="J39" s="48"/>
+    </row>
+    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B40" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="27" t="s">
-        <v>108</v>
-      </c>
-      <c r="I1" s="27" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="27" t="s">
-        <v>106</v>
-      </c>
-      <c r="R1" t="s">
-        <v>94</v>
-      </c>
-      <c r="S1" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="23">
-        <v>1</v>
-      </c>
-      <c r="U1" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="29">
+      <c r="C40" s="42">
+        <v>4</v>
+      </c>
+      <c r="D40" s="42"/>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+    </row>
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>105</v>
+      </c>
+      <c r="C41" s="42">
+        <v>4</v>
+      </c>
+      <c r="D41" s="42"/>
+      <c r="E41" s="42"/>
+      <c r="F41" s="48"/>
+      <c r="G41" s="42"/>
+      <c r="H41" s="48"/>
+      <c r="I41" s="48"/>
+      <c r="J41" s="48"/>
+    </row>
+    <row r="42" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="42" t="s">
+        <v>80</v>
+      </c>
+      <c r="B42" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="C42" s="42">
         <v>3</v>
       </c>
-      <c r="D2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="29"/>
-      <c r="R2" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="22">
-        <v>2</v>
-      </c>
-      <c r="U2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>98</v>
-      </c>
-      <c r="C3" s="29">
-        <v>2</v>
-      </c>
-      <c r="D3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
-      <c r="R3" t="s">
-        <v>88</v>
-      </c>
-      <c r="S3" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="C4" s="29">
-        <v>2</v>
-      </c>
-      <c r="D4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-      <c r="J4" s="29"/>
-      <c r="R4" t="s">
-        <v>86</v>
-      </c>
-      <c r="S4" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="24">
+      <c r="D42" s="42"/>
+      <c r="E42" s="42"/>
+      <c r="F42" s="48"/>
+      <c r="G42" s="42"/>
+      <c r="H42" s="48"/>
+      <c r="I42" s="48"/>
+      <c r="J42" s="48"/>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="42" t="s">
+        <v>92</v>
+      </c>
+      <c r="B43" s="43" t="s">
+        <v>118</v>
+      </c>
+      <c r="C43" s="42">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>95</v>
-      </c>
-      <c r="C5" s="29">
-        <v>1</v>
-      </c>
-      <c r="D5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-      <c r="J5" s="29"/>
-      <c r="R5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="26">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>74</v>
-      </c>
-      <c r="C6" s="29">
-        <v>2</v>
-      </c>
-      <c r="D6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F6" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-      <c r="J6" s="29"/>
-      <c r="R6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>112</v>
-      </c>
-      <c r="C7" s="29">
-        <v>5</v>
-      </c>
-      <c r="D7" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-      <c r="J7" s="29"/>
-      <c r="R7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>113</v>
-      </c>
-      <c r="C8" s="29">
-        <v>5</v>
-      </c>
-      <c r="D8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="R8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="29">
-        <v>4</v>
-      </c>
-      <c r="D9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="R9" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>100</v>
-      </c>
-      <c r="C10" s="29">
-        <v>3</v>
-      </c>
-      <c r="D10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A11" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>101</v>
-      </c>
-      <c r="C11" s="29">
-        <v>3</v>
-      </c>
-      <c r="D11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="29">
-        <v>4</v>
-      </c>
-      <c r="D12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A13" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>79</v>
-      </c>
-      <c r="C13" s="29">
-        <v>3</v>
-      </c>
-      <c r="D13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>85</v>
-      </c>
-      <c r="C14" s="29">
-        <v>4</v>
-      </c>
-      <c r="D14" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="73"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>82</v>
-      </c>
-      <c r="C15" s="29">
-        <v>3</v>
-      </c>
-      <c r="D15" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H15" s="29"/>
-      <c r="I15" s="29"/>
-      <c r="J15" s="29"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>83</v>
-      </c>
-      <c r="C16" s="29">
-        <v>3</v>
-      </c>
-      <c r="D16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="29"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>75</v>
-      </c>
-      <c r="C17" s="29">
-        <v>2</v>
-      </c>
-      <c r="D17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>84</v>
-      </c>
-      <c r="C18" s="29">
-        <v>3</v>
-      </c>
-      <c r="D18" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="29" t="s">
-        <v>86</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>81</v>
-      </c>
-      <c r="C19" s="29">
-        <v>3</v>
-      </c>
-      <c r="D19" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="29">
-        <v>5</v>
-      </c>
-      <c r="D20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="29" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="29">
-        <v>5</v>
-      </c>
-      <c r="D21" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="29" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>76</v>
-      </c>
-      <c r="C22" s="29">
-        <v>2</v>
-      </c>
-      <c r="D22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="C23" s="29">
-        <v>3</v>
-      </c>
-      <c r="D23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="29" t="s">
-        <v>89</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>77</v>
-      </c>
-      <c r="C24" s="29">
-        <v>3</v>
-      </c>
-      <c r="D24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="73">
-        <v>41762</v>
-      </c>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>125</v>
-      </c>
-      <c r="C25" s="29">
-        <v>3</v>
-      </c>
-      <c r="D25" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
-      <c r="I25" s="29"/>
-      <c r="J25" s="29"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>102</v>
-      </c>
-      <c r="C26" s="29">
-        <v>4</v>
-      </c>
-      <c r="D26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="29">
-        <v>4</v>
-      </c>
-      <c r="D27" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="C28" s="29">
-        <v>3</v>
-      </c>
-      <c r="D28" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" s="29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="C30" s="29">
-        <v>3</v>
-      </c>
-      <c r="D30" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="29"/>
-      <c r="H30" s="29"/>
-      <c r="I30" s="29"/>
-      <c r="J30" s="29"/>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="29">
-        <v>3</v>
-      </c>
-      <c r="D31" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="29"/>
-      <c r="H31" s="29"/>
-      <c r="I31" s="29"/>
-      <c r="J31" s="29"/>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>96</v>
-      </c>
-      <c r="C32" s="29">
-        <v>4</v>
-      </c>
-      <c r="D32" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F32" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G32" s="73"/>
-      <c r="H32" s="29"/>
-      <c r="I32" s="29"/>
-      <c r="J32" s="29"/>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>97</v>
-      </c>
-      <c r="C33" s="29">
-        <v>3</v>
-      </c>
-      <c r="D33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="73"/>
-      <c r="H33" s="29"/>
-      <c r="I33" s="29"/>
-      <c r="J33" s="29"/>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>91</v>
-      </c>
-      <c r="C34" s="29">
-        <v>4</v>
-      </c>
-      <c r="D34" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="29"/>
-      <c r="H34" s="29"/>
-      <c r="I34" s="29"/>
-      <c r="J34" s="29"/>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="29">
-        <v>3</v>
-      </c>
-      <c r="D35" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="29"/>
-      <c r="H35" s="29"/>
-      <c r="I35" s="29"/>
-      <c r="J35" s="29"/>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B36" s="33" t="s">
+      <c r="D43" s="42"/>
+      <c r="E43" s="42"/>
+      <c r="F43" s="48"/>
+      <c r="G43" s="42"/>
+      <c r="H43" s="48"/>
+      <c r="I43" s="48"/>
+      <c r="J43" s="48"/>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
         <v>92</v>
       </c>
-      <c r="C36" s="29">
-        <v>3</v>
-      </c>
-      <c r="D36" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E36" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="F36" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="29"/>
-      <c r="H36" s="29"/>
-      <c r="I36" s="29"/>
-      <c r="J36" s="29"/>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>87</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>80</v>
-      </c>
-      <c r="C37" s="29">
-        <v>3</v>
-      </c>
-      <c r="D37" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="E37" s="29" t="s">
-        <v>57</v>
-      </c>
-      <c r="F37" s="29" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="73"/>
-      <c r="H37" s="29"/>
-      <c r="I37" s="29"/>
-      <c r="J37" s="29"/>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="29">
-        <v>4</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-      <c r="F38" s="30"/>
-      <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="30"/>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="29">
-        <v>4</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-      <c r="H39" s="29"/>
-      <c r="I39" s="29"/>
-      <c r="J39" s="29"/>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>103</v>
-      </c>
-      <c r="C40" s="29">
-        <v>4</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="29"/>
-      <c r="F40" s="30"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
-      <c r="I40" s="30"/>
-      <c r="J40" s="30"/>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" s="29" t="s">
-        <v>78</v>
-      </c>
-      <c r="B41" s="33" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="29">
-        <v>3</v>
-      </c>
-      <c r="D41" s="29"/>
-      <c r="E41" s="29"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
-      <c r="I41" s="30"/>
-      <c r="J41" s="30"/>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" s="29" t="s">
-        <v>90</v>
-      </c>
-      <c r="B42" s="33" t="s">
-        <v>116</v>
-      </c>
-      <c r="C42" s="29">
-        <v>3</v>
-      </c>
-      <c r="D42" s="29"/>
-      <c r="E42" s="29"/>
-      <c r="F42" s="30"/>
-      <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
-      <c r="I42" s="30"/>
-      <c r="J42" s="30"/>
+      <c r="B44" s="43" t="s">
+        <v>127</v>
+      </c>
+      <c r="C44" s="50"/>
+      <c r="D44" s="51"/>
+      <c r="E44" s="51"/>
+      <c r="F44" s="52"/>
+      <c r="G44" s="52"/>
+      <c r="H44" s="52"/>
+      <c r="I44" s="52"/>
+      <c r="J44" s="52"/>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>128</v>
+      </c>
+      <c r="C45" s="50"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="51"/>
+      <c r="F45" s="52"/>
+      <c r="G45" s="52"/>
+      <c r="H45" s="52"/>
+      <c r="I45" s="52"/>
+      <c r="J45" s="52"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E42">
+  <autoFilter ref="A1:E45">
+    <filterColumn colId="3">
+      <filters>
+        <filter val="Hien"/>
+        <filter val="Vinh"/>
+      </filters>
+    </filterColumn>
     <sortState ref="A2:E42">
       <sortCondition ref="D1:D42"/>
     </sortState>
@@ -2243,7 +2319,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
       <formula1>$R$1:$R$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:F1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576 F1:F1048576">
       <formula1>$S$1:$S$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
@@ -2269,17 +2345,17 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="42" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" style="34" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="34" customWidth="1"/>
-    <col min="4" max="4" width="16" style="43" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="29" customWidth="1"/>
-    <col min="6" max="6" width="16" style="29" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="27" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="27" customWidth="1"/>
+    <col min="4" max="4" width="16" style="36" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="26" customWidth="1"/>
+    <col min="6" max="6" width="16" style="26" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -2288,55 +2364,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>117</v>
-      </c>
-      <c r="C1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="D1" s="37" t="s">
+      <c r="B1" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="C1" s="29" t="s">
+        <v>120</v>
+      </c>
+      <c r="D1" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E1" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="F1" s="37" t="s">
         <v>121</v>
       </c>
-      <c r="E1" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="F1" s="44" t="s">
-        <v>119</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="38">
+      <c r="S1" s="31">
         <v>1</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
     </row>
     <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="41" t="s">
-        <v>78</v>
-      </c>
-      <c r="B2" s="35" t="s">
-        <v>123</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="39" t="s">
+      <c r="A2" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="B2" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D2" s="32" t="s">
         <v>53</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="26" t="s">
         <v>54</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>110</v>
       </c>
       <c r="Q2" t="s">
         <v>64</v>
@@ -2348,287 +2421,287 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="41"/>
-      <c r="B3" s="35"/>
-      <c r="C3" s="35"/>
-      <c r="D3" s="39"/>
+      <c r="A3" s="34"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="32"/>
       <c r="Q3" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="25">
+      <c r="S3" s="24">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="35"/>
-      <c r="C4" s="35"/>
-      <c r="D4" s="39"/>
+      <c r="A4" s="34"/>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="32"/>
       <c r="Q4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="R4" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="24">
+      <c r="S4" s="23">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="41"/>
-      <c r="B5" s="35"/>
-      <c r="C5" s="35"/>
-      <c r="D5" s="39"/>
+      <c r="A5" s="34"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="32"/>
       <c r="Q5" t="s">
         <v>65</v>
       </c>
       <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="41"/>
-      <c r="B6" s="35"/>
-      <c r="C6" s="35"/>
-      <c r="D6" s="39"/>
+      <c r="A6" s="34"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="32"/>
       <c r="Q6" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A7" s="34"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="32"/>
+      <c r="Q7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A8" s="34"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="32"/>
+      <c r="Q8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A9" s="34"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="32"/>
+      <c r="Q9" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="41"/>
-      <c r="B7" s="35"/>
-      <c r="C7" s="35"/>
-      <c r="D7" s="39"/>
-      <c r="Q7" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="41"/>
-      <c r="B8" s="35"/>
-      <c r="C8" s="35"/>
-      <c r="D8" s="39"/>
-      <c r="Q8" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="41"/>
-      <c r="B9" s="35"/>
-      <c r="C9" s="35"/>
-      <c r="D9" s="39"/>
-      <c r="Q9" t="s">
-        <v>87</v>
-      </c>
-    </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="41"/>
-      <c r="B10" s="35"/>
-      <c r="C10" s="35"/>
-      <c r="D10" s="39"/>
+      <c r="A10" s="34"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="32"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="41"/>
-      <c r="B11" s="35"/>
-      <c r="C11" s="35"/>
-      <c r="D11" s="39"/>
+      <c r="A11" s="34"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="32"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="41"/>
-      <c r="B12" s="35"/>
-      <c r="C12" s="35"/>
-      <c r="D12" s="39"/>
+      <c r="A12" s="34"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="41"/>
-      <c r="B13" s="35"/>
-      <c r="C13" s="35"/>
-      <c r="D13" s="39"/>
+      <c r="A13" s="34"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="28"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="41"/>
-      <c r="B14" s="35"/>
-      <c r="C14" s="35"/>
-      <c r="D14" s="39"/>
+      <c r="A14" s="34"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="28"/>
+      <c r="D14" s="32"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="41"/>
-      <c r="B15" s="35"/>
-      <c r="C15" s="35"/>
-      <c r="D15" s="39"/>
+      <c r="A15" s="34"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="28"/>
+      <c r="D15" s="32"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="41"/>
-      <c r="B16" s="35"/>
-      <c r="C16" s="35"/>
-      <c r="D16" s="39"/>
+      <c r="A16" s="34"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="32"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="35"/>
-      <c r="C17" s="35"/>
-      <c r="D17" s="39"/>
+      <c r="A17" s="34"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="32"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="41"/>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="39"/>
+      <c r="A18" s="34"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="32"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="41"/>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="39"/>
+      <c r="A19" s="34"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="32"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="41"/>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="39"/>
+      <c r="A20" s="34"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="28"/>
+      <c r="D20" s="32"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="41"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="39"/>
+      <c r="A21" s="34"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="28"/>
+      <c r="D21" s="32"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="41"/>
-      <c r="B22" s="35"/>
-      <c r="C22" s="35"/>
-      <c r="D22" s="39"/>
+      <c r="A22" s="34"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="32"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="41"/>
-      <c r="B23" s="35"/>
-      <c r="C23" s="35"/>
-      <c r="D23" s="39"/>
+      <c r="A23" s="34"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="28"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="41"/>
-      <c r="B24" s="35"/>
-      <c r="C24" s="35"/>
-      <c r="D24" s="39"/>
+      <c r="A24" s="34"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="41"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="39"/>
+      <c r="A25" s="34"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="32"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="41"/>
-      <c r="B26" s="35"/>
-      <c r="C26" s="35"/>
-      <c r="D26" s="39"/>
+      <c r="A26" s="34"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="32"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="41"/>
-      <c r="B27" s="35"/>
-      <c r="C27" s="35"/>
-      <c r="D27" s="39"/>
+      <c r="A27" s="34"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="32"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="41"/>
-      <c r="B28" s="35"/>
-      <c r="C28" s="35"/>
-      <c r="D28" s="39"/>
+      <c r="A28" s="34"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="32"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="35"/>
-      <c r="C29" s="35"/>
-      <c r="D29" s="39"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="32"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="41"/>
-      <c r="B30" s="35"/>
-      <c r="C30" s="35"/>
-      <c r="D30" s="39"/>
+      <c r="A30" s="34"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="32"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="41"/>
-      <c r="B31" s="35"/>
-      <c r="C31" s="35"/>
-      <c r="D31" s="39"/>
+      <c r="A31" s="34"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="32"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="41"/>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="39"/>
+      <c r="A32" s="34"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="32"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="41"/>
-      <c r="B33" s="35"/>
-      <c r="C33" s="35"/>
-      <c r="D33" s="39"/>
+      <c r="A33" s="34"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="32"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="41"/>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="39"/>
+      <c r="A34" s="34"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="28"/>
+      <c r="D34" s="32"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="41"/>
-      <c r="B35" s="35"/>
-      <c r="C35" s="35"/>
-      <c r="D35" s="39"/>
+      <c r="A35" s="34"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="28"/>
+      <c r="D35" s="32"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="41"/>
-      <c r="B36" s="35"/>
-      <c r="C36" s="35"/>
-      <c r="D36" s="39"/>
+      <c r="A36" s="34"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="32"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="41"/>
-      <c r="B37" s="35"/>
-      <c r="C37" s="35"/>
-      <c r="D37" s="39"/>
+      <c r="A37" s="34"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="32"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="41"/>
-      <c r="B38" s="35"/>
-      <c r="C38" s="35"/>
-      <c r="D38" s="39"/>
+      <c r="A38" s="34"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="28"/>
+      <c r="D38" s="32"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="41"/>
-      <c r="B39" s="35"/>
-      <c r="C39" s="35"/>
-      <c r="D39" s="39"/>
+      <c r="A39" s="34"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="32"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="35"/>
-      <c r="C40" s="35"/>
-      <c r="D40" s="39"/>
+      <c r="A40" s="34"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="28"/>
+      <c r="D40" s="32"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="41"/>
-      <c r="B41" s="35"/>
-      <c r="C41" s="35"/>
-      <c r="D41" s="39"/>
+      <c r="A41" s="34"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="32"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="41"/>
-      <c r="B42" s="35"/>
-      <c r="C42" s="35"/>
-      <c r="D42" s="39"/>
+      <c r="A42" s="34"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="28"/>
+      <c r="D42" s="32"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2673,11 +2746,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="72"/>
-      <c r="B2" s="62" t="s">
+      <c r="A2" s="57"/>
+      <c r="B2" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="69" t="s">
+      <c r="C2" s="65" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2691,9 +2764,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="72"/>
-      <c r="B3" s="62"/>
-      <c r="C3" s="69"/>
+      <c r="A3" s="57"/>
+      <c r="B3" s="58"/>
+      <c r="C3" s="65"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2705,9 +2778,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="72"/>
-      <c r="B4" s="62"/>
-      <c r="C4" s="69"/>
+      <c r="A4" s="57"/>
+      <c r="B4" s="58"/>
+      <c r="C4" s="65"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2717,9 +2790,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="72"/>
-      <c r="B5" s="62"/>
-      <c r="C5" s="69" t="s">
+      <c r="A5" s="57"/>
+      <c r="B5" s="58"/>
+      <c r="C5" s="65" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2733,9 +2806,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="72"/>
-      <c r="B6" s="62"/>
-      <c r="C6" s="69"/>
+      <c r="A6" s="57"/>
+      <c r="B6" s="58"/>
+      <c r="C6" s="65"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2747,9 +2820,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="72"/>
-      <c r="B7" s="62"/>
-      <c r="C7" s="69"/>
+      <c r="A7" s="57"/>
+      <c r="B7" s="58"/>
+      <c r="C7" s="65"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2761,9 +2834,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="72"/>
-      <c r="B8" s="62"/>
-      <c r="C8" s="69"/>
+      <c r="A8" s="57"/>
+      <c r="B8" s="58"/>
+      <c r="C8" s="65"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2773,9 +2846,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="72"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="69" t="s">
+      <c r="A9" s="57"/>
+      <c r="B9" s="58"/>
+      <c r="C9" s="65" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2789,9 +2862,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="72"/>
-      <c r="B10" s="62"/>
-      <c r="C10" s="69"/>
+      <c r="A10" s="57"/>
+      <c r="B10" s="58"/>
+      <c r="C10" s="65"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2803,9 +2876,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="72"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="69"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="58"/>
+      <c r="C11" s="65"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2817,9 +2890,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="72"/>
-      <c r="B12" s="62"/>
-      <c r="C12" s="69"/>
+      <c r="A12" s="57"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="65"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2829,9 +2902,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="72"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="69" t="s">
+      <c r="A13" s="57"/>
+      <c r="B13" s="58"/>
+      <c r="C13" s="65" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2845,9 +2918,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="72"/>
-      <c r="B14" s="62"/>
-      <c r="C14" s="69"/>
+      <c r="A14" s="57"/>
+      <c r="B14" s="58"/>
+      <c r="C14" s="65"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2859,9 +2932,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="72"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="69"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="58"/>
+      <c r="C15" s="65"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2873,9 +2946,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="72"/>
-      <c r="B16" s="62"/>
-      <c r="C16" s="69"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="58"/>
+      <c r="C16" s="65"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2885,21 +2958,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="72"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="70" t="s">
+      <c r="A17" s="57"/>
+      <c r="B17" s="58"/>
+      <c r="C17" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="70"/>
+      <c r="D17" s="66"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="72">
+      <c r="A18" s="57">
         <v>2</v>
       </c>
-      <c r="B18" s="47" t="s">
+      <c r="B18" s="72" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2911,8 +2984,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="72"/>
-      <c r="B19" s="48"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="73"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2925,8 +2998,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="72"/>
-      <c r="B20" s="48"/>
+      <c r="A20" s="57"/>
+      <c r="B20" s="73"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2936,8 +3009,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="72"/>
-      <c r="B21" s="48"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="73"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2950,8 +3023,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="72"/>
-      <c r="B22" s="48"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="73"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2961,8 +3034,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="72"/>
-      <c r="B23" s="48"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="73"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2972,8 +3045,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="72"/>
-      <c r="B24" s="48"/>
+      <c r="A24" s="57"/>
+      <c r="B24" s="73"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2986,24 +3059,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="72"/>
-      <c r="B25" s="49"/>
-      <c r="C25" s="60" t="s">
+      <c r="A25" s="57"/>
+      <c r="B25" s="74"/>
+      <c r="C25" s="83" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="61"/>
+      <c r="D25" s="84"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="72">
+      <c r="A26" s="57">
         <v>6</v>
       </c>
-      <c r="B26" s="52" t="s">
+      <c r="B26" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="52" t="s">
+      <c r="C26" s="67" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -3017,9 +3090,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="72"/>
-      <c r="B27" s="53"/>
-      <c r="C27" s="53"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="68"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -3031,9 +3104,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="72"/>
-      <c r="B28" s="53"/>
-      <c r="C28" s="71"/>
+      <c r="A28" s="57"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="69"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -3043,8 +3116,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="72"/>
-      <c r="B29" s="53"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="68"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -3054,12 +3127,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="72"/>
-      <c r="B30" s="53"/>
-      <c r="C30" s="58" t="s">
+      <c r="A30" s="57"/>
+      <c r="B30" s="68"/>
+      <c r="C30" s="81" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="59"/>
+      <c r="D30" s="82"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -3068,13 +3141,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="72">
+      <c r="A31" s="57">
         <v>4</v>
       </c>
-      <c r="B31" s="50" t="s">
+      <c r="B31" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="66" t="s">
+      <c r="C31" s="62" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3088,9 +3161,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="72"/>
-      <c r="B32" s="50"/>
-      <c r="C32" s="66"/>
+      <c r="A32" s="57"/>
+      <c r="B32" s="75"/>
+      <c r="C32" s="62"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -3102,9 +3175,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="72"/>
-      <c r="B33" s="50"/>
-      <c r="C33" s="66"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="75"/>
+      <c r="C33" s="62"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -3114,9 +3187,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="72"/>
-      <c r="B34" s="50"/>
-      <c r="C34" s="66" t="s">
+      <c r="A34" s="57"/>
+      <c r="B34" s="75"/>
+      <c r="C34" s="62" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3130,9 +3203,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="72"/>
-      <c r="B35" s="50"/>
-      <c r="C35" s="66"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="75"/>
+      <c r="C35" s="62"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -3144,9 +3217,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="72"/>
-      <c r="B36" s="50"/>
-      <c r="C36" s="66"/>
+      <c r="A36" s="57"/>
+      <c r="B36" s="75"/>
+      <c r="C36" s="62"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -3156,9 +3229,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="72"/>
-      <c r="B37" s="50"/>
-      <c r="C37" s="66" t="s">
+      <c r="A37" s="57"/>
+      <c r="B37" s="75"/>
+      <c r="C37" s="62" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3172,9 +3245,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="72"/>
-      <c r="B38" s="50"/>
-      <c r="C38" s="66"/>
+      <c r="A38" s="57"/>
+      <c r="B38" s="75"/>
+      <c r="C38" s="62"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -3186,9 +3259,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="72"/>
-      <c r="B39" s="50"/>
-      <c r="C39" s="66"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="62"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -3200,9 +3273,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="72"/>
-      <c r="B40" s="50"/>
-      <c r="C40" s="66"/>
+      <c r="A40" s="57"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="62"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3212,9 +3285,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="72"/>
-      <c r="B41" s="50"/>
-      <c r="C41" s="66" t="s">
+      <c r="A41" s="57"/>
+      <c r="B41" s="75"/>
+      <c r="C41" s="62" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3228,9 +3301,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="72"/>
-      <c r="B42" s="50"/>
-      <c r="C42" s="66"/>
+      <c r="A42" s="57"/>
+      <c r="B42" s="75"/>
+      <c r="C42" s="62"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -3242,9 +3315,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="72"/>
-      <c r="B43" s="50"/>
-      <c r="C43" s="66"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="75"/>
+      <c r="C43" s="62"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -3256,9 +3329,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="72"/>
-      <c r="B44" s="50"/>
-      <c r="C44" s="66"/>
+      <c r="A44" s="57"/>
+      <c r="B44" s="75"/>
+      <c r="C44" s="62"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -3268,8 +3341,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="72"/>
-      <c r="B45" s="50"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="75"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -3279,8 +3352,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="72"/>
-      <c r="B46" s="51"/>
+      <c r="A46" s="57"/>
+      <c r="B46" s="76"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -3305,16 +3378,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="72">
+      <c r="A48" s="57">
         <v>3</v>
       </c>
-      <c r="B48" s="63" t="s">
+      <c r="B48" s="59" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="54" t="s">
+      <c r="C48" s="77" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="55"/>
+      <c r="D48" s="78"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -3323,12 +3396,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="72"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="54" t="s">
+      <c r="A49" s="57"/>
+      <c r="B49" s="59"/>
+      <c r="C49" s="77" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="55"/>
+      <c r="D49" s="78"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -3337,34 +3410,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="72"/>
-      <c r="B50" s="63"/>
-      <c r="C50" s="54" t="s">
+      <c r="A50" s="57"/>
+      <c r="B50" s="59"/>
+      <c r="C50" s="77" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="55"/>
+      <c r="D50" s="78"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="72"/>
-      <c r="B51" s="63"/>
-      <c r="C51" s="54" t="s">
+      <c r="A51" s="57"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="77" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="55"/>
+      <c r="D51" s="78"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="72"/>
-      <c r="B52" s="63"/>
-      <c r="C52" s="54" t="s">
+      <c r="A52" s="57"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="55"/>
+      <c r="D52" s="78"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -3385,13 +3458,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="72">
+      <c r="A54" s="57">
         <v>5</v>
       </c>
-      <c r="B54" s="64" t="s">
+      <c r="B54" s="60" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="67" t="s">
+      <c r="C54" s="63" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -3403,9 +3476,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="72"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="67"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="63"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -3417,9 +3490,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="72"/>
-      <c r="B56" s="64"/>
-      <c r="C56" s="67"/>
+      <c r="A56" s="57"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="63"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -3431,9 +3504,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="72"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="67"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="63"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -3443,12 +3516,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="72"/>
-      <c r="B58" s="64"/>
-      <c r="C58" s="56" t="s">
+      <c r="A58" s="57"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="57"/>
+      <c r="D58" s="80"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -3457,12 +3530,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="72"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="56" t="s">
+      <c r="A59" s="57"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="57"/>
+      <c r="D59" s="80"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -3471,13 +3544,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="72">
+      <c r="A60" s="57">
         <v>7</v>
       </c>
-      <c r="B60" s="65" t="s">
+      <c r="B60" s="61" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="68" t="s">
+      <c r="C60" s="64" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -3491,9 +3564,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="72"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="68"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="61"/>
+      <c r="C61" s="64"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -3505,9 +3578,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="72"/>
-      <c r="B62" s="65"/>
-      <c r="C62" s="68"/>
+      <c r="A62" s="57"/>
+      <c r="B62" s="61"/>
+      <c r="C62" s="64"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -3519,9 +3592,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="72"/>
-      <c r="B63" s="65"/>
-      <c r="C63" s="68"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="61"/>
+      <c r="C63" s="64"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -3531,23 +3604,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="72"/>
-      <c r="B64" s="65"/>
-      <c r="C64" s="45" t="s">
+      <c r="A64" s="57"/>
+      <c r="B64" s="61"/>
+      <c r="C64" s="70" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="46"/>
+      <c r="D64" s="71"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="72"/>
-      <c r="B65" s="65"/>
-      <c r="C65" s="45" t="s">
+      <c r="A65" s="57"/>
+      <c r="B65" s="61"/>
+      <c r="C65" s="70" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="46"/>
+      <c r="D65" s="71"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3606,13 +3679,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3629,20 +3709,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vinh\Desktop\group-22-tsmt\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="130">
   <si>
     <t>Search</t>
   </si>
@@ -421,6 +421,9 @@
   </si>
   <si>
     <t>Capcha when register</t>
+  </si>
+  <si>
+    <t>Admin manage user</t>
   </si>
 </sst>
 </file>
@@ -797,89 +800,89 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1169,10 +1172,10 @@
   <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:U45"/>
+  <dimension ref="A1:U46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -1272,7 +1275,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="3" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>96</v>
       </c>
@@ -1398,7 +1401,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="7" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A7" s="42" t="s">
         <v>64</v>
       </c>
@@ -1551,7 +1554,7 @@
       <c r="I12" s="42"/>
       <c r="J12" s="42"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42" t="s">
         <v>90</v>
       </c>
@@ -1575,7 +1578,7 @@
       <c r="I13" s="42"/>
       <c r="J13" s="42"/>
     </row>
-    <row r="14" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A14" s="42" t="s">
         <v>90</v>
       </c>
@@ -1599,7 +1602,7 @@
       <c r="I14" s="42"/>
       <c r="J14" s="42"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A15" s="42" t="s">
         <v>88</v>
       </c>
@@ -1623,7 +1626,7 @@
       <c r="I15" s="42"/>
       <c r="J15" s="42"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>88</v>
       </c>
@@ -1647,7 +1650,7 @@
       <c r="I16" s="42"/>
       <c r="J16" s="42"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A17" s="42" t="s">
         <v>88</v>
       </c>
@@ -1671,7 +1674,7 @@
       <c r="I17" s="42"/>
       <c r="J17" s="42"/>
     </row>
-    <row r="18" spans="1:10" ht="37.5" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
       <c r="A18" s="42" t="s">
         <v>88</v>
       </c>
@@ -1695,7 +1698,7 @@
       <c r="I18" s="42"/>
       <c r="J18" s="42"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A19" s="42" t="s">
         <v>88</v>
       </c>
@@ -1719,7 +1722,7 @@
       <c r="I19" s="42"/>
       <c r="J19" s="42"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A20" s="42" t="s">
         <v>65</v>
       </c>
@@ -1815,7 +1818,7 @@
       <c r="I23" s="42"/>
       <c r="J23" s="42"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A24" s="42" t="s">
         <v>91</v>
       </c>
@@ -1839,7 +1842,7 @@
       <c r="I24" s="42"/>
       <c r="J24" s="42"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A25" s="42" t="s">
         <v>80</v>
       </c>
@@ -2127,7 +2130,7 @@
       <c r="I36" s="42"/>
       <c r="J36" s="42"/>
     </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
       <c r="A37" s="42" t="s">
         <v>92</v>
       </c>
@@ -2297,12 +2300,29 @@
       <c r="I45" s="52"/>
       <c r="J45" s="52"/>
     </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A46" s="50" t="s">
+        <v>96</v>
+      </c>
+      <c r="B46" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="C46" s="50"/>
+      <c r="D46" s="51" t="s">
+        <v>53</v>
+      </c>
+      <c r="E46" s="51"/>
+      <c r="F46" s="52"/>
+      <c r="G46" s="52"/>
+      <c r="H46" s="52"/>
+      <c r="I46" s="52"/>
+      <c r="J46" s="52"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E45">
-    <filterColumn colId="3">
+    <filterColumn colId="0">
       <filters>
-        <filter val="Hien"/>
-        <filter val="Vinh"/>
+        <filter val="[Admin]"/>
       </filters>
     </filterColumn>
     <sortState ref="A2:E42">
@@ -2746,11 +2766,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="57"/>
-      <c r="B2" s="58" t="s">
+      <c r="A2" s="84"/>
+      <c r="B2" s="74" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="65" t="s">
+      <c r="C2" s="81" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2764,9 +2784,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="57"/>
-      <c r="B3" s="58"/>
-      <c r="C3" s="65"/>
+      <c r="A3" s="84"/>
+      <c r="B3" s="74"/>
+      <c r="C3" s="81"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2778,9 +2798,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="57"/>
-      <c r="B4" s="58"/>
-      <c r="C4" s="65"/>
+      <c r="A4" s="84"/>
+      <c r="B4" s="74"/>
+      <c r="C4" s="81"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2790,9 +2810,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="57"/>
-      <c r="B5" s="58"/>
-      <c r="C5" s="65" t="s">
+      <c r="A5" s="84"/>
+      <c r="B5" s="74"/>
+      <c r="C5" s="81" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2806,9 +2826,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="57"/>
-      <c r="B6" s="58"/>
-      <c r="C6" s="65"/>
+      <c r="A6" s="84"/>
+      <c r="B6" s="74"/>
+      <c r="C6" s="81"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2820,9 +2840,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="57"/>
-      <c r="B7" s="58"/>
-      <c r="C7" s="65"/>
+      <c r="A7" s="84"/>
+      <c r="B7" s="74"/>
+      <c r="C7" s="81"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2834,9 +2854,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="57"/>
-      <c r="B8" s="58"/>
-      <c r="C8" s="65"/>
+      <c r="A8" s="84"/>
+      <c r="B8" s="74"/>
+      <c r="C8" s="81"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2846,9 +2866,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="57"/>
-      <c r="B9" s="58"/>
-      <c r="C9" s="65" t="s">
+      <c r="A9" s="84"/>
+      <c r="B9" s="74"/>
+      <c r="C9" s="81" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2862,9 +2882,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="57"/>
-      <c r="B10" s="58"/>
-      <c r="C10" s="65"/>
+      <c r="A10" s="84"/>
+      <c r="B10" s="74"/>
+      <c r="C10" s="81"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2876,9 +2896,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="57"/>
-      <c r="B11" s="58"/>
-      <c r="C11" s="65"/>
+      <c r="A11" s="84"/>
+      <c r="B11" s="74"/>
+      <c r="C11" s="81"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2890,9 +2910,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="57"/>
-      <c r="B12" s="58"/>
-      <c r="C12" s="65"/>
+      <c r="A12" s="84"/>
+      <c r="B12" s="74"/>
+      <c r="C12" s="81"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2902,9 +2922,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="57"/>
-      <c r="B13" s="58"/>
-      <c r="C13" s="65" t="s">
+      <c r="A13" s="84"/>
+      <c r="B13" s="74"/>
+      <c r="C13" s="81" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2918,9 +2938,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="57"/>
-      <c r="B14" s="58"/>
-      <c r="C14" s="65"/>
+      <c r="A14" s="84"/>
+      <c r="B14" s="74"/>
+      <c r="C14" s="81"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2932,9 +2952,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="57"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="65"/>
+      <c r="A15" s="84"/>
+      <c r="B15" s="74"/>
+      <c r="C15" s="81"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2946,9 +2966,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="57"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="65"/>
+      <c r="A16" s="84"/>
+      <c r="B16" s="74"/>
+      <c r="C16" s="81"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2958,21 +2978,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="57"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="66" t="s">
+      <c r="A17" s="84"/>
+      <c r="B17" s="74"/>
+      <c r="C17" s="82" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="66"/>
+      <c r="D17" s="82"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="57">
+      <c r="A18" s="84">
         <v>2</v>
       </c>
-      <c r="B18" s="72" t="s">
+      <c r="B18" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2984,8 +3004,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="57"/>
-      <c r="B19" s="73"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2998,8 +3018,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="57"/>
-      <c r="B20" s="73"/>
+      <c r="A20" s="84"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -3009,8 +3029,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="57"/>
-      <c r="B21" s="73"/>
+      <c r="A21" s="84"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -3023,8 +3043,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="57"/>
-      <c r="B22" s="73"/>
+      <c r="A22" s="84"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -3034,8 +3054,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="57"/>
-      <c r="B23" s="73"/>
+      <c r="A23" s="84"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -3045,8 +3065,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="57"/>
-      <c r="B24" s="73"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -3059,24 +3079,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="57"/>
-      <c r="B25" s="74"/>
-      <c r="C25" s="83" t="s">
+      <c r="A25" s="84"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="84"/>
+      <c r="D25" s="73"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="57">
+      <c r="A26" s="84">
         <v>6</v>
       </c>
-      <c r="B26" s="67" t="s">
+      <c r="B26" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="67" t="s">
+      <c r="C26" s="64" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -3090,9 +3110,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="57"/>
-      <c r="B27" s="68"/>
-      <c r="C27" s="68"/>
+      <c r="A27" s="84"/>
+      <c r="B27" s="65"/>
+      <c r="C27" s="65"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -3104,9 +3124,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="57"/>
-      <c r="B28" s="68"/>
-      <c r="C28" s="69"/>
+      <c r="A28" s="84"/>
+      <c r="B28" s="65"/>
+      <c r="C28" s="83"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -3116,8 +3136,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="57"/>
-      <c r="B29" s="68"/>
+      <c r="A29" s="84"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -3127,12 +3147,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="57"/>
-      <c r="B30" s="68"/>
-      <c r="C30" s="81" t="s">
+      <c r="A30" s="84"/>
+      <c r="B30" s="65"/>
+      <c r="C30" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="82"/>
+      <c r="D30" s="71"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -3141,13 +3161,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="57">
+      <c r="A31" s="84">
         <v>4</v>
       </c>
-      <c r="B31" s="75" t="s">
+      <c r="B31" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="62" t="s">
+      <c r="C31" s="78" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3161,9 +3181,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="57"/>
-      <c r="B32" s="75"/>
-      <c r="C32" s="62"/>
+      <c r="A32" s="84"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="78"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -3175,9 +3195,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="57"/>
-      <c r="B33" s="75"/>
-      <c r="C33" s="62"/>
+      <c r="A33" s="84"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="78"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -3187,9 +3207,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="57"/>
-      <c r="B34" s="75"/>
-      <c r="C34" s="62" t="s">
+      <c r="A34" s="84"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="78" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3203,9 +3223,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="57"/>
-      <c r="B35" s="75"/>
-      <c r="C35" s="62"/>
+      <c r="A35" s="84"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="78"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -3217,9 +3237,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="57"/>
-      <c r="B36" s="75"/>
-      <c r="C36" s="62"/>
+      <c r="A36" s="84"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="78"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -3229,9 +3249,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="57"/>
-      <c r="B37" s="75"/>
-      <c r="C37" s="62" t="s">
+      <c r="A37" s="84"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="78" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3245,9 +3265,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="57"/>
-      <c r="B38" s="75"/>
-      <c r="C38" s="62"/>
+      <c r="A38" s="84"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="78"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -3259,9 +3279,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="57"/>
-      <c r="B39" s="75"/>
-      <c r="C39" s="62"/>
+      <c r="A39" s="84"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="78"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -3273,9 +3293,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="57"/>
-      <c r="B40" s="75"/>
-      <c r="C40" s="62"/>
+      <c r="A40" s="84"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="78"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3285,9 +3305,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="57"/>
-      <c r="B41" s="75"/>
-      <c r="C41" s="62" t="s">
+      <c r="A41" s="84"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="78" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3301,9 +3321,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="57"/>
-      <c r="B42" s="75"/>
-      <c r="C42" s="62"/>
+      <c r="A42" s="84"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="78"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -3315,9 +3335,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="57"/>
-      <c r="B43" s="75"/>
-      <c r="C43" s="62"/>
+      <c r="A43" s="84"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="78"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -3329,9 +3349,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="57"/>
-      <c r="B44" s="75"/>
-      <c r="C44" s="62"/>
+      <c r="A44" s="84"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="78"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -3341,8 +3361,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="57"/>
-      <c r="B45" s="75"/>
+      <c r="A45" s="84"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -3352,8 +3372,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="57"/>
-      <c r="B46" s="76"/>
+      <c r="A46" s="84"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -3378,16 +3398,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="57">
+      <c r="A48" s="84">
         <v>3</v>
       </c>
-      <c r="B48" s="59" t="s">
+      <c r="B48" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="77" t="s">
+      <c r="C48" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="78"/>
+      <c r="D48" s="67"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -3396,12 +3416,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="57"/>
-      <c r="B49" s="59"/>
-      <c r="C49" s="77" t="s">
+      <c r="A49" s="84"/>
+      <c r="B49" s="75"/>
+      <c r="C49" s="66" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="78"/>
+      <c r="D49" s="67"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -3410,34 +3430,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="57"/>
-      <c r="B50" s="59"/>
-      <c r="C50" s="77" t="s">
+      <c r="A50" s="84"/>
+      <c r="B50" s="75"/>
+      <c r="C50" s="66" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="78"/>
+      <c r="D50" s="67"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="57"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="77" t="s">
+      <c r="A51" s="84"/>
+      <c r="B51" s="75"/>
+      <c r="C51" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="78"/>
+      <c r="D51" s="67"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="57"/>
-      <c r="B52" s="59"/>
-      <c r="C52" s="77" t="s">
+      <c r="A52" s="84"/>
+      <c r="B52" s="75"/>
+      <c r="C52" s="66" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="78"/>
+      <c r="D52" s="67"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -3458,13 +3478,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="57">
+      <c r="A54" s="84">
         <v>5</v>
       </c>
-      <c r="B54" s="60" t="s">
+      <c r="B54" s="76" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="63" t="s">
+      <c r="C54" s="79" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -3476,9 +3496,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="57"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="63"/>
+      <c r="A55" s="84"/>
+      <c r="B55" s="76"/>
+      <c r="C55" s="79"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -3490,9 +3510,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="57"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="63"/>
+      <c r="A56" s="84"/>
+      <c r="B56" s="76"/>
+      <c r="C56" s="79"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -3504,9 +3524,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="57"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="63"/>
+      <c r="A57" s="84"/>
+      <c r="B57" s="76"/>
+      <c r="C57" s="79"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -3516,12 +3536,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="57"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="79" t="s">
+      <c r="A58" s="84"/>
+      <c r="B58" s="76"/>
+      <c r="C58" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="80"/>
+      <c r="D58" s="69"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -3530,12 +3550,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="57"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="79" t="s">
+      <c r="A59" s="84"/>
+      <c r="B59" s="76"/>
+      <c r="C59" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="80"/>
+      <c r="D59" s="69"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -3544,13 +3564,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="57">
+      <c r="A60" s="84">
         <v>7</v>
       </c>
-      <c r="B60" s="61" t="s">
+      <c r="B60" s="77" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="64" t="s">
+      <c r="C60" s="80" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -3564,9 +3584,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="57"/>
-      <c r="B61" s="61"/>
-      <c r="C61" s="64"/>
+      <c r="A61" s="84"/>
+      <c r="B61" s="77"/>
+      <c r="C61" s="80"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -3578,9 +3598,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="57"/>
-      <c r="B62" s="61"/>
-      <c r="C62" s="64"/>
+      <c r="A62" s="84"/>
+      <c r="B62" s="77"/>
+      <c r="C62" s="80"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -3592,9 +3612,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="57"/>
-      <c r="B63" s="61"/>
-      <c r="C63" s="64"/>
+      <c r="A63" s="84"/>
+      <c r="B63" s="77"/>
+      <c r="C63" s="80"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -3604,23 +3624,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="57"/>
-      <c r="B64" s="61"/>
-      <c r="C64" s="70" t="s">
+      <c r="A64" s="84"/>
+      <c r="B64" s="77"/>
+      <c r="C64" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="71"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="57"/>
-      <c r="B65" s="61"/>
-      <c r="C65" s="70" t="s">
+      <c r="A65" s="84"/>
+      <c r="B65" s="77"/>
+      <c r="C65" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="71"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3679,20 +3699,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3709,13 +3722,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Tri Le Nguyen Huu\Desktop\TSMT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
   </bookViews>
@@ -19,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$B$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$E$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$A$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UC!$F$1:$F$82</definedName>
     <definedName name="Members" localSheetId="1">Issues!#REF!</definedName>
     <definedName name="Members">Modules!#REF!</definedName>
@@ -34,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="376" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="117">
   <si>
     <t>Search</t>
   </si>
@@ -210,12 +205,6 @@
     <t>Tuan</t>
   </si>
   <si>
-    <t>FrontEnd</t>
-  </si>
-  <si>
-    <t>BackEnd</t>
-  </si>
-  <si>
     <t>Task</t>
   </si>
   <si>
@@ -234,72 +223,12 @@
     <t>[Google Maps]</t>
   </si>
   <si>
-    <t>Auto get content from the other web</t>
-  </si>
-  <si>
-    <t>General Register for Every One</t>
-  </si>
-  <si>
-    <t>Register Details for Candidates, Volunteers</t>
-  </si>
-  <si>
-    <t>Register Details for Sponsors, Charities</t>
-  </si>
-  <si>
     <t>Login / Logout</t>
   </si>
   <si>
-    <t>Check authentication all pages</t>
-  </si>
-  <si>
-    <t>Check authorization all pages</t>
-  </si>
-  <si>
-    <t>Admin control panel page</t>
-  </si>
-  <si>
-    <t>Admin add new Examinations, Universities, Venues</t>
-  </si>
-  <si>
-    <t>Sponsor sponsored cars for a CE</t>
-  </si>
-  <si>
-    <t>Admin create a new UE</t>
-  </si>
-  <si>
-    <t>Charity create a new CE</t>
-  </si>
-  <si>
-    <t>Sponsor funding to a CE</t>
-  </si>
-  <si>
-    <t>Sponsor sponsored lodges for a CE</t>
-  </si>
-  <si>
     <t>[System]</t>
   </si>
   <si>
-    <t>Candidate joins in a CE</t>
-  </si>
-  <si>
-    <t>Volunteer joins in a CE</t>
-  </si>
-  <si>
-    <t>Charity manages Lodges of his CE</t>
-  </si>
-  <si>
-    <t>Charity manages Cars of his CE</t>
-  </si>
-  <si>
-    <t>Charity manages Volunteers of his CE</t>
-  </si>
-  <si>
-    <t>Charity manages Candidates of his CE</t>
-  </si>
-  <si>
-    <t>Candidates view Schedule, Route of Vehicle which serves them</t>
-  </si>
-  <si>
     <t>[Charity]</t>
   </si>
   <si>
@@ -315,27 +244,12 @@
     <t>[User]</t>
   </si>
   <si>
-    <t>User posts a post</t>
-  </si>
-  <si>
-    <t>User comments, replies a comment</t>
-  </si>
-  <si>
     <t>User rates a post</t>
   </si>
   <si>
     <t>[Admin]</t>
   </si>
   <si>
-    <t>Admin approves a post</t>
-  </si>
-  <si>
-    <t>Comment, Like, Share using Facebook API</t>
-  </si>
-  <si>
-    <t>Share using Google Plus API</t>
-  </si>
-  <si>
     <t>Admin manages Categories</t>
   </si>
   <si>
@@ -348,27 +262,6 @@
     <t>Manual assign Students to Vehicle</t>
   </si>
   <si>
-    <t>General Layout (Master page)</t>
-  </si>
-  <si>
-    <t>Statistics for Charity</t>
-  </si>
-  <si>
-    <t>Statistics for Sponsor</t>
-  </si>
-  <si>
-    <t>Statistics for Admin</t>
-  </si>
-  <si>
-    <t>Note</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>Has Issues</t>
-  </si>
-  <si>
     <t>Is Done</t>
   </si>
   <si>
@@ -387,12 +280,6 @@
     <t>Manual edit Routes</t>
   </si>
   <si>
-    <t>Tester</t>
-  </si>
-  <si>
-    <t>User manages user's profile</t>
-  </si>
-  <si>
     <t>Issue</t>
   </si>
   <si>
@@ -402,35 +289,104 @@
     <t>Approved</t>
   </si>
   <si>
-    <t>Left-menu stick and float along when user scroll mouse</t>
-  </si>
-  <si>
     <t>Asked by</t>
   </si>
   <si>
     <t>Answered by</t>
   </si>
   <si>
-    <t>Menu bên trái bị trống không khi user kéo màn hình xuống dưới?</t>
-  </si>
-  <si>
-    <t>Đính và kéo menu theo, kèm hiệu ứng đẹp mắt --&gt; đã chuyển lên thành task mức độ 3.</t>
-  </si>
-  <si>
-    <t>ForgotPassword</t>
-  </si>
-  <si>
-    <t>Capcha when register</t>
-  </si>
-  <si>
-    <t>Admin manage user</t>
+    <t>Responsible</t>
+  </si>
+  <si>
+    <t>Admin manages Examinations</t>
+  </si>
+  <si>
+    <t>Admin manages Universities</t>
+  </si>
+  <si>
+    <t>Admin manages Posts</t>
+  </si>
+  <si>
+    <t>Charity manages their CharityExams</t>
+  </si>
+  <si>
+    <t>Admin manages UniExams</t>
+  </si>
+  <si>
+    <t>Charity manages Lodges of thier CE</t>
+  </si>
+  <si>
+    <t>Charity manages Cars of their CE</t>
+  </si>
+  <si>
+    <t>Charity views Volunteers of their CE</t>
+  </si>
+  <si>
+    <t>Charity views Candidates of their CE</t>
+  </si>
+  <si>
+    <t>Sponsor manages their Funds</t>
+  </si>
+  <si>
+    <t>Sponsor manages their Lodges</t>
+  </si>
+  <si>
+    <t>Sponsor manages their Cars</t>
+  </si>
+  <si>
+    <t>Charity's Control Panel</t>
+  </si>
+  <si>
+    <t>Admin's Control Panel</t>
+  </si>
+  <si>
+    <t>Sponsor's Control Panel</t>
+  </si>
+  <si>
+    <t>Volunteer's Control Panel</t>
+  </si>
+  <si>
+    <t>Volunteer manages their JoinIn</t>
+  </si>
+  <si>
+    <t>Candidate's Control Panel</t>
+  </si>
+  <si>
+    <t>Candidate manages their JoinIn</t>
+  </si>
+  <si>
+    <t>Registration</t>
+  </si>
+  <si>
+    <t>User manages their Profile</t>
+  </si>
+  <si>
+    <t>User manages their Posts</t>
+  </si>
+  <si>
+    <t>User share on Google Plus</t>
+  </si>
+  <si>
+    <t>User comments and replies comment</t>
+  </si>
+  <si>
+    <t>User comment, like, share on Facebook</t>
+  </si>
+  <si>
+    <t>Authentication and authorization</t>
+  </si>
+  <si>
+    <t>Master page and Admin master page</t>
+  </si>
+  <si>
+    <t>Auto get news from webs</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,7 +410,7 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -462,16 +418,11 @@
     </font>
     <font>
       <b/>
-      <sz val="14"/>
+      <sz val="13"/>
       <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="15">
@@ -670,7 +621,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -718,22 +669,38 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -742,7 +709,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -754,51 +721,47 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -821,12 +784,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -850,39 +807,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1161,7 +1085,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1169,1187 +1093,632 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:U46"/>
+  <dimension ref="A1:P40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B47" sqref="B47"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43" style="56" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="53" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="54" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.85546875" style="54" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.5703125" style="40" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.140625" style="40" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.85546875" style="40" bestFit="1" customWidth="1"/>
-    <col min="11" max="17" width="9.140625" style="40"/>
-    <col min="18" max="18" width="12.42578125" style="40" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="40"/>
+    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.85546875" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="27" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" t="s">
+        <v>72</v>
+      </c>
+      <c r="N1" t="s">
+        <v>55</v>
+      </c>
+      <c r="O1" s="23">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="C2" s="29">
+        <v>2</v>
+      </c>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29"/>
+      <c r="M2" t="s">
+        <v>62</v>
+      </c>
+      <c r="N2" t="s">
+        <v>54</v>
+      </c>
+      <c r="O2" s="22">
+        <v>2</v>
+      </c>
+      <c r="P2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3</v>
+      </c>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+      <c r="M3" t="s">
+        <v>68</v>
+      </c>
+      <c r="N3" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="C4" s="29">
+        <v>3</v>
+      </c>
+      <c r="D4" s="29"/>
+      <c r="E4" s="29"/>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" s="24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="29">
+        <v>3</v>
+      </c>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="M5" t="s">
+        <v>63</v>
+      </c>
+      <c r="N5" t="s">
+        <v>56</v>
+      </c>
+      <c r="O5" s="26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B6" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="C6" s="29">
+        <v>3</v>
+      </c>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="M6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7" s="29" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="C7" s="29">
+        <v>3</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="29"/>
+      <c r="M7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B8" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="29">
+        <v>5</v>
+      </c>
+      <c r="D8" s="29"/>
+      <c r="E8" s="29"/>
+      <c r="M8" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C9" s="29">
+        <v>5</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="M9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="C10" s="29">
+        <v>4</v>
+      </c>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3</v>
+      </c>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="C12" s="29">
+        <v>3</v>
+      </c>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+    </row>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A13" s="29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C13" s="29">
+        <v>4</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+    </row>
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="C14" s="29">
+        <v>2</v>
+      </c>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+    </row>
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="C15" s="29">
+        <v>3</v>
+      </c>
+      <c r="D15" s="29"/>
+      <c r="E15" s="29"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A16" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" s="29">
+        <v>2</v>
+      </c>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="C17" s="29">
+        <v>3</v>
+      </c>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B18" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="C18" s="29">
+        <v>3</v>
+      </c>
+      <c r="D18" s="29"/>
+      <c r="E18" s="29"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19" s="32" t="s">
+        <v>95</v>
+      </c>
+      <c r="C19" s="29">
+        <v>3</v>
+      </c>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="29">
+        <v>3</v>
+      </c>
+      <c r="D20" s="29"/>
+      <c r="E20" s="29"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="29">
+        <v>3</v>
+      </c>
+      <c r="D21" s="29"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B22" s="32" t="s">
+        <v>61</v>
+      </c>
+      <c r="C22" s="29">
+        <v>5</v>
+      </c>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="B23" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="C1" s="38" t="s">
-        <v>101</v>
-      </c>
-      <c r="D1" s="38" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="38" t="s">
-        <v>59</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>117</v>
-      </c>
-      <c r="G1" s="39" t="s">
+      <c r="C23" s="29">
+        <v>5</v>
+      </c>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B24" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="C24" s="29">
+        <v>2</v>
+      </c>
+      <c r="D24" s="29"/>
+      <c r="E24" s="29"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C25" s="29">
+        <v>3</v>
+      </c>
+      <c r="D25" s="29"/>
+      <c r="E25" s="29"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B26" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" s="29">
+        <v>3</v>
+      </c>
+      <c r="D26" s="29"/>
+      <c r="E26" s="29"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="B27" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="C27" s="29">
+        <v>3</v>
+      </c>
+      <c r="D27" s="29"/>
+      <c r="E27" s="29"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="32" t="s">
+        <v>114</v>
+      </c>
+      <c r="C28" s="29">
+        <v>4</v>
+      </c>
+      <c r="D28" s="29"/>
+      <c r="E28" s="29"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B29" s="32" t="s">
+        <v>115</v>
+      </c>
+      <c r="C29" s="29">
+        <v>3</v>
+      </c>
+      <c r="D29" s="29"/>
+      <c r="E29" s="29"/>
+    </row>
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="B30" s="32" t="s">
+        <v>116</v>
+      </c>
+      <c r="C30" s="29">
+        <v>4</v>
+      </c>
+      <c r="D30" s="29"/>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="C31" s="29">
+        <v>4</v>
+      </c>
+      <c r="D31" s="29"/>
+      <c r="E31" s="29"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="29">
+        <v>2</v>
+      </c>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="H1" s="38" t="s">
+      <c r="C33" s="29">
+        <v>4</v>
+      </c>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B34" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="I1" s="38" t="s">
+      <c r="C34" s="29">
+        <v>4</v>
+      </c>
+      <c r="D34" s="29"/>
+      <c r="E34" s="29"/>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>71</v>
+      </c>
+      <c r="C35" s="29">
+        <v>3</v>
+      </c>
+      <c r="D35" s="29"/>
+      <c r="E35" s="29"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B36" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="C36" s="29">
+        <v>3</v>
+      </c>
+      <c r="D36" s="29"/>
+      <c r="E36" s="29"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="C37" s="29">
+        <v>4</v>
+      </c>
+      <c r="D37" s="29"/>
+      <c r="E37" s="29"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="C38" s="29">
+        <v>2</v>
+      </c>
+      <c r="D38" s="29"/>
+      <c r="E38" s="29"/>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="29">
+        <v>3</v>
+      </c>
+      <c r="D39" s="29"/>
+      <c r="E39" s="29"/>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="29" t="s">
+        <v>70</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="J1" s="38" t="s">
-        <v>108</v>
-      </c>
-      <c r="R1" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="S1" s="40" t="s">
-        <v>55</v>
-      </c>
-      <c r="T1" s="41">
-        <v>1</v>
-      </c>
-      <c r="U1" s="40" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A2" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B2" s="43" t="s">
-        <v>73</v>
-      </c>
-      <c r="C2" s="42">
-        <v>3</v>
-      </c>
-      <c r="D2" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E2" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F2" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="R2" s="40" t="s">
-        <v>64</v>
-      </c>
-      <c r="S2" s="40" t="s">
-        <v>54</v>
-      </c>
-      <c r="T2" s="44">
+      <c r="C40" s="29">
         <v>2</v>
       </c>
-      <c r="U2" s="40" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A3" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="43" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="42">
-        <v>2</v>
-      </c>
-      <c r="D3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F3" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="R3" s="40" t="s">
-        <v>90</v>
-      </c>
-      <c r="S3" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="T3" s="45">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="37.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B4" s="43" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" s="42">
-        <v>2</v>
-      </c>
-      <c r="D4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E4" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F4" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="R4" s="40" t="s">
-        <v>88</v>
-      </c>
-      <c r="S4" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="T4" s="46">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B5" s="43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C5" s="42">
-        <v>1</v>
-      </c>
-      <c r="D5" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E5" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F5" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="R5" s="40" t="s">
-        <v>65</v>
-      </c>
-      <c r="S5" s="40" t="s">
-        <v>56</v>
-      </c>
-      <c r="T5" s="47">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A6" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B6" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="C6" s="42">
-        <v>2</v>
-      </c>
-      <c r="D6" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E6" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="R6" s="40" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="43" t="s">
-        <v>114</v>
-      </c>
-      <c r="C7" s="42">
-        <v>5</v>
-      </c>
-      <c r="D7" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E7" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="R7" s="40" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B8" s="43" t="s">
-        <v>115</v>
-      </c>
-      <c r="C8" s="42">
-        <v>5</v>
-      </c>
-      <c r="D8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F8" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
-      <c r="J8" s="42"/>
-      <c r="R8" s="40" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="43" t="s">
-        <v>61</v>
-      </c>
-      <c r="C9" s="42">
-        <v>4</v>
-      </c>
-      <c r="D9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
-      <c r="I9" s="42"/>
-      <c r="J9" s="42"/>
-      <c r="R9" s="40" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B10" s="43" t="s">
-        <v>102</v>
-      </c>
-      <c r="C10" s="42">
-        <v>3</v>
-      </c>
-      <c r="D10" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E10" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F10" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-    </row>
-    <row r="11" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B11" s="43" t="s">
-        <v>103</v>
-      </c>
-      <c r="C11" s="42">
-        <v>3</v>
-      </c>
-      <c r="D11" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E11" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F11" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-    </row>
-    <row r="12" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="42" t="s">
-        <v>64</v>
-      </c>
-      <c r="B12" s="43" t="s">
-        <v>116</v>
-      </c>
-      <c r="C12" s="42">
-        <v>4</v>
-      </c>
-      <c r="D12" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="E12" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-    </row>
-    <row r="13" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B13" s="43" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="42">
-        <v>3</v>
-      </c>
-      <c r="D13" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E13" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F13" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-    </row>
-    <row r="14" spans="1:21" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="42" t="s">
-        <v>90</v>
-      </c>
-      <c r="B14" s="43" t="s">
-        <v>87</v>
-      </c>
-      <c r="C14" s="42">
-        <v>2</v>
-      </c>
-      <c r="D14" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F14" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-    </row>
-    <row r="15" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B15" s="43" t="s">
-        <v>84</v>
-      </c>
-      <c r="C15" s="42">
-        <v>3</v>
-      </c>
-      <c r="D15" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E15" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F15" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G15" s="42"/>
-      <c r="H15" s="42"/>
-      <c r="I15" s="42"/>
-      <c r="J15" s="42"/>
-    </row>
-    <row r="16" spans="1:21" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B16" s="43" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="42">
-        <v>3</v>
-      </c>
-      <c r="D16" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E16" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-    </row>
-    <row r="17" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="43" t="s">
-        <v>77</v>
-      </c>
-      <c r="C17" s="42">
-        <v>2</v>
-      </c>
-      <c r="D17" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E17" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-    </row>
-    <row r="18" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B18" s="43" t="s">
-        <v>86</v>
-      </c>
-      <c r="C18" s="42">
-        <v>3</v>
-      </c>
-      <c r="D18" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F18" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" s="42"/>
-      <c r="H18" s="42"/>
-      <c r="I18" s="42"/>
-      <c r="J18" s="42"/>
-    </row>
-    <row r="19" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="42" t="s">
-        <v>88</v>
-      </c>
-      <c r="B19" s="43" t="s">
-        <v>83</v>
-      </c>
-      <c r="C19" s="42">
-        <v>3</v>
-      </c>
-      <c r="D19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E19" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="G19" s="42"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42"/>
-      <c r="J19" s="42"/>
-    </row>
-    <row r="20" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B20" s="43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20" s="42">
-        <v>5</v>
-      </c>
-      <c r="D20" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E20" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F20" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-    </row>
-    <row r="21" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="42" t="s">
-        <v>65</v>
-      </c>
-      <c r="B21" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C21" s="42">
-        <v>5</v>
-      </c>
-      <c r="D21" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E21" s="42" t="s">
-        <v>54</v>
-      </c>
-      <c r="F21" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-    </row>
-    <row r="22" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B22" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="C22" s="42">
-        <v>2</v>
-      </c>
-      <c r="D22" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E22" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F22" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G22" s="42"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="42"/>
-    </row>
-    <row r="23" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B23" s="43" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="42">
-        <v>3</v>
-      </c>
-      <c r="D23" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E23" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F23" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-    </row>
-    <row r="24" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="42" t="s">
-        <v>91</v>
-      </c>
-      <c r="B24" s="43" t="s">
-        <v>79</v>
-      </c>
-      <c r="C24" s="42">
-        <v>3</v>
-      </c>
-      <c r="D24" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F24" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-    </row>
-    <row r="25" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B25" s="43" t="s">
-        <v>71</v>
-      </c>
-      <c r="C25" s="42">
-        <v>4</v>
-      </c>
-      <c r="D25" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="E25" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="F25" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-    </row>
-    <row r="26" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B26" s="43" t="s">
-        <v>104</v>
-      </c>
-      <c r="C26" s="42">
-        <v>4</v>
-      </c>
-      <c r="D26" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E26" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F26" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G26" s="42"/>
-      <c r="H26" s="42"/>
-      <c r="I26" s="42"/>
-      <c r="J26" s="42"/>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B27" s="43" t="s">
-        <v>66</v>
-      </c>
-      <c r="C27" s="42">
-        <v>4</v>
-      </c>
-      <c r="D27" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E27" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F27" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-    </row>
-    <row r="28" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B28" s="43" t="s">
-        <v>72</v>
-      </c>
-      <c r="C28" s="42">
-        <v>4</v>
-      </c>
-      <c r="D28" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E28" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F28" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G28" s="42"/>
-      <c r="H28" s="42"/>
-      <c r="I28" s="42"/>
-      <c r="J28" s="42"/>
-    </row>
-    <row r="29" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B29" s="43" t="s">
-        <v>70</v>
-      </c>
-      <c r="C29" s="42">
-        <v>3</v>
-      </c>
-      <c r="D29" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E29" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F29" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G29" s="42"/>
-      <c r="H29" s="42"/>
-      <c r="I29" s="42"/>
-      <c r="J29" s="42"/>
-    </row>
-    <row r="30" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B30" s="43" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" s="42">
-        <v>3</v>
-      </c>
-      <c r="D30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E30" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F30" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-    </row>
-    <row r="31" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B31" s="43" t="s">
-        <v>68</v>
-      </c>
-      <c r="C31" s="42">
-        <v>3</v>
-      </c>
-      <c r="D31" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E31" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-    </row>
-    <row r="32" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B32" s="43" t="s">
-        <v>69</v>
-      </c>
-      <c r="C32" s="42">
-        <v>3</v>
-      </c>
-      <c r="D32" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="E32" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="F32" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-    </row>
-    <row r="33" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B33" s="43" t="s">
-        <v>98</v>
-      </c>
-      <c r="C33" s="42">
-        <v>4</v>
-      </c>
-      <c r="D33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-    </row>
-    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B34" s="43" t="s">
-        <v>99</v>
-      </c>
-      <c r="C34" s="42">
-        <v>3</v>
-      </c>
-      <c r="D34" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E34" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F34" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="42"/>
-      <c r="H34" s="42"/>
-      <c r="I34" s="42"/>
-      <c r="J34" s="42"/>
-    </row>
-    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B35" s="43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C35" s="42">
-        <v>4</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E35" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F35" s="42" t="s">
-        <v>55</v>
-      </c>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-    </row>
-    <row r="36" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B36" s="43" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="42">
-        <v>3</v>
-      </c>
-      <c r="D36" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E36" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F36" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-    </row>
-    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B37" s="43" t="s">
-        <v>94</v>
-      </c>
-      <c r="C37" s="42">
-        <v>3</v>
-      </c>
-      <c r="D37" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="E37" s="42" t="s">
-        <v>56</v>
-      </c>
-      <c r="F37" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-    </row>
-    <row r="38" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="42" t="s">
-        <v>89</v>
-      </c>
-      <c r="B38" s="43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C38" s="42">
-        <v>3</v>
-      </c>
-      <c r="D38" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="E38" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42"/>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-    </row>
-    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="C39" s="42">
-        <v>4</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="48"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="48"/>
-      <c r="I39" s="48"/>
-      <c r="J39" s="48"/>
-    </row>
-    <row r="40" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B40" s="43" t="s">
-        <v>107</v>
-      </c>
-      <c r="C40" s="42">
-        <v>4</v>
-      </c>
-      <c r="D40" s="42"/>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-    </row>
-    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C41" s="42">
-        <v>4</v>
-      </c>
-      <c r="D41" s="42"/>
-      <c r="E41" s="42"/>
-      <c r="F41" s="48"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="48"/>
-      <c r="I41" s="48"/>
-      <c r="J41" s="48"/>
-    </row>
-    <row r="42" spans="1:10" ht="37.5" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="42" t="s">
-        <v>80</v>
-      </c>
-      <c r="B42" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="C42" s="42">
-        <v>3</v>
-      </c>
-      <c r="D42" s="42"/>
-      <c r="E42" s="42"/>
-      <c r="F42" s="48"/>
-      <c r="G42" s="42"/>
-      <c r="H42" s="48"/>
-      <c r="I42" s="48"/>
-      <c r="J42" s="48"/>
-    </row>
-    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="42" t="s">
-        <v>92</v>
-      </c>
-      <c r="B43" s="43" t="s">
-        <v>118</v>
-      </c>
-      <c r="C43" s="42">
-        <v>4</v>
-      </c>
-      <c r="D43" s="42"/>
-      <c r="E43" s="42"/>
-      <c r="F43" s="48"/>
-      <c r="G43" s="42"/>
-      <c r="H43" s="48"/>
-      <c r="I43" s="48"/>
-      <c r="J43" s="48"/>
-    </row>
-    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B44" s="43" t="s">
-        <v>127</v>
-      </c>
-      <c r="C44" s="50"/>
-      <c r="D44" s="51"/>
-      <c r="E44" s="51"/>
-      <c r="F44" s="52"/>
-      <c r="G44" s="52"/>
-      <c r="H44" s="52"/>
-      <c r="I44" s="52"/>
-      <c r="J44" s="52"/>
-    </row>
-    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
-        <v>92</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>128</v>
-      </c>
-      <c r="C45" s="50"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="51"/>
-      <c r="F45" s="52"/>
-      <c r="G45" s="52"/>
-      <c r="H45" s="52"/>
-      <c r="I45" s="52"/>
-      <c r="J45" s="52"/>
-    </row>
-    <row r="46" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A46" s="50" t="s">
-        <v>96</v>
-      </c>
-      <c r="B46" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="C46" s="50"/>
-      <c r="D46" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E46" s="51"/>
-      <c r="F46" s="52"/>
-      <c r="G46" s="52"/>
-      <c r="H46" s="52"/>
-      <c r="I46" s="52"/>
-      <c r="J46" s="52"/>
+      <c r="D40" s="29"/>
+      <c r="E40" s="30"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E45">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="[Admin]"/>
-      </filters>
-    </filterColumn>
-    <sortState ref="A2:E42">
-      <sortCondition ref="D1:D42"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A1:A40"/>
   <sortState ref="A2:G42">
     <sortCondition ref="A2"/>
   </sortState>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:N1 N2:N17">
-      <formula1>$S$1:$S$4</formula1>
+  <dataValidations count="5">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:I1 I2:I18">
+      <formula1>$N$1:$N$4</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E1:E1048576">
+      <formula1>$P$1</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A1048576">
-      <formula1>$R$1:$R$10</formula1>
+      <formula1>$M$1:$M$10</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D1:E1048576 F1:F1048576">
-      <formula1>$S$1:$S$5</formula1>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D1048576">
+      <formula1>$N$1:$N$5</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1:C1048576">
-      <formula1>$T$1:$T$5</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:H1048576">
-      <formula1>$U$2</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="I1:I1048576">
-      <formula1>$U$1</formula1>
+      <formula1>$O$1:$O$5</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2365,17 +1734,17 @@
   <dimension ref="A1:T42"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="35" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" style="27" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="27" customWidth="1"/>
-    <col min="4" max="4" width="16" style="36" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="26" customWidth="1"/>
-    <col min="6" max="6" width="16" style="26" customWidth="1"/>
+    <col min="1" max="1" width="16.85546875" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.5703125" style="33" customWidth="1"/>
+    <col min="3" max="3" width="57.140625" style="33" customWidth="1"/>
+    <col min="4" max="4" width="16" style="42" customWidth="1"/>
+    <col min="5" max="5" width="16.42578125" style="29" customWidth="1"/>
+    <col min="6" max="6" width="16" style="29" customWidth="1"/>
     <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
@@ -2384,55 +1753,44 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="C1" s="29" t="s">
-        <v>120</v>
-      </c>
-      <c r="D1" s="30" t="s">
-        <v>123</v>
-      </c>
-      <c r="E1" s="30" t="s">
-        <v>124</v>
-      </c>
-      <c r="F1" s="37" t="s">
-        <v>121</v>
+      <c r="B1" s="39" t="s">
+        <v>83</v>
+      </c>
+      <c r="C1" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="D1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>87</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>85</v>
       </c>
       <c r="Q1" s="2" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="S1" s="31">
+      <c r="S1" s="37">
         <v>1</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
-        <v>80</v>
-      </c>
-      <c r="B2" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>53</v>
-      </c>
-      <c r="E2" s="26" t="s">
-        <v>54</v>
-      </c>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="38"/>
       <c r="Q2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="R2" t="s">
         <v>54</v>
@@ -2441,287 +1799,287 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>113</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A3" s="34"/>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="32"/>
+      <c r="A3" s="40"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="38"/>
       <c r="Q3" t="s">
-        <v>90</v>
+        <v>68</v>
       </c>
       <c r="R3" t="s">
         <v>53</v>
       </c>
-      <c r="S3" s="24">
+      <c r="S3" s="25">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A4" s="34"/>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="32"/>
+      <c r="A4" s="40"/>
+      <c r="B4" s="34"/>
+      <c r="C4" s="34"/>
+      <c r="D4" s="38"/>
       <c r="Q4" t="s">
-        <v>88</v>
+        <v>66</v>
       </c>
       <c r="R4" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="23">
+      <c r="S4" s="24">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A5" s="34"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="32"/>
+      <c r="A5" s="40"/>
+      <c r="B5" s="34"/>
+      <c r="C5" s="34"/>
+      <c r="D5" s="38"/>
       <c r="Q5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="R5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="25">
+      <c r="S5" s="26">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A6" s="34"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="32"/>
+      <c r="A6" s="40"/>
+      <c r="B6" s="34"/>
+      <c r="C6" s="34"/>
+      <c r="D6" s="38"/>
       <c r="Q6" t="s">
-        <v>91</v>
+        <v>69</v>
       </c>
     </row>
     <row r="7" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A7" s="34"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="32"/>
+      <c r="A7" s="40"/>
+      <c r="B7" s="34"/>
+      <c r="C7" s="34"/>
+      <c r="D7" s="38"/>
       <c r="Q7" t="s">
-        <v>80</v>
+        <v>65</v>
       </c>
     </row>
     <row r="8" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A8" s="34"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="32"/>
+      <c r="A8" s="40"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="38"/>
       <c r="Q8" t="s">
-        <v>92</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A9" s="34"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="32"/>
+      <c r="A9" s="40"/>
+      <c r="B9" s="34"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="38"/>
       <c r="Q9" t="s">
-        <v>89</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A10" s="34"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="32"/>
+      <c r="A10" s="40"/>
+      <c r="B10" s="34"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="38"/>
     </row>
     <row r="11" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A11" s="34"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="32"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="34"/>
+      <c r="C11" s="34"/>
+      <c r="D11" s="38"/>
     </row>
     <row r="12" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A12" s="34"/>
-      <c r="B12" s="28"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="32"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="38"/>
     </row>
     <row r="13" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A13" s="34"/>
-      <c r="B13" s="28"/>
-      <c r="C13" s="28"/>
-      <c r="D13" s="32"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="38"/>
     </row>
     <row r="14" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A14" s="34"/>
-      <c r="B14" s="28"/>
-      <c r="C14" s="28"/>
-      <c r="D14" s="32"/>
+      <c r="A14" s="40"/>
+      <c r="B14" s="34"/>
+      <c r="C14" s="34"/>
+      <c r="D14" s="38"/>
     </row>
     <row r="15" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A15" s="34"/>
-      <c r="B15" s="28"/>
-      <c r="C15" s="28"/>
-      <c r="D15" s="32"/>
+      <c r="A15" s="40"/>
+      <c r="B15" s="34"/>
+      <c r="C15" s="34"/>
+      <c r="D15" s="38"/>
     </row>
     <row r="16" spans="1:20" x14ac:dyDescent="0.25">
-      <c r="A16" s="34"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="32"/>
+      <c r="A16" s="40"/>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="38"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="34"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="32"/>
+      <c r="A17" s="40"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="38"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="34"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="32"/>
+      <c r="A18" s="40"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="38"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="34"/>
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="32"/>
+      <c r="A19" s="40"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="38"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="34"/>
-      <c r="B20" s="28"/>
-      <c r="C20" s="28"/>
-      <c r="D20" s="32"/>
+      <c r="A20" s="40"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="38"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="34"/>
-      <c r="B21" s="28"/>
-      <c r="C21" s="28"/>
-      <c r="D21" s="32"/>
+      <c r="A21" s="40"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="38"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="34"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="32"/>
+      <c r="A22" s="40"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="38"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="34"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="40"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="38"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="34"/>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="40"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="38"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="34"/>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="32"/>
+      <c r="A25" s="40"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="38"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="34"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="32"/>
+      <c r="A26" s="40"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="38"/>
     </row>
     <row r="27" spans="1:4" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="34"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="32"/>
+      <c r="A27" s="40"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="38"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="34"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="32"/>
+      <c r="A28" s="40"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="38"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="34"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="32"/>
+      <c r="A29" s="40"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="38"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="34"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="32"/>
+      <c r="A30" s="40"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="38"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="34"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="32"/>
+      <c r="A31" s="40"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="38"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="34"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="32"/>
+      <c r="A32" s="40"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="38"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="34"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="32"/>
+      <c r="A33" s="40"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="38"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="34"/>
-      <c r="B34" s="28"/>
-      <c r="C34" s="28"/>
-      <c r="D34" s="32"/>
+      <c r="A34" s="40"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="38"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="34"/>
-      <c r="B35" s="28"/>
-      <c r="C35" s="28"/>
-      <c r="D35" s="32"/>
+      <c r="A35" s="40"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="38"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="34"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="32"/>
+      <c r="A36" s="40"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="38"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="34"/>
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="32"/>
+      <c r="A37" s="40"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="38"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="34"/>
-      <c r="B38" s="28"/>
-      <c r="C38" s="28"/>
-      <c r="D38" s="32"/>
+      <c r="A38" s="40"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="38"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="34"/>
-      <c r="B39" s="28"/>
-      <c r="C39" s="28"/>
-      <c r="D39" s="32"/>
+      <c r="A39" s="40"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="38"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="34"/>
-      <c r="B40" s="28"/>
-      <c r="C40" s="28"/>
-      <c r="D40" s="32"/>
+      <c r="A40" s="40"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="38"/>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="34"/>
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="32"/>
+      <c r="A41" s="40"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="38"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="34"/>
-      <c r="B42" s="28"/>
-      <c r="C42" s="28"/>
-      <c r="D42" s="32"/>
+      <c r="A42" s="40"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="38"/>
     </row>
   </sheetData>
   <dataValidations count="3">
@@ -2766,11 +2124,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="84"/>
-      <c r="B2" s="74" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2784,9 +2142,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="84"/>
-      <c r="B3" s="74"/>
-      <c r="C3" s="81"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2798,9 +2156,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="84"/>
-      <c r="B4" s="74"/>
-      <c r="C4" s="81"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2810,9 +2168,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="84"/>
-      <c r="B5" s="74"/>
-      <c r="C5" s="81" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2826,9 +2184,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="84"/>
-      <c r="B6" s="74"/>
-      <c r="C6" s="81"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2840,9 +2198,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="84"/>
-      <c r="B7" s="74"/>
-      <c r="C7" s="81"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2854,9 +2212,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="84"/>
-      <c r="B8" s="74"/>
-      <c r="C8" s="81"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2866,9 +2224,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="84"/>
-      <c r="B9" s="74"/>
-      <c r="C9" s="81" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2882,9 +2240,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="84"/>
-      <c r="B10" s="74"/>
-      <c r="C10" s="81"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2896,9 +2254,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="84"/>
-      <c r="B11" s="74"/>
-      <c r="C11" s="81"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2910,9 +2268,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="84"/>
-      <c r="B12" s="74"/>
-      <c r="C12" s="81"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2922,9 +2280,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="84"/>
-      <c r="B13" s="74"/>
-      <c r="C13" s="81" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2938,9 +2296,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="84"/>
-      <c r="B14" s="74"/>
-      <c r="C14" s="81"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2952,9 +2310,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="84"/>
-      <c r="B15" s="74"/>
-      <c r="C15" s="81"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2966,9 +2324,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="84"/>
-      <c r="B16" s="74"/>
-      <c r="C16" s="81"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2978,18 +2336,18 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="84"/>
-      <c r="B17" s="74"/>
-      <c r="C17" s="82" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="82"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="84">
+      <c r="A18" s="44">
         <v>2</v>
       </c>
       <c r="B18" s="59" t="s">
@@ -3004,7 +2362,7 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="84"/>
+      <c r="A19" s="44"/>
       <c r="B19" s="60"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
@@ -3018,7 +2376,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="84"/>
+      <c r="A20" s="44"/>
       <c r="B20" s="60"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
@@ -3029,7 +2387,7 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="84"/>
+      <c r="A21" s="44"/>
       <c r="B21" s="60"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
@@ -3043,7 +2401,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="84"/>
+      <c r="A22" s="44"/>
       <c r="B22" s="60"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
@@ -3054,7 +2412,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="84"/>
+      <c r="A23" s="44"/>
       <c r="B23" s="60"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
@@ -3065,7 +2423,7 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
+      <c r="A24" s="44"/>
       <c r="B24" s="60"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
@@ -3079,24 +2437,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="84"/>
+      <c r="A25" s="44"/>
       <c r="B25" s="61"/>
-      <c r="C25" s="72" t="s">
+      <c r="C25" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="73"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="84">
+      <c r="A26" s="44">
         <v>6</v>
       </c>
-      <c r="B26" s="64" t="s">
+      <c r="B26" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="64" t="s">
+      <c r="C26" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -3110,9 +2468,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="84"/>
-      <c r="B27" s="65"/>
-      <c r="C27" s="65"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -3124,9 +2482,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="84"/>
-      <c r="B28" s="65"/>
-      <c r="C28" s="83"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -3136,8 +2494,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="84"/>
-      <c r="B29" s="65"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -3147,12 +2505,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="84"/>
-      <c r="B30" s="65"/>
-      <c r="C30" s="70" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="71"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -3161,13 +2519,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="84">
+      <c r="A31" s="44">
         <v>4</v>
       </c>
       <c r="B31" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="78" t="s">
+      <c r="C31" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -3181,9 +2539,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="84"/>
+      <c r="A32" s="44"/>
       <c r="B32" s="62"/>
-      <c r="C32" s="78"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -3195,9 +2553,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="84"/>
+      <c r="A33" s="44"/>
       <c r="B33" s="62"/>
-      <c r="C33" s="78"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -3207,9 +2565,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="84"/>
+      <c r="A34" s="44"/>
       <c r="B34" s="62"/>
-      <c r="C34" s="78" t="s">
+      <c r="C34" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -3223,9 +2581,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="84"/>
+      <c r="A35" s="44"/>
       <c r="B35" s="62"/>
-      <c r="C35" s="78"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -3237,9 +2595,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="84"/>
+      <c r="A36" s="44"/>
       <c r="B36" s="62"/>
-      <c r="C36" s="78"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -3249,9 +2607,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
+      <c r="A37" s="44"/>
       <c r="B37" s="62"/>
-      <c r="C37" s="78" t="s">
+      <c r="C37" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -3265,9 +2623,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="84"/>
+      <c r="A38" s="44"/>
       <c r="B38" s="62"/>
-      <c r="C38" s="78"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -3279,9 +2637,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="84"/>
+      <c r="A39" s="44"/>
       <c r="B39" s="62"/>
-      <c r="C39" s="78"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -3293,9 +2651,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="84"/>
+      <c r="A40" s="44"/>
       <c r="B40" s="62"/>
-      <c r="C40" s="78"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -3305,9 +2663,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="84"/>
+      <c r="A41" s="44"/>
       <c r="B41" s="62"/>
-      <c r="C41" s="78" t="s">
+      <c r="C41" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -3321,9 +2679,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="84"/>
+      <c r="A42" s="44"/>
       <c r="B42" s="62"/>
-      <c r="C42" s="78"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -3335,9 +2693,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="84"/>
+      <c r="A43" s="44"/>
       <c r="B43" s="62"/>
-      <c r="C43" s="78"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -3349,9 +2707,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="84"/>
+      <c r="A44" s="44"/>
       <c r="B44" s="62"/>
-      <c r="C44" s="78"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -3361,7 +2719,7 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="84"/>
+      <c r="A45" s="44"/>
       <c r="B45" s="62"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
@@ -3372,7 +2730,7 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="84"/>
+      <c r="A46" s="44"/>
       <c r="B46" s="63"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
@@ -3398,16 +2756,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="84">
-        <v>3</v>
-      </c>
-      <c r="B48" s="75" t="s">
+      <c r="A48" s="44">
+        <v>3</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="66" t="s">
+      <c r="C48" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="67"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -3416,12 +2774,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="84"/>
-      <c r="B49" s="75"/>
-      <c r="C49" s="66" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="67"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -3430,34 +2788,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="84"/>
-      <c r="B50" s="75"/>
-      <c r="C50" s="66" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="67"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="84"/>
-      <c r="B51" s="75"/>
-      <c r="C51" s="66" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="67"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="84"/>
-      <c r="B52" s="75"/>
-      <c r="C52" s="66" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="67"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -3478,13 +2836,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="84">
+      <c r="A54" s="44">
         <v>5</v>
       </c>
-      <c r="B54" s="76" t="s">
+      <c r="B54" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="79" t="s">
+      <c r="C54" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -3496,9 +2854,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="84"/>
-      <c r="B55" s="76"/>
-      <c r="C55" s="79"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -3510,9 +2868,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="84"/>
-      <c r="B56" s="76"/>
-      <c r="C56" s="79"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -3524,9 +2882,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="84"/>
-      <c r="B57" s="76"/>
-      <c r="C57" s="79"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -3536,12 +2894,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="84"/>
-      <c r="B58" s="76"/>
-      <c r="C58" s="68" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="69"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -3550,12 +2908,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="84"/>
-      <c r="B59" s="76"/>
-      <c r="C59" s="68" t="s">
+      <c r="A59" s="44"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="69"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -3564,13 +2922,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="84">
+      <c r="A60" s="44">
         <v>7</v>
       </c>
-      <c r="B60" s="77" t="s">
+      <c r="B60" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="80" t="s">
+      <c r="C60" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -3584,9 +2942,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="84"/>
-      <c r="B61" s="77"/>
-      <c r="C61" s="80"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -3598,9 +2956,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="84"/>
-      <c r="B62" s="77"/>
-      <c r="C62" s="80"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -3612,9 +2970,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="84"/>
-      <c r="B63" s="77"/>
-      <c r="C63" s="80"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -3624,8 +2982,8 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="84"/>
-      <c r="B64" s="77"/>
+      <c r="A64" s="44"/>
+      <c r="B64" s="48"/>
       <c r="C64" s="57" t="s">
         <v>43</v>
       </c>
@@ -3635,8 +2993,8 @@
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="84"/>
-      <c r="B65" s="77"/>
+      <c r="A65" s="44"/>
+      <c r="B65" s="48"/>
       <c r="C65" s="57" t="s">
         <v>18</v>
       </c>
@@ -3699,13 +3057,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3722,20 +3087,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Issues!$A$1:$B$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$A$1:$A$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Modules!$D$1:$D$34</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">UC!$F$1:$F$82</definedName>
     <definedName name="Members" localSheetId="1">Issues!#REF!</definedName>
     <definedName name="Members">Modules!#REF!</definedName>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="111">
   <si>
     <t>Search</t>
   </si>
@@ -244,9 +244,6 @@
     <t>[User]</t>
   </si>
   <si>
-    <t>User rates a post</t>
-  </si>
-  <si>
     <t>[Admin]</t>
   </si>
   <si>
@@ -307,9 +304,6 @@
     <t>Admin manages Posts</t>
   </si>
   <si>
-    <t>Charity manages their CharityExams</t>
-  </si>
-  <si>
     <t>Admin manages UniExams</t>
   </si>
   <si>
@@ -334,24 +328,9 @@
     <t>Sponsor manages their Cars</t>
   </si>
   <si>
-    <t>Charity's Control Panel</t>
-  </si>
-  <si>
-    <t>Admin's Control Panel</t>
-  </si>
-  <si>
-    <t>Sponsor's Control Panel</t>
-  </si>
-  <si>
-    <t>Volunteer's Control Panel</t>
-  </si>
-  <si>
     <t>Volunteer manages their JoinIn</t>
   </si>
   <si>
-    <t>Candidate's Control Panel</t>
-  </si>
-  <si>
     <t>Candidate manages their JoinIn</t>
   </si>
   <si>
@@ -380,6 +359,9 @@
   </si>
   <si>
     <t>Auto get news from webs</t>
+  </si>
+  <si>
+    <t>Charity manages their CE</t>
   </si>
 </sst>
 </file>
@@ -724,89 +706,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1096,10 +1078,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:P40"/>
+  <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1120,16 +1102,16 @@
         <v>58</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="M1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="N1" t="s">
         <v>55</v>
@@ -1138,21 +1120,25 @@
         <v>1</v>
       </c>
       <c r="P1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
       <c r="C2" s="29">
-        <v>2</v>
-      </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="M2" t="s">
         <v>62</v>
       </c>
@@ -1163,21 +1149,25 @@
         <v>2</v>
       </c>
       <c r="P2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="C3" s="29">
         <v>3</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="29"/>
+      <c r="D3" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E3" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="M3" t="s">
         <v>68</v>
       </c>
@@ -1190,15 +1180,17 @@
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C4" s="29">
         <v>3</v>
       </c>
-      <c r="D4" s="29"/>
+      <c r="D4" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E4" s="29"/>
       <c r="M4" t="s">
         <v>66</v>
@@ -1212,16 +1204,20 @@
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
+        <v>71</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>72</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>93</v>
       </c>
       <c r="C5" s="29">
         <v>3</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
+      <c r="D5" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="M5" t="s">
         <v>63</v>
       </c>
@@ -1234,15 +1230,17 @@
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="32" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
       <c r="C6" s="29">
         <v>3</v>
       </c>
-      <c r="D6" s="29"/>
+      <c r="D6" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E6" s="29"/>
       <c r="M6" t="s">
         <v>69</v>
@@ -1250,15 +1248,17 @@
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="C7" s="29">
-        <v>3</v>
-      </c>
-      <c r="D7" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E7" s="29"/>
       <c r="M7" t="s">
         <v>65</v>
@@ -1274,7 +1274,9 @@
       <c r="C8" s="29">
         <v>5</v>
       </c>
-      <c r="D8" s="29"/>
+      <c r="D8" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="E8" s="29"/>
       <c r="M8" t="s">
         <v>70</v>
@@ -1285,12 +1287,14 @@
         <v>62</v>
       </c>
       <c r="B9" s="32" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="C9" s="29">
-        <v>5</v>
-      </c>
-      <c r="D9" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="E9" s="29"/>
       <c r="M9" t="s">
         <v>67</v>
@@ -1301,12 +1305,14 @@
         <v>62</v>
       </c>
       <c r="B10" s="32" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="C10" s="29">
-        <v>4</v>
-      </c>
-      <c r="D10" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="E10" s="29"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
@@ -1319,7 +1325,9 @@
       <c r="C11" s="29">
         <v>3</v>
       </c>
-      <c r="D11" s="29"/>
+      <c r="D11" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="E11" s="29"/>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
@@ -1327,51 +1335,61 @@
         <v>62</v>
       </c>
       <c r="B12" s="32" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="C12" s="29">
-        <v>3</v>
-      </c>
-      <c r="D12" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D12" s="29" t="s">
+        <v>54</v>
+      </c>
       <c r="E12" s="29"/>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="B13" s="32" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="C13" s="29">
-        <v>4</v>
-      </c>
-      <c r="D13" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D13" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="E13" s="29"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B14" s="32" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C14" s="29">
-        <v>2</v>
-      </c>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B15" s="32" t="s">
-        <v>107</v>
+        <v>92</v>
       </c>
       <c r="C15" s="29">
         <v>3</v>
       </c>
-      <c r="D15" s="29"/>
+      <c r="D15" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="E15" s="29"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
@@ -1379,12 +1397,14 @@
         <v>66</v>
       </c>
       <c r="B16" s="32" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="C16" s="29">
-        <v>2</v>
-      </c>
-      <c r="D16" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D16" s="29" t="s">
+        <v>56</v>
+      </c>
       <c r="E16" s="29"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1392,12 +1412,14 @@
         <v>66</v>
       </c>
       <c r="B17" s="32" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C17" s="29">
         <v>3</v>
       </c>
-      <c r="D17" s="29"/>
+      <c r="D17" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E17" s="29"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -1405,168 +1427,204 @@
         <v>66</v>
       </c>
       <c r="B18" s="32" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C18" s="29">
         <v>3</v>
       </c>
-      <c r="D18" s="29"/>
+      <c r="D18" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E18" s="29"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B19" s="32" t="s">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="C19" s="29">
-        <v>3</v>
-      </c>
-      <c r="D19" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="D19" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E19" s="29"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B20" s="32" t="s">
-        <v>96</v>
+        <v>60</v>
       </c>
       <c r="C20" s="29">
-        <v>3</v>
-      </c>
-      <c r="D20" s="29"/>
+        <v>5</v>
+      </c>
+      <c r="D20" s="29" t="s">
+        <v>55</v>
+      </c>
       <c r="E20" s="29"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B21" s="32" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C21" s="29">
         <v>3</v>
       </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
+      <c r="D21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="E21" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B22" s="32" t="s">
-        <v>61</v>
+        <v>97</v>
       </c>
       <c r="C22" s="29">
-        <v>5</v>
-      </c>
-      <c r="D22" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D22" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E22" s="29"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="B23" s="32" t="s">
-        <v>60</v>
+        <v>98</v>
       </c>
       <c r="C23" s="29">
-        <v>5</v>
-      </c>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D23" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E23" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B24" s="32" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C24" s="29">
-        <v>2</v>
-      </c>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D24" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E24" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B25" s="32" t="s">
-        <v>98</v>
+        <v>108</v>
       </c>
       <c r="C25" s="29">
         <v>3</v>
       </c>
-      <c r="D25" s="29"/>
+      <c r="D25" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="E25" s="29"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B26" s="32" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="C26" s="29">
-        <v>3</v>
-      </c>
-      <c r="D26" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D26" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="E26" s="29"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="32" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C27" s="29">
-        <v>3</v>
-      </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D27" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E27" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B28" s="32" t="s">
-        <v>114</v>
+        <v>64</v>
       </c>
       <c r="C28" s="29">
-        <v>4</v>
-      </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="D28" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="E28" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B29" s="32" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="C29" s="29">
-        <v>3</v>
-      </c>
-      <c r="D29" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>53</v>
+      </c>
       <c r="E29" s="29"/>
     </row>
     <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B30" s="32" t="s">
-        <v>116</v>
+        <v>103</v>
       </c>
       <c r="C30" s="29">
         <v>4</v>
       </c>
-      <c r="D30" s="29"/>
+      <c r="D30" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E30" s="29"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -1574,12 +1632,14 @@
         <v>70</v>
       </c>
       <c r="B31" s="32" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C31" s="29">
-        <v>4</v>
-      </c>
-      <c r="D31" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D31" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E31" s="29"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -1587,12 +1647,14 @@
         <v>70</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>64</v>
+        <v>106</v>
       </c>
       <c r="C32" s="29">
-        <v>2</v>
-      </c>
-      <c r="D32" s="29"/>
+        <v>4</v>
+      </c>
+      <c r="D32" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E32" s="29"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -1600,109 +1662,35 @@
         <v>70</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="C33" s="29">
-        <v>4</v>
-      </c>
-      <c r="D33" s="29"/>
-      <c r="E33" s="29"/>
+        <v>2</v>
+      </c>
+      <c r="D33" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="30"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B34" s="32" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C34" s="29">
-        <v>4</v>
-      </c>
-      <c r="D34" s="29"/>
+        <v>3</v>
+      </c>
+      <c r="D34" s="29" t="s">
+        <v>57</v>
+      </c>
       <c r="E34" s="29"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>71</v>
-      </c>
-      <c r="C35" s="29">
-        <v>3</v>
-      </c>
-      <c r="D35" s="29"/>
-      <c r="E35" s="29"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B36" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="C36" s="29">
-        <v>3</v>
-      </c>
-      <c r="D36" s="29"/>
-      <c r="E36" s="29"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A37" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>113</v>
-      </c>
-      <c r="C37" s="29">
-        <v>4</v>
-      </c>
-      <c r="D37" s="29"/>
-      <c r="E37" s="29"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A38" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B38" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="C38" s="29">
-        <v>2</v>
-      </c>
-      <c r="D38" s="29"/>
-      <c r="E38" s="29"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" s="29" t="s">
-        <v>67</v>
-      </c>
-      <c r="B39" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="C39" s="29">
-        <v>3</v>
-      </c>
-      <c r="D39" s="29"/>
-      <c r="E39" s="29"/>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="29" t="s">
-        <v>70</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="C40" s="29">
-        <v>2</v>
-      </c>
-      <c r="D40" s="29"/>
-      <c r="E40" s="30"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:A40"/>
-  <sortState ref="A2:G42">
-    <sortCondition ref="A2"/>
+  <autoFilter ref="D1:D34"/>
+  <sortState ref="A2:E39">
+    <sortCondition ref="A16"/>
   </sortState>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H1:I1 I2:I18">
@@ -1757,22 +1745,22 @@
         <v>52</v>
       </c>
       <c r="B1" s="39" t="s">
+        <v>82</v>
+      </c>
+      <c r="C1" s="35" t="s">
         <v>83</v>
       </c>
-      <c r="C1" s="35" t="s">
+      <c r="D1" s="36" t="s">
+        <v>85</v>
+      </c>
+      <c r="E1" s="36" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="43" t="s">
         <v>84</v>
       </c>
-      <c r="D1" s="36" t="s">
-        <v>86</v>
-      </c>
-      <c r="E1" s="36" t="s">
-        <v>87</v>
-      </c>
-      <c r="F1" s="43" t="s">
-        <v>85</v>
-      </c>
       <c r="Q1" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="R1" s="2" t="s">
         <v>55</v>
@@ -1781,7 +1769,7 @@
         <v>1</v>
       </c>
       <c r="T1" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:20" x14ac:dyDescent="0.25">
@@ -1799,7 +1787,7 @@
         <v>2</v>
       </c>
       <c r="T2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="1:20" x14ac:dyDescent="0.25">
@@ -2124,11 +2112,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="68" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2142,9 +2130,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2156,9 +2144,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2168,9 +2156,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2184,9 +2172,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2198,9 +2186,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2212,9 +2200,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2224,9 +2212,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="68" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2240,9 +2228,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2254,9 +2242,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2268,9 +2256,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2280,9 +2268,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="68" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2296,9 +2284,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2310,9 +2298,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2324,9 +2312,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2336,21 +2324,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="71">
         <v>2</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2362,8 +2350,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2376,8 +2364,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2387,8 +2375,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2401,8 +2389,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2412,8 +2400,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2423,8 +2411,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2437,24 +2425,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="70" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="71"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="71">
         <v>6</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2468,9 +2456,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2482,9 +2470,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2494,8 +2482,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2505,12 +2493,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="68" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2519,13 +2507,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="71">
         <v>4</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2539,9 +2527,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2553,9 +2541,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2565,9 +2553,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="65" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2581,9 +2569,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2595,9 +2583,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2607,9 +2595,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2623,9 +2611,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2637,9 +2625,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2651,9 +2639,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2663,9 +2651,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="49" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="65" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2679,9 +2667,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2693,9 +2681,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2707,9 +2695,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +2707,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2730,8 +2718,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2756,16 +2744,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
+      <c r="A48" s="71">
         <v>3</v>
       </c>
-      <c r="B48" s="46" t="s">
+      <c r="B48" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2774,12 +2762,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="64" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2788,34 +2776,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="64" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="64" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="65"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="64" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="65"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2836,13 +2824,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+      <c r="A54" s="71">
         <v>5</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2854,9 +2842,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2868,9 +2856,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="50"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2882,9 +2870,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="50"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2894,12 +2882,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="66" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="67"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2908,12 +2896,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="66" t="s">
+      <c r="A59" s="71"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="67"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2922,13 +2910,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="A60" s="71">
         <v>7</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2942,9 +2930,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="51"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2956,9 +2944,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2970,9 +2958,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2982,23 +2970,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="57" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="57" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="58"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3057,20 +3045,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3087,13 +3068,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -706,6 +706,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -727,12 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -756,39 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,13 +1075,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E20" sqref="E20:E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>71</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>71</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>71</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>62</v>
       </c>
@@ -1257,14 +1257,14 @@
         <v>5</v>
       </c>
       <c r="D7" s="29" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E7" s="29"/>
       <c r="M7" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>62</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>62</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>62</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>62</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>68</v>
       </c>
@@ -1360,7 +1360,7 @@
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>66</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>66</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>66</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>66</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>66</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>63</v>
       </c>
@@ -1463,11 +1463,11 @@
         <v>5</v>
       </c>
       <c r="D20" s="29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>69</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>69</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>69</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>107</v>
       </c>
       <c r="C24" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D24" s="29" t="s">
         <v>53</v>
@@ -1556,7 +1556,7 @@
         <v>109</v>
       </c>
       <c r="C26" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" s="29" t="s">
         <v>53</v>
@@ -1571,7 +1571,7 @@
         <v>101</v>
       </c>
       <c r="C27" s="29">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D27" s="29" t="s">
         <v>53</v>
@@ -1605,14 +1605,14 @@
         <v>102</v>
       </c>
       <c r="C29" s="29">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D29" s="29" t="s">
         <v>53</v>
       </c>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>70</v>
       </c>
@@ -1623,11 +1623,11 @@
         <v>4</v>
       </c>
       <c r="D30" s="29" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>70</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>70</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>70</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>67</v>
       </c>
@@ -1688,7 +1688,13 @@
       <c r="E34" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D34"/>
+  <autoFilter ref="D1:D34">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Tri"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:E39">
     <sortCondition ref="A16"/>
   </sortState>
@@ -2112,11 +2118,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2130,9 +2136,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2144,9 +2150,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2156,9 +2162,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2172,9 +2178,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2186,9 +2192,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2200,9 +2206,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2212,9 +2218,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="68" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2228,9 +2234,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2242,9 +2248,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2256,9 +2262,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="68"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2268,9 +2274,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2284,9 +2290,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2298,9 +2304,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2312,9 +2318,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2324,21 +2330,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="44">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2350,8 +2356,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2364,8 +2370,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2375,8 +2381,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2389,8 +2395,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2400,8 +2406,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2411,8 +2417,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2425,24 +2431,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="44">
         <v>6</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2456,9 +2462,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2470,9 +2476,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2482,8 +2488,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2493,12 +2499,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="57" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2507,13 +2513,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="71">
+      <c r="A31" s="44">
         <v>4</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2527,9 +2533,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2541,9 +2547,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2553,9 +2559,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="65" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2569,9 +2575,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2583,9 +2589,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2595,9 +2601,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="65" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2611,9 +2617,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2625,9 +2631,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2639,9 +2645,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2651,9 +2657,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="65" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2667,9 +2673,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2681,9 +2687,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2695,9 +2701,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2713,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2718,8 +2724,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2744,16 +2750,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
-        <v>3</v>
-      </c>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="44">
+        <v>3</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2762,12 +2768,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2776,34 +2782,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="54"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="53" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="54"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2824,13 +2830,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="71">
+      <c r="A54" s="44">
         <v>5</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2842,9 +2848,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2856,9 +2862,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2870,9 +2876,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2882,12 +2888,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="55" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2896,12 +2902,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="55" t="s">
+      <c r="A59" s="44"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="56"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2910,13 +2916,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="71">
+      <c r="A60" s="44">
         <v>7</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2930,9 +2936,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="67"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2944,9 +2950,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="67"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2958,9 +2964,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="67"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2970,23 +2976,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="44" t="s">
+      <c r="A64" s="44"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="45"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="44" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="45"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3045,13 +3051,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3068,20 +3081,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -706,89 +706,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,13 +1075,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1">
+  <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20:E29"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1123,7 +1123,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>71</v>
       </c>
@@ -1152,7 +1152,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>71</v>
       </c>
@@ -1178,7 +1178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="29" t="s">
         <v>71</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>62</v>
       </c>
@@ -1264,7 +1264,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>62</v>
       </c>
@@ -1282,7 +1282,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>62</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>62</v>
       </c>
@@ -1315,7 +1315,7 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>62</v>
       </c>
@@ -1330,7 +1330,7 @@
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>62</v>
       </c>
@@ -1345,7 +1345,7 @@
       </c>
       <c r="E12" s="29"/>
     </row>
-    <row r="13" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="29" t="s">
         <v>68</v>
       </c>
@@ -1356,11 +1356,11 @@
         <v>3</v>
       </c>
       <c r="D13" s="29" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>66</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>66</v>
       </c>
@@ -1392,7 +1392,7 @@
       </c>
       <c r="E15" s="29"/>
     </row>
-    <row r="16" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="29" t="s">
         <v>66</v>
       </c>
@@ -1407,7 +1407,7 @@
       </c>
       <c r="E16" s="29"/>
     </row>
-    <row r="17" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
         <v>66</v>
       </c>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="E17" s="29"/>
     </row>
-    <row r="18" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="29" t="s">
         <v>66</v>
       </c>
@@ -1437,7 +1437,7 @@
       </c>
       <c r="E18" s="29"/>
     </row>
-    <row r="19" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="29" t="s">
         <v>63</v>
       </c>
@@ -1467,7 +1467,7 @@
       </c>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>69</v>
       </c>
@@ -1484,7 +1484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>69</v>
       </c>
@@ -1499,7 +1499,7 @@
       </c>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>69</v>
       </c>
@@ -1612,7 +1612,7 @@
       </c>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="1:5" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>70</v>
       </c>
@@ -1627,7 +1627,7 @@
       </c>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>70</v>
       </c>
@@ -1642,7 +1642,7 @@
       </c>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>70</v>
       </c>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>70</v>
       </c>
@@ -1672,7 +1672,7 @@
       </c>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>67</v>
       </c>
@@ -1688,13 +1688,7 @@
       <c r="E34" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D34">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="Tri"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="D1:D34"/>
   <sortState ref="A2:E39">
     <sortCondition ref="A16"/>
   </sortState>
@@ -2118,11 +2112,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="68" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2136,9 +2130,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2150,9 +2144,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2162,9 +2156,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2178,9 +2172,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2192,9 +2186,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2206,9 +2200,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2218,9 +2212,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="68" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2234,9 +2228,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2248,9 +2242,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2262,9 +2256,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2274,9 +2268,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="68" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2290,9 +2284,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2304,9 +2298,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2318,9 +2312,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2330,21 +2324,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="71">
         <v>2</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2356,8 +2350,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2370,8 +2364,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2381,8 +2375,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2395,8 +2389,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2406,8 +2400,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2417,8 +2411,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2431,24 +2425,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="70" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="71"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="71">
         <v>6</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2462,9 +2456,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2476,9 +2470,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2488,8 +2482,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2499,12 +2493,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="68" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2513,13 +2507,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="71">
         <v>4</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2533,9 +2527,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2547,9 +2541,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2559,9 +2553,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="65" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2575,9 +2569,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2589,9 +2583,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2601,9 +2595,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2617,9 +2611,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2631,9 +2625,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2645,9 +2639,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2657,9 +2651,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="49" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="65" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2673,9 +2667,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2687,9 +2681,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2701,9 +2695,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2713,8 +2707,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2724,8 +2718,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2750,16 +2744,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
-        <v>3</v>
-      </c>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="71">
+        <v>3</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2768,12 +2762,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="64" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2782,34 +2776,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="64" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="64" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="65"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="64" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="65"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2830,13 +2824,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+      <c r="A54" s="71">
         <v>5</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2848,9 +2842,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2862,9 +2856,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="50"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2876,9 +2870,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="50"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2888,12 +2882,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="66" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="67"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2902,12 +2896,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="66" t="s">
+      <c r="A59" s="71"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="67"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2916,13 +2910,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="A60" s="71">
         <v>7</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2936,9 +2930,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="51"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2950,9 +2944,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2964,9 +2958,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2976,23 +2970,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="57" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="57" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="58"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3051,20 +3045,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3081,13 +3068,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -706,6 +706,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -727,12 +766,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -756,39 +789,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1067,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1080,8 +1080,8 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:E13"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1478,7 +1478,7 @@
         <v>3</v>
       </c>
       <c r="D21" s="29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="E21" s="29" t="s">
         <v>77</v>
@@ -1510,7 +1510,7 @@
         <v>3</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E23" s="29" t="s">
         <v>77</v>
@@ -2112,11 +2112,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2130,9 +2130,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2144,9 +2144,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2156,9 +2156,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2172,9 +2172,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2186,9 +2186,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2200,9 +2200,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2212,9 +2212,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="68" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2228,9 +2228,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2242,9 +2242,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2256,9 +2256,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="68"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2268,9 +2268,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2284,9 +2284,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2298,9 +2298,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2312,9 +2312,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2324,21 +2324,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="44">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2350,8 +2350,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2364,8 +2364,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2375,8 +2375,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2389,8 +2389,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2400,8 +2400,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2411,8 +2411,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2425,24 +2425,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="44">
         <v>6</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2456,9 +2456,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2470,9 +2470,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2482,8 +2482,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2493,12 +2493,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="57" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2507,13 +2507,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="71">
+      <c r="A31" s="44">
         <v>4</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2527,9 +2527,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2541,9 +2541,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2553,9 +2553,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="65" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2569,9 +2569,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2583,9 +2583,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2595,9 +2595,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="65" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2611,9 +2611,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2625,9 +2625,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2639,9 +2639,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2651,9 +2651,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="65" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2667,9 +2667,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2681,9 +2681,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2695,9 +2695,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2707,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2718,8 +2718,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2744,16 +2744,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
-        <v>3</v>
-      </c>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="44">
+        <v>3</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2762,12 +2762,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2776,34 +2776,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="54"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="53" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="54"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2824,13 +2824,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="71">
+      <c r="A54" s="44">
         <v>5</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2842,9 +2842,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2856,9 +2856,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2870,9 +2870,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2882,12 +2882,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="55" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2896,12 +2896,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="55" t="s">
+      <c r="A59" s="44"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="56"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2910,13 +2910,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="71">
+      <c r="A60" s="44">
         <v>7</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2930,9 +2930,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="67"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2944,9 +2944,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="67"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2958,9 +2958,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="67"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2970,23 +2970,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="44" t="s">
+      <c r="A64" s="44"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="45"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="44" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="45"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3045,13 +3045,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3068,20 +3075,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CP\group-22-tsmt-svn\trunk\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15345" windowHeight="4650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15348" windowHeight="4656"/>
   </bookViews>
   <sheets>
     <sheet name="Modules" sheetId="3" r:id="rId1"/>
@@ -372,21 +377,21 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1" tint="4.9989318521683403E-2"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -394,7 +399,7 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -402,7 +407,7 @@
       <b/>
       <sz val="13"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -706,89 +711,89 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1072,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1075,26 +1080,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr>
+  <sheetPr filterMode="1">
     <tabColor rgb="FF00B050"/>
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="59.85546875" style="33" customWidth="1"/>
-    <col min="3" max="3" width="14.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.5703125" style="28" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="59.8984375" style="33" customWidth="1"/>
+    <col min="3" max="3" width="14.3984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="8.09765625" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
         <v>52</v>
       </c>
@@ -1202,7 +1207,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="29" t="s">
         <v>71</v>
       </c>
@@ -1228,7 +1233,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="29" t="s">
         <v>71</v>
       </c>
@@ -1246,7 +1251,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="29" t="s">
         <v>62</v>
       </c>
@@ -1264,7 +1269,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="29" t="s">
         <v>62</v>
       </c>
@@ -1282,7 +1287,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="29" t="s">
         <v>62</v>
       </c>
@@ -1300,7 +1305,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="29" t="s">
         <v>62</v>
       </c>
@@ -1315,7 +1320,7 @@
       </c>
       <c r="E10" s="29"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="29" t="s">
         <v>62</v>
       </c>
@@ -1330,7 +1335,7 @@
       </c>
       <c r="E11" s="29"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="29" t="s">
         <v>62</v>
       </c>
@@ -1403,9 +1408,11 @@
         <v>3</v>
       </c>
       <c r="D16" s="29" t="s">
-        <v>56</v>
-      </c>
-      <c r="E16" s="29"/>
+        <v>55</v>
+      </c>
+      <c r="E16" s="29" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="29" t="s">
@@ -1452,7 +1459,7 @@
       </c>
       <c r="E19" s="29"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="29" t="s">
         <v>63</v>
       </c>
@@ -1467,7 +1474,7 @@
       </c>
       <c r="E20" s="29"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="29" t="s">
         <v>69</v>
       </c>
@@ -1484,7 +1491,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="29" t="s">
         <v>69</v>
       </c>
@@ -1510,13 +1517,11 @@
         <v>3</v>
       </c>
       <c r="D23" s="29" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="29" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+      <c r="E23" s="29"/>
+    </row>
+    <row r="24" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="29" t="s">
         <v>65</v>
       </c>
@@ -1533,7 +1538,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="29" t="s">
         <v>65</v>
       </c>
@@ -1548,7 +1553,7 @@
       </c>
       <c r="E25" s="29"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="29" t="s">
         <v>65</v>
       </c>
@@ -1563,7 +1568,7 @@
       </c>
       <c r="E26" s="29"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="29" t="s">
         <v>70</v>
       </c>
@@ -1580,7 +1585,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="29" t="s">
         <v>70</v>
       </c>
@@ -1597,7 +1602,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="29" t="s">
         <v>70</v>
       </c>
@@ -1627,7 +1632,7 @@
       </c>
       <c r="E30" s="29"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="29" t="s">
         <v>70</v>
       </c>
@@ -1642,7 +1647,7 @@
       </c>
       <c r="E31" s="29"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="29" t="s">
         <v>70</v>
       </c>
@@ -1657,7 +1662,7 @@
       </c>
       <c r="E32" s="29"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="29" t="s">
         <v>70</v>
       </c>
@@ -1672,7 +1677,7 @@
       </c>
       <c r="E33" s="30"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="29" t="s">
         <v>67</v>
       </c>
@@ -1688,7 +1693,14 @@
       <c r="E34" s="29"/>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D34"/>
+  <autoFilter ref="D1:D34">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Hien"/>
+        <filter val="Vinh"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState ref="A2:E39">
     <sortCondition ref="A16"/>
   </sortState>
@@ -1725,22 +1737,22 @@
       <selection activeCell="A2" sqref="A2:F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.85546875" style="41" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="58.5703125" style="33" customWidth="1"/>
-    <col min="3" max="3" width="57.140625" style="33" customWidth="1"/>
+    <col min="1" max="1" width="16.8984375" style="41" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="58.59765625" style="33" customWidth="1"/>
+    <col min="3" max="3" width="57.09765625" style="33" customWidth="1"/>
     <col min="4" max="4" width="16" style="42" customWidth="1"/>
-    <col min="5" max="5" width="16.42578125" style="29" customWidth="1"/>
+    <col min="5" max="5" width="16.3984375" style="29" customWidth="1"/>
     <col min="6" max="6" width="16" style="29" customWidth="1"/>
-    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.3984375" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="14" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="5.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="5.3984375" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="2" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" s="2" customFormat="1" ht="17.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:20" s="2" customFormat="1" ht="16.8" x14ac:dyDescent="0.3">
       <c r="A1" s="35" t="s">
         <v>52</v>
       </c>
@@ -2097,12 +2109,12 @@
       <selection activeCell="N10" sqref="N9:N10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="14.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="35.140625" style="4" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.8984375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="35.09765625" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.59765625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.09765625" customWidth="1"/>
     <col min="8" max="8" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2112,11 +2124,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
-      <c r="B2" s="45" t="s">
+      <c r="A2" s="71"/>
+      <c r="B2" s="61" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="52" t="s">
+      <c r="C2" s="68" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2130,9 +2142,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="44"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="52"/>
+      <c r="A3" s="71"/>
+      <c r="B3" s="61"/>
+      <c r="C3" s="68"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2144,9 +2156,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="44"/>
-      <c r="B4" s="45"/>
-      <c r="C4" s="52"/>
+      <c r="A4" s="71"/>
+      <c r="B4" s="61"/>
+      <c r="C4" s="68"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2156,9 +2168,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="44"/>
-      <c r="B5" s="45"/>
-      <c r="C5" s="52" t="s">
+      <c r="A5" s="71"/>
+      <c r="B5" s="61"/>
+      <c r="C5" s="68" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2172,9 +2184,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="52"/>
+      <c r="A6" s="71"/>
+      <c r="B6" s="61"/>
+      <c r="C6" s="68"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2186,9 +2198,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="44"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="52"/>
+      <c r="A7" s="71"/>
+      <c r="B7" s="61"/>
+      <c r="C7" s="68"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2200,9 +2212,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="44"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="52"/>
+      <c r="A8" s="71"/>
+      <c r="B8" s="61"/>
+      <c r="C8" s="68"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2212,9 +2224,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="44"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="52" t="s">
+      <c r="A9" s="71"/>
+      <c r="B9" s="61"/>
+      <c r="C9" s="68" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2228,9 +2240,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="44"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="52"/>
+      <c r="A10" s="71"/>
+      <c r="B10" s="61"/>
+      <c r="C10" s="68"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2242,9 +2254,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="44"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="52"/>
+      <c r="A11" s="71"/>
+      <c r="B11" s="61"/>
+      <c r="C11" s="68"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2256,9 +2268,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="44"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="52"/>
+      <c r="A12" s="71"/>
+      <c r="B12" s="61"/>
+      <c r="C12" s="68"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2268,9 +2280,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="44"/>
-      <c r="B13" s="45"/>
-      <c r="C13" s="52" t="s">
+      <c r="A13" s="71"/>
+      <c r="B13" s="61"/>
+      <c r="C13" s="68" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2284,9 +2296,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="44"/>
-      <c r="B14" s="45"/>
-      <c r="C14" s="52"/>
+      <c r="A14" s="71"/>
+      <c r="B14" s="61"/>
+      <c r="C14" s="68"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2298,9 +2310,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="44"/>
-      <c r="B15" s="45"/>
-      <c r="C15" s="52"/>
+      <c r="A15" s="71"/>
+      <c r="B15" s="61"/>
+      <c r="C15" s="68"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2312,9 +2324,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="44"/>
-      <c r="B16" s="45"/>
-      <c r="C16" s="52"/>
+      <c r="A16" s="71"/>
+      <c r="B16" s="61"/>
+      <c r="C16" s="68"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2324,21 +2336,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="44"/>
-      <c r="B17" s="45"/>
-      <c r="C17" s="53" t="s">
+      <c r="A17" s="71"/>
+      <c r="B17" s="61"/>
+      <c r="C17" s="69" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="53"/>
+      <c r="D17" s="69"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="44">
+      <c r="A18" s="71">
         <v>2</v>
       </c>
-      <c r="B18" s="59" t="s">
+      <c r="B18" s="46" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2350,8 +2362,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="44"/>
-      <c r="B19" s="60"/>
+      <c r="A19" s="71"/>
+      <c r="B19" s="47"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2364,8 +2376,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="44"/>
-      <c r="B20" s="60"/>
+      <c r="A20" s="71"/>
+      <c r="B20" s="47"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2375,8 +2387,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="44"/>
-      <c r="B21" s="60"/>
+      <c r="A21" s="71"/>
+      <c r="B21" s="47"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2389,8 +2401,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="44"/>
-      <c r="B22" s="60"/>
+      <c r="A22" s="71"/>
+      <c r="B22" s="47"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2400,8 +2412,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="44"/>
-      <c r="B23" s="60"/>
+      <c r="A23" s="71"/>
+      <c r="B23" s="47"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2411,8 +2423,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="44"/>
-      <c r="B24" s="60"/>
+      <c r="A24" s="71"/>
+      <c r="B24" s="47"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2425,24 +2437,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="44"/>
-      <c r="B25" s="61"/>
-      <c r="C25" s="70" t="s">
+      <c r="A25" s="71"/>
+      <c r="B25" s="48"/>
+      <c r="C25" s="59" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="71"/>
+      <c r="D25" s="60"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="44">
+      <c r="A26" s="71">
         <v>6</v>
       </c>
-      <c r="B26" s="54" t="s">
+      <c r="B26" s="51" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="54" t="s">
+      <c r="C26" s="51" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2456,9 +2468,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="44"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="55"/>
+      <c r="A27" s="71"/>
+      <c r="B27" s="52"/>
+      <c r="C27" s="52"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2470,9 +2482,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="44"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
+      <c r="A28" s="71"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="70"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2482,8 +2494,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="44"/>
-      <c r="B29" s="55"/>
+      <c r="A29" s="71"/>
+      <c r="B29" s="52"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2493,12 +2505,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="44"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="68" t="s">
+      <c r="A30" s="71"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="57" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="69"/>
+      <c r="D30" s="58"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2507,13 +2519,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="44">
+      <c r="A31" s="71">
         <v>4</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="49" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="49" t="s">
+      <c r="C31" s="65" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2527,9 +2539,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="44"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="49"/>
+      <c r="A32" s="71"/>
+      <c r="B32" s="49"/>
+      <c r="C32" s="65"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2541,9 +2553,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="44"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="49"/>
+      <c r="A33" s="71"/>
+      <c r="B33" s="49"/>
+      <c r="C33" s="65"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2553,9 +2565,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="44"/>
-      <c r="B34" s="62"/>
-      <c r="C34" s="49" t="s">
+      <c r="A34" s="71"/>
+      <c r="B34" s="49"/>
+      <c r="C34" s="65" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2569,9 +2581,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="44"/>
-      <c r="B35" s="62"/>
-      <c r="C35" s="49"/>
+      <c r="A35" s="71"/>
+      <c r="B35" s="49"/>
+      <c r="C35" s="65"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2583,9 +2595,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="44"/>
-      <c r="B36" s="62"/>
-      <c r="C36" s="49"/>
+      <c r="A36" s="71"/>
+      <c r="B36" s="49"/>
+      <c r="C36" s="65"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2595,9 +2607,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="44"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="49" t="s">
+      <c r="A37" s="71"/>
+      <c r="B37" s="49"/>
+      <c r="C37" s="65" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2611,9 +2623,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="44"/>
-      <c r="B38" s="62"/>
-      <c r="C38" s="49"/>
+      <c r="A38" s="71"/>
+      <c r="B38" s="49"/>
+      <c r="C38" s="65"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2625,9 +2637,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="44"/>
-      <c r="B39" s="62"/>
-      <c r="C39" s="49"/>
+      <c r="A39" s="71"/>
+      <c r="B39" s="49"/>
+      <c r="C39" s="65"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2639,9 +2651,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="44"/>
-      <c r="B40" s="62"/>
-      <c r="C40" s="49"/>
+      <c r="A40" s="71"/>
+      <c r="B40" s="49"/>
+      <c r="C40" s="65"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2651,9 +2663,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="44"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="49" t="s">
+      <c r="A41" s="71"/>
+      <c r="B41" s="49"/>
+      <c r="C41" s="65" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2667,9 +2679,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="44"/>
-      <c r="B42" s="62"/>
-      <c r="C42" s="49"/>
+      <c r="A42" s="71"/>
+      <c r="B42" s="49"/>
+      <c r="C42" s="65"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2681,9 +2693,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="44"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="49"/>
+      <c r="A43" s="71"/>
+      <c r="B43" s="49"/>
+      <c r="C43" s="65"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2695,9 +2707,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="44"/>
-      <c r="B44" s="62"/>
-      <c r="C44" s="49"/>
+      <c r="A44" s="71"/>
+      <c r="B44" s="49"/>
+      <c r="C44" s="65"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2707,8 +2719,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="44"/>
-      <c r="B45" s="62"/>
+      <c r="A45" s="71"/>
+      <c r="B45" s="49"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2718,8 +2730,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="44"/>
-      <c r="B46" s="63"/>
+      <c r="A46" s="71"/>
+      <c r="B46" s="50"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2744,16 +2756,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="44">
-        <v>3</v>
-      </c>
-      <c r="B48" s="46" t="s">
+      <c r="A48" s="71">
+        <v>3</v>
+      </c>
+      <c r="B48" s="62" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="64" t="s">
+      <c r="C48" s="53" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="65"/>
+      <c r="D48" s="54"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2762,12 +2774,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="44"/>
-      <c r="B49" s="46"/>
-      <c r="C49" s="64" t="s">
+      <c r="A49" s="71"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="65"/>
+      <c r="D49" s="54"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2776,34 +2788,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="44"/>
-      <c r="B50" s="46"/>
-      <c r="C50" s="64" t="s">
+      <c r="A50" s="71"/>
+      <c r="B50" s="62"/>
+      <c r="C50" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="65"/>
+      <c r="D50" s="54"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="44"/>
-      <c r="B51" s="46"/>
-      <c r="C51" s="64" t="s">
+      <c r="A51" s="71"/>
+      <c r="B51" s="62"/>
+      <c r="C51" s="53" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="65"/>
+      <c r="D51" s="54"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="44"/>
-      <c r="B52" s="46"/>
-      <c r="C52" s="64" t="s">
+      <c r="A52" s="71"/>
+      <c r="B52" s="62"/>
+      <c r="C52" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="65"/>
+      <c r="D52" s="54"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2824,13 +2836,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="44">
+      <c r="A54" s="71">
         <v>5</v>
       </c>
-      <c r="B54" s="47" t="s">
+      <c r="B54" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="50" t="s">
+      <c r="C54" s="66" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2842,9 +2854,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="44"/>
-      <c r="B55" s="47"/>
-      <c r="C55" s="50"/>
+      <c r="A55" s="71"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="66"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2856,9 +2868,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="44"/>
-      <c r="B56" s="47"/>
-      <c r="C56" s="50"/>
+      <c r="A56" s="71"/>
+      <c r="B56" s="63"/>
+      <c r="C56" s="66"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2870,9 +2882,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="44"/>
-      <c r="B57" s="47"/>
-      <c r="C57" s="50"/>
+      <c r="A57" s="71"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="66"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2882,12 +2894,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="44"/>
-      <c r="B58" s="47"/>
-      <c r="C58" s="66" t="s">
+      <c r="A58" s="71"/>
+      <c r="B58" s="63"/>
+      <c r="C58" s="55" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="67"/>
+      <c r="D58" s="56"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2896,12 +2908,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="44"/>
-      <c r="B59" s="47"/>
-      <c r="C59" s="66" t="s">
+      <c r="A59" s="71"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="67"/>
+      <c r="D59" s="56"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2910,13 +2922,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="44">
+      <c r="A60" s="71">
         <v>7</v>
       </c>
-      <c r="B60" s="48" t="s">
+      <c r="B60" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="51" t="s">
+      <c r="C60" s="67" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2930,9 +2942,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="44"/>
-      <c r="B61" s="48"/>
-      <c r="C61" s="51"/>
+      <c r="A61" s="71"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="67"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2944,9 +2956,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="44"/>
-      <c r="B62" s="48"/>
-      <c r="C62" s="51"/>
+      <c r="A62" s="71"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="67"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2958,9 +2970,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="44"/>
-      <c r="B63" s="48"/>
-      <c r="C63" s="51"/>
+      <c r="A63" s="71"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="67"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2970,23 +2982,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="44"/>
-      <c r="B64" s="48"/>
-      <c r="C64" s="57" t="s">
+      <c r="A64" s="71"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="44" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="58"/>
+      <c r="D64" s="45"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="44"/>
-      <c r="B65" s="48"/>
-      <c r="C65" s="57" t="s">
+      <c r="A65" s="71"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="58"/>
+      <c r="D65" s="45"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3045,20 +3057,13 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3075,13 +3080,20 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
@@ -3099,7 +3111,7 @@
       <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/TaskSheets.xlsx
+++ b/TaskSheets.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="111">
   <si>
     <t>Search</t>
   </si>
@@ -711,6 +711,45 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -732,12 +771,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -761,39 +794,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,9 +1085,7 @@
   </sheetPr>
   <dimension ref="A1:P34"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1101,7 +1099,7 @@
   <sheetData>
     <row r="1" spans="1:16" ht="15.6" x14ac:dyDescent="0.25">
       <c r="A1" s="27" t="s">
-        <v>52</v>
+        <v>71</v>
       </c>
       <c r="B1" s="31" t="s">
         <v>58</v>
@@ -1128,7 +1126,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>71</v>
       </c>
@@ -1157,7 +1155,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="29" t="s">
         <v>71</v>
       </c>
@@ -1196,7 +1194,9 @@
       <c r="D4" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="E4" s="29"/>
+      <c r="E4" s="29" t="s">
+        <v>77</v>
+      </c>
       <c r="M4" t="s">
         <v>66</v>
       </c>
@@ -1365,7 +1365,7 @@
       </c>
       <c r="E13" s="29"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="29" t="s">
         <v>66</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="29" t="s">
         <v>66</v>
       </c>
@@ -1506,7 +1506,7 @@
       </c>
       <c r="E22" s="29"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="29" t="s">
         <v>69</v>
       </c>
@@ -1617,7 +1617,7 @@
       </c>
       <c r="E29" s="29"/>
     </row>
-    <row r="30" spans="1:5" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" ht="14.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="29" t="s">
         <v>70</v>
       </c>
@@ -1697,7 +1697,6 @@
     <filterColumn colId="0">
       <filters>
         <filter val="Hien"/>
-        <filter val="Vinh"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -2124,11 +2123,11 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="61" t="s">
+      <c r="A2" s="44"/>
+      <c r="B2" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C2" s="68" t="s">
+      <c r="C2" s="52" t="s">
         <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
@@ -2142,9 +2141,9 @@
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="71"/>
-      <c r="B3" s="61"/>
-      <c r="C3" s="68"/>
+      <c r="A3" s="44"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="15" t="s">
         <v>2</v>
       </c>
@@ -2156,9 +2155,9 @@
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="71"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="68"/>
+      <c r="A4" s="44"/>
+      <c r="B4" s="45"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="15" t="s">
         <v>3</v>
       </c>
@@ -2168,9 +2167,9 @@
       <c r="F4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="71"/>
-      <c r="B5" s="61"/>
-      <c r="C5" s="68" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="52" t="s">
         <v>4</v>
       </c>
       <c r="D5" s="15" t="s">
@@ -2184,9 +2183,9 @@
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" s="71"/>
-      <c r="B6" s="61"/>
-      <c r="C6" s="68"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="52"/>
       <c r="D6" s="15" t="s">
         <v>1</v>
       </c>
@@ -2198,9 +2197,9 @@
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="71"/>
-      <c r="B7" s="61"/>
-      <c r="C7" s="68"/>
+      <c r="A7" s="44"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="52"/>
       <c r="D7" s="15" t="s">
         <v>2</v>
       </c>
@@ -2212,9 +2211,9 @@
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="71"/>
-      <c r="B8" s="61"/>
-      <c r="C8" s="68"/>
+      <c r="A8" s="44"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="52"/>
       <c r="D8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2224,9 +2223,9 @@
       <c r="F8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A9" s="71"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="68" t="s">
+      <c r="A9" s="44"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="52" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
@@ -2240,9 +2239,9 @@
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A10" s="71"/>
-      <c r="B10" s="61"/>
-      <c r="C10" s="68"/>
+      <c r="A10" s="44"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="52"/>
       <c r="D10" s="15" t="s">
         <v>1</v>
       </c>
@@ -2254,9 +2253,9 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="71"/>
-      <c r="B11" s="61"/>
-      <c r="C11" s="68"/>
+      <c r="A11" s="44"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="52"/>
       <c r="D11" s="15" t="s">
         <v>2</v>
       </c>
@@ -2268,9 +2267,9 @@
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A12" s="71"/>
-      <c r="B12" s="61"/>
-      <c r="C12" s="68"/>
+      <c r="A12" s="44"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="52"/>
       <c r="D12" s="15" t="s">
         <v>3</v>
       </c>
@@ -2280,9 +2279,9 @@
       <c r="F12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A13" s="71"/>
-      <c r="B13" s="61"/>
-      <c r="C13" s="68" t="s">
+      <c r="A13" s="44"/>
+      <c r="B13" s="45"/>
+      <c r="C13" s="52" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="15" t="s">
@@ -2296,9 +2295,9 @@
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A14" s="71"/>
-      <c r="B14" s="61"/>
-      <c r="C14" s="68"/>
+      <c r="A14" s="44"/>
+      <c r="B14" s="45"/>
+      <c r="C14" s="52"/>
       <c r="D14" s="15" t="s">
         <v>1</v>
       </c>
@@ -2310,9 +2309,9 @@
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A15" s="71"/>
-      <c r="B15" s="61"/>
-      <c r="C15" s="68"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="52"/>
       <c r="D15" s="15" t="s">
         <v>2</v>
       </c>
@@ -2324,9 +2323,9 @@
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A16" s="71"/>
-      <c r="B16" s="61"/>
-      <c r="C16" s="68"/>
+      <c r="A16" s="44"/>
+      <c r="B16" s="45"/>
+      <c r="C16" s="52"/>
       <c r="D16" s="15" t="s">
         <v>3</v>
       </c>
@@ -2336,21 +2335,21 @@
       <c r="F16" s="3"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17" s="71"/>
-      <c r="B17" s="61"/>
-      <c r="C17" s="69" t="s">
+      <c r="A17" s="44"/>
+      <c r="B17" s="45"/>
+      <c r="C17" s="53" t="s">
         <v>7</v>
       </c>
-      <c r="D17" s="69"/>
+      <c r="D17" s="53"/>
       <c r="E17" s="2">
         <v>16</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18" s="71">
+      <c r="A18" s="44">
         <v>2</v>
       </c>
-      <c r="B18" s="46" t="s">
+      <c r="B18" s="59" t="s">
         <v>26</v>
       </c>
       <c r="C18" s="16" t="s">
@@ -2362,8 +2361,8 @@
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19" s="71"/>
-      <c r="B19" s="47"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="60"/>
       <c r="C19" s="16" t="s">
         <v>9</v>
       </c>
@@ -2376,8 +2375,8 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A20" s="71"/>
-      <c r="B20" s="47"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="60"/>
       <c r="C20" s="16" t="s">
         <v>10</v>
       </c>
@@ -2387,8 +2386,8 @@
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A21" s="71"/>
-      <c r="B21" s="47"/>
+      <c r="A21" s="44"/>
+      <c r="B21" s="60"/>
       <c r="C21" s="16" t="s">
         <v>11</v>
       </c>
@@ -2401,8 +2400,8 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A22" s="71"/>
-      <c r="B22" s="47"/>
+      <c r="A22" s="44"/>
+      <c r="B22" s="60"/>
       <c r="C22" s="16" t="s">
         <v>12</v>
       </c>
@@ -2412,8 +2411,8 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A23" s="71"/>
-      <c r="B23" s="47"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="60"/>
       <c r="C23" s="17" t="s">
         <v>13</v>
       </c>
@@ -2423,8 +2422,8 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A24" s="71"/>
-      <c r="B24" s="47"/>
+      <c r="A24" s="44"/>
+      <c r="B24" s="60"/>
       <c r="C24" s="17" t="s">
         <v>27</v>
       </c>
@@ -2437,24 +2436,24 @@
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A25" s="71"/>
-      <c r="B25" s="48"/>
-      <c r="C25" s="59" t="s">
+      <c r="A25" s="44"/>
+      <c r="B25" s="61"/>
+      <c r="C25" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="60"/>
+      <c r="D25" s="71"/>
       <c r="E25" s="2">
         <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A26" s="71">
+      <c r="A26" s="44">
         <v>6</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="54" t="s">
         <v>46</v>
       </c>
-      <c r="C26" s="51" t="s">
+      <c r="C26" s="54" t="s">
         <v>14</v>
       </c>
       <c r="D26" s="19" t="s">
@@ -2468,9 +2467,9 @@
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A27" s="71"/>
-      <c r="B27" s="52"/>
-      <c r="C27" s="52"/>
+      <c r="A27" s="44"/>
+      <c r="B27" s="55"/>
+      <c r="C27" s="55"/>
       <c r="D27" s="19" t="s">
         <v>16</v>
       </c>
@@ -2482,9 +2481,9 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A28" s="71"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="70"/>
+      <c r="A28" s="44"/>
+      <c r="B28" s="55"/>
+      <c r="C28" s="56"/>
       <c r="D28" s="19" t="s">
         <v>17</v>
       </c>
@@ -2494,8 +2493,8 @@
       <c r="F28" s="3"/>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A29" s="71"/>
-      <c r="B29" s="52"/>
+      <c r="A29" s="44"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="20" t="s">
         <v>18</v>
       </c>
@@ -2505,12 +2504,12 @@
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A30" s="71"/>
-      <c r="B30" s="52"/>
-      <c r="C30" s="57" t="s">
+      <c r="A30" s="44"/>
+      <c r="B30" s="55"/>
+      <c r="C30" s="68" t="s">
         <v>11</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="69"/>
       <c r="E30" s="2">
         <v>29</v>
       </c>
@@ -2519,13 +2518,13 @@
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="71">
+      <c r="A31" s="44">
         <v>4</v>
       </c>
-      <c r="B31" s="49" t="s">
+      <c r="B31" s="62" t="s">
         <v>21</v>
       </c>
-      <c r="C31" s="65" t="s">
+      <c r="C31" s="49" t="s">
         <v>19</v>
       </c>
       <c r="D31" s="5" t="s">
@@ -2539,9 +2538,9 @@
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="71"/>
-      <c r="B32" s="49"/>
-      <c r="C32" s="65"/>
+      <c r="A32" s="44"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="49"/>
       <c r="D32" s="5" t="s">
         <v>2</v>
       </c>
@@ -2553,9 +2552,9 @@
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="49"/>
-      <c r="C33" s="65"/>
+      <c r="A33" s="44"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="49"/>
       <c r="D33" s="5" t="s">
         <v>3</v>
       </c>
@@ -2565,9 +2564,9 @@
       <c r="F33" s="3"/>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="71"/>
-      <c r="B34" s="49"/>
-      <c r="C34" s="65" t="s">
+      <c r="A34" s="44"/>
+      <c r="B34" s="62"/>
+      <c r="C34" s="49" t="s">
         <v>20</v>
       </c>
       <c r="D34" s="5" t="s">
@@ -2581,9 +2580,9 @@
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="71"/>
-      <c r="B35" s="49"/>
-      <c r="C35" s="65"/>
+      <c r="A35" s="44"/>
+      <c r="B35" s="62"/>
+      <c r="C35" s="49"/>
       <c r="D35" s="5" t="s">
         <v>16</v>
       </c>
@@ -2595,9 +2594,9 @@
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="71"/>
-      <c r="B36" s="49"/>
-      <c r="C36" s="65"/>
+      <c r="A36" s="44"/>
+      <c r="B36" s="62"/>
+      <c r="C36" s="49"/>
       <c r="D36" s="5" t="s">
         <v>17</v>
       </c>
@@ -2607,9 +2606,9 @@
       <c r="F36" s="3"/>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A37" s="71"/>
-      <c r="B37" s="49"/>
-      <c r="C37" s="65" t="s">
+      <c r="A37" s="44"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="49" t="s">
         <v>22</v>
       </c>
       <c r="D37" s="5" t="s">
@@ -2623,9 +2622,9 @@
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A38" s="71"/>
-      <c r="B38" s="49"/>
-      <c r="C38" s="65"/>
+      <c r="A38" s="44"/>
+      <c r="B38" s="62"/>
+      <c r="C38" s="49"/>
       <c r="D38" s="5" t="s">
         <v>1</v>
       </c>
@@ -2637,9 +2636,9 @@
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A39" s="71"/>
-      <c r="B39" s="49"/>
-      <c r="C39" s="65"/>
+      <c r="A39" s="44"/>
+      <c r="B39" s="62"/>
+      <c r="C39" s="49"/>
       <c r="D39" s="5" t="s">
         <v>2</v>
       </c>
@@ -2651,9 +2650,9 @@
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A40" s="71"/>
-      <c r="B40" s="49"/>
-      <c r="C40" s="65"/>
+      <c r="A40" s="44"/>
+      <c r="B40" s="62"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="5" t="s">
         <v>3</v>
       </c>
@@ -2663,9 +2662,9 @@
       <c r="F40" s="3"/>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="71"/>
-      <c r="B41" s="49"/>
-      <c r="C41" s="65" t="s">
+      <c r="A41" s="44"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="49" t="s">
         <v>23</v>
       </c>
       <c r="D41" s="5" t="s">
@@ -2679,9 +2678,9 @@
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A42" s="71"/>
-      <c r="B42" s="49"/>
-      <c r="C42" s="65"/>
+      <c r="A42" s="44"/>
+      <c r="B42" s="62"/>
+      <c r="C42" s="49"/>
       <c r="D42" s="5" t="s">
         <v>1</v>
       </c>
@@ -2693,9 +2692,9 @@
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A43" s="71"/>
-      <c r="B43" s="49"/>
-      <c r="C43" s="65"/>
+      <c r="A43" s="44"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="49"/>
       <c r="D43" s="5" t="s">
         <v>2</v>
       </c>
@@ -2707,9 +2706,9 @@
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A44" s="71"/>
-      <c r="B44" s="49"/>
-      <c r="C44" s="65"/>
+      <c r="A44" s="44"/>
+      <c r="B44" s="62"/>
+      <c r="C44" s="49"/>
       <c r="D44" s="5" t="s">
         <v>3</v>
       </c>
@@ -2719,8 +2718,8 @@
       <c r="F44" s="3"/>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A45" s="71"/>
-      <c r="B45" s="49"/>
+      <c r="A45" s="44"/>
+      <c r="B45" s="62"/>
       <c r="C45" s="6" t="s">
         <v>24</v>
       </c>
@@ -2730,8 +2729,8 @@
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A46" s="71"/>
-      <c r="B46" s="50"/>
+      <c r="A46" s="44"/>
+      <c r="B46" s="63"/>
       <c r="C46" s="6" t="s">
         <v>25</v>
       </c>
@@ -2756,16 +2755,16 @@
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="71">
-        <v>3</v>
-      </c>
-      <c r="B48" s="62" t="s">
+      <c r="A48" s="44">
+        <v>3</v>
+      </c>
+      <c r="B48" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C48" s="53" t="s">
+      <c r="C48" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="D48" s="54"/>
+      <c r="D48" s="65"/>
       <c r="E48" s="2">
         <v>47</v>
       </c>
@@ -2774,12 +2773,12 @@
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A49" s="71"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="53" t="s">
+      <c r="A49" s="44"/>
+      <c r="B49" s="46"/>
+      <c r="C49" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="D49" s="54"/>
+      <c r="D49" s="65"/>
       <c r="E49" s="2">
         <v>48</v>
       </c>
@@ -2788,34 +2787,34 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="71"/>
-      <c r="B50" s="62"/>
-      <c r="C50" s="53" t="s">
+      <c r="A50" s="44"/>
+      <c r="B50" s="46"/>
+      <c r="C50" s="64" t="s">
         <v>10</v>
       </c>
-      <c r="D50" s="54"/>
+      <c r="D50" s="65"/>
       <c r="E50" s="2">
         <v>49</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="71"/>
-      <c r="B51" s="62"/>
-      <c r="C51" s="53" t="s">
+      <c r="A51" s="44"/>
+      <c r="B51" s="46"/>
+      <c r="C51" s="64" t="s">
         <v>8</v>
       </c>
-      <c r="D51" s="54"/>
+      <c r="D51" s="65"/>
       <c r="E51" s="2">
         <v>50</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="71"/>
-      <c r="B52" s="62"/>
-      <c r="C52" s="53" t="s">
+      <c r="A52" s="44"/>
+      <c r="B52" s="46"/>
+      <c r="C52" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="D52" s="54"/>
+      <c r="D52" s="65"/>
       <c r="E52" s="2">
         <v>51</v>
       </c>
@@ -2836,13 +2835,13 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="71">
+      <c r="A54" s="44">
         <v>5</v>
       </c>
-      <c r="B54" s="63" t="s">
+      <c r="B54" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C54" s="66" t="s">
+      <c r="C54" s="50" t="s">
         <v>35</v>
       </c>
       <c r="D54" s="13" t="s">
@@ -2854,9 +2853,9 @@
       <c r="F54" s="3"/>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="71"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="66"/>
+      <c r="A55" s="44"/>
+      <c r="B55" s="47"/>
+      <c r="C55" s="50"/>
       <c r="D55" s="13" t="s">
         <v>37</v>
       </c>
@@ -2868,9 +2867,9 @@
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="71"/>
-      <c r="B56" s="63"/>
-      <c r="C56" s="66"/>
+      <c r="A56" s="44"/>
+      <c r="B56" s="47"/>
+      <c r="C56" s="50"/>
       <c r="D56" s="13" t="s">
         <v>38</v>
       </c>
@@ -2882,9 +2881,9 @@
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="71"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="66"/>
+      <c r="A57" s="44"/>
+      <c r="B57" s="47"/>
+      <c r="C57" s="50"/>
       <c r="D57" s="13" t="s">
         <v>39</v>
       </c>
@@ -2894,12 +2893,12 @@
       <c r="F57" s="3"/>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="71"/>
-      <c r="B58" s="63"/>
-      <c r="C58" s="55" t="s">
+      <c r="A58" s="44"/>
+      <c r="B58" s="47"/>
+      <c r="C58" s="66" t="s">
         <v>40</v>
       </c>
-      <c r="D58" s="56"/>
+      <c r="D58" s="67"/>
       <c r="E58" s="2">
         <v>57</v>
       </c>
@@ -2908,12 +2907,12 @@
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="71"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="55" t="s">
+      <c r="A59" s="44"/>
+      <c r="B59" s="47"/>
+      <c r="C59" s="66" t="s">
         <v>41</v>
       </c>
-      <c r="D59" s="56"/>
+      <c r="D59" s="67"/>
       <c r="E59" s="2">
         <v>58</v>
       </c>
@@ -2922,13 +2921,13 @@
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A60" s="71">
+      <c r="A60" s="44">
         <v>7</v>
       </c>
-      <c r="B60" s="64" t="s">
+      <c r="B60" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="C60" s="67" t="s">
+      <c r="C60" s="51" t="s">
         <v>5</v>
       </c>
       <c r="D60" s="14" t="s">
@@ -2942,9 +2941,9 @@
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A61" s="71"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="67"/>
+      <c r="A61" s="44"/>
+      <c r="B61" s="48"/>
+      <c r="C61" s="51"/>
       <c r="D61" s="14" t="s">
         <v>1</v>
       </c>
@@ -2956,9 +2955,9 @@
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A62" s="71"/>
-      <c r="B62" s="64"/>
-      <c r="C62" s="67"/>
+      <c r="A62" s="44"/>
+      <c r="B62" s="48"/>
+      <c r="C62" s="51"/>
       <c r="D62" s="14" t="s">
         <v>2</v>
       </c>
@@ -2970,9 +2969,9 @@
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A63" s="71"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="67"/>
+      <c r="A63" s="44"/>
+      <c r="B63" s="48"/>
+      <c r="C63" s="51"/>
       <c r="D63" s="14" t="s">
         <v>3</v>
       </c>
@@ -2982,23 +2981,23 @@
       <c r="F63" s="3"/>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A64" s="71"/>
-      <c r="B64" s="64"/>
-      <c r="C64" s="44" t="s">
+      <c r="A64" s="44"/>
+      <c r="B64" s="48"/>
+      <c r="C64" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="D64" s="45"/>
+      <c r="D64" s="58"/>
       <c r="E64" s="2">
         <v>63</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="71"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="44" t="s">
+      <c r="A65" s="44"/>
+      <c r="B65" s="48"/>
+      <c r="C65" s="57" t="s">
         <v>18</v>
       </c>
-      <c r="D65" s="45"/>
+      <c r="D65" s="58"/>
       <c r="E65" s="2">
         <v>64</v>
       </c>
@@ -3057,13 +3056,20 @@
   </sheetData>
   <autoFilter ref="F1:F82"/>
   <mergeCells count="37">
-    <mergeCell ref="A54:A59"/>
-    <mergeCell ref="A60:A65"/>
-    <mergeCell ref="A2:A17"/>
-    <mergeCell ref="A18:A25"/>
-    <mergeCell ref="A26:A30"/>
-    <mergeCell ref="A31:A46"/>
-    <mergeCell ref="A48:A52"/>
+    <mergeCell ref="C65:D65"/>
+    <mergeCell ref="C64:D64"/>
+    <mergeCell ref="B18:B25"/>
+    <mergeCell ref="B31:B46"/>
+    <mergeCell ref="B26:B30"/>
+    <mergeCell ref="C52:D52"/>
+    <mergeCell ref="C51:D51"/>
+    <mergeCell ref="C50:D50"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="C59:D59"/>
+    <mergeCell ref="C58:D58"/>
+    <mergeCell ref="C30:D30"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="B2:B17"/>
     <mergeCell ref="B48:B52"/>
     <mergeCell ref="B54:B59"/>
@@ -3080,20 +3086,13 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C31:C33"/>
     <mergeCell ref="C26:C28"/>
-    <mergeCell ref="C65:D65"/>
-    <mergeCell ref="C64:D64"/>
-    <mergeCell ref="B18:B25"/>
-    <mergeCell ref="B31:B46"/>
-    <mergeCell ref="B26:B30"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="C51:D51"/>
-    <mergeCell ref="C50:D50"/>
-    <mergeCell ref="C49:D49"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="C59:D59"/>
-    <mergeCell ref="C58:D58"/>
-    <mergeCell ref="C30:D30"/>
-    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="A54:A59"/>
+    <mergeCell ref="A60:A65"/>
+    <mergeCell ref="A2:A17"/>
+    <mergeCell ref="A18:A25"/>
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A31:A46"/>
+    <mergeCell ref="A48:A52"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967294" verticalDpi="0" r:id="rId1"/>
